--- a/bambooskoo.xlsx
+++ b/bambooskoo.xlsx
@@ -3,12 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="202300"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{195CAD12-DDD0-EB42-9727-396F6D728846}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69C83EC1-1E70-554A-B4F1-FC00E1202BA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2600" yWindow="1680" windowWidth="27640" windowHeight="16940" xr2:uid="{969CB53A-229A-6047-8583-E01588982B78}"/>
+    <workbookView xWindow="2040" yWindow="1220" windowWidth="27640" windowHeight="16940" xr2:uid="{969CB53A-229A-6047-8583-E01588982B78}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="raw data" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -266,7 +267,34 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1819" uniqueCount="32">
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>[x1p]</t>
+  </si>
+  <si>
+    <t>{"command":</t>
+  </si>
+  <si>
+    <t>M1005</t>
+  </si>
+  <si>
+    <t>param:</t>
+  </si>
+  <si>
+    <t>{"skew":</t>
+  </si>
+  <si>
+    <t>current</t>
+  </si>
+  <si>
+    <t>XY_comp_ang:</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
   <si>
     <t>X</t>
   </si>
@@ -325,7 +353,16 @@
     <t>%err</t>
   </si>
   <si>
-    <t>shouldn't they be doing this though?</t>
+    <t>Test #3</t>
+  </si>
+  <si>
+    <t>Test 3: Bambu skew</t>
+  </si>
+  <si>
+    <t>Vary X</t>
+  </si>
+  <si>
+    <t>Vary Y</t>
   </si>
 </sst>
 </file>
@@ -406,8 +443,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -415,16 +454,16 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="21" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -436,9 +475,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -457,6 +493,18 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -700,7 +748,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$7:$A$26</c:f>
+              <c:f>Sheet1!$A$8:$A$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
@@ -769,7 +817,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$E$7:$E$26</c:f>
+              <c:f>Sheet1!$E$8:$E$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
@@ -1168,7 +1216,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$H$4</c:f>
+              <c:f>Sheet1!$H$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
               </c:strCache>
@@ -1196,9 +1244,60 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.14599065221247096"/>
+                  <c:y val="-1.3741356027395041E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$7:$A$26</c:f>
+              <c:f>Sheet1!$A$8:$A$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
@@ -1267,7 +1366,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$D$7:$D$26</c:f>
+              <c:f>Sheet1!$D$8:$D$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
@@ -2671,15 +2770,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>604762</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>181428</xdr:colOff>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>153810</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>547511</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>124178</xdr:colOff>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>80634</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2707,16 +2806,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>449942</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>403175</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>822475</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>30642</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>411841</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>115309</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>784375</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>30642</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2747,7 +2846,7 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>269119</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>282221</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1143070" cy="264560"/>
@@ -2967,6 +3066,10 @@
     </cdr:sp>
   </cdr:relSizeAnchor>
 </c:userShapes>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3286,1064 +3389,8987 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17FE44B1-614B-1E44-837D-CB0691D13785}">
-  <dimension ref="A1:H110"/>
+  <dimension ref="A1:H43"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="63" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:B6"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="75" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="4"/>
-    <col min="2" max="2" width="15.5" style="4" customWidth="1"/>
-    <col min="3" max="3" width="13" style="4" customWidth="1"/>
-    <col min="4" max="4" width="15.6640625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="25.33203125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="32.83203125" style="4" customWidth="1"/>
-    <col min="7" max="7" width="17.33203125" style="4" customWidth="1"/>
-    <col min="8" max="8" width="13.1640625" style="4" customWidth="1"/>
-    <col min="9" max="16384" width="10.83203125" style="4"/>
+    <col min="1" max="1" width="10.83203125" style="6"/>
+    <col min="2" max="2" width="22.6640625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="13" style="6" customWidth="1"/>
+    <col min="4" max="4" width="15.6640625" style="6" customWidth="1"/>
+    <col min="5" max="5" width="25.33203125" style="6" customWidth="1"/>
+    <col min="6" max="6" width="32.83203125" style="6" customWidth="1"/>
+    <col min="7" max="7" width="17.33203125" style="6" customWidth="1"/>
+    <col min="8" max="8" width="13.1640625" style="6" customWidth="1"/>
+    <col min="9" max="16384" width="10.83203125" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="1"/>
-      <c r="B1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="3" t="s">
+      <c r="A1" s="3"/>
+      <c r="B1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="E1" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" s="15"/>
+    </row>
+    <row r="2" spans="1:8" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="13"/>
-    </row>
-    <row r="2" spans="1:8" ht="38" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="6">
+      <c r="B2" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="7">
         <v>120</v>
       </c>
-      <c r="E2" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="18" t="s">
+      <c r="E2" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="14"/>
+      <c r="F2" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" s="25" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="3" spans="1:8" ht="38" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="15"/>
-    </row>
-    <row r="6" spans="1:8" ht="59" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="20" t="s">
+      <c r="A3" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="10"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="25"/>
+    </row>
+    <row r="4" spans="1:8" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C4" s="16"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="16"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" s="12" t="s">
+      <c r="C5" s="13">
+        <v>120</v>
+      </c>
+      <c r="D5" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="F6" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="G6" s="12" t="s">
+      <c r="E5" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E6" s="22"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="9"/>
+    </row>
+    <row r="7" spans="1:8" ht="59" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="H6" s="12" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="11">
+      <c r="G7" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="H7" s="14" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="13">
         <v>119.1</v>
       </c>
-      <c r="B7" s="11">
+      <c r="B8" s="13">
         <v>120</v>
       </c>
-      <c r="C7" s="11">
-        <f>COS(RADIANS(45)) *A7</f>
+      <c r="C8" s="13">
+        <f>COS(RADIANS(45)) *A8</f>
         <v>84.216417639317811</v>
       </c>
-      <c r="D7" s="11">
+      <c r="D8" s="13">
         <v>7.5300000000000002E-3</v>
       </c>
-      <c r="E7" s="11">
+      <c r="E8" s="13">
         <v>7.5300000000000002E-3</v>
       </c>
-      <c r="F7" s="11">
-        <f>RADIANS(45-DEGREES(ASIN(C7/MAX(A7:B7))))</f>
+      <c r="F8" s="13">
+        <f>RADIANS(45-DEGREES(ASIN(C8/MAX(A8:B8))))</f>
         <v>7.4721531257382857E-3</v>
       </c>
-      <c r="G7" s="16">
-        <f>(F7-E7)/F7</f>
+      <c r="G8" s="17">
+        <f>(F8-E8)/F8</f>
         <v>-7.741660708538942E-3</v>
       </c>
-      <c r="H7" s="11">
-        <f>RADIANS(45-DEGREES(ASIN(C7/MAX(A7:B7))))</f>
-        <v>7.4721531257382857E-3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="11">
-        <f>A7+0.1</f>
+      <c r="H8" s="13">
+        <v>-7.5300000000000002E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="13">
+        <f>A8+0.1</f>
         <v>119.19999999999999</v>
       </c>
-      <c r="B8" s="11">
-        <f>B7</f>
-        <v>120</v>
-      </c>
-      <c r="C8" s="11">
-        <f t="shared" ref="C8:C26" si="0">COS(RADIANS(45)) *A8</f>
-        <v>84.287128317436469</v>
-      </c>
-      <c r="D8" s="11">
-        <v>1.422E-2</v>
-      </c>
-      <c r="E8" s="11">
-        <v>6.6899999999999998E-3</v>
-      </c>
-      <c r="F8" s="11">
-        <f t="shared" ref="F8:F14" si="1">RADIANS(45-DEGREES(ASIN(C8/B8)))</f>
-        <v>6.6446400221193483E-3</v>
-      </c>
-      <c r="G8" s="16">
-        <f t="shared" ref="G8:G26" si="2">(F8-E8)/F8</f>
-        <v>-6.8265515858876641E-3</v>
-      </c>
-      <c r="H8" s="11">
-        <f t="shared" ref="H8:H26" si="3">RADIANS(45-DEGREES(ASIN(C8/MAX(A8:B8))))</f>
-        <v>6.6446400221193483E-3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="11">
-        <f>A8+0.1</f>
-        <v>119.29999999999998</v>
-      </c>
-      <c r="B9" s="11">
+      <c r="B9" s="13">
         <f>B8</f>
         <v>120</v>
       </c>
-      <c r="C9" s="11">
+      <c r="C9" s="13">
+        <f t="shared" ref="C9:C27" si="0">COS(RADIANS(45)) *A9</f>
+        <v>84.287128317436469</v>
+      </c>
+      <c r="D9" s="13">
+        <v>1.422E-2</v>
+      </c>
+      <c r="E9" s="13">
+        <v>6.6899999999999998E-3</v>
+      </c>
+      <c r="F9" s="13">
+        <f t="shared" ref="F9:F15" si="1">RADIANS(45-DEGREES(ASIN(C9/B9)))</f>
+        <v>6.6446400221193483E-3</v>
+      </c>
+      <c r="G9" s="17">
+        <f t="shared" ref="G9:G27" si="2">(F9-E9)/F9</f>
+        <v>-6.8265515858876641E-3</v>
+      </c>
+      <c r="H9" s="13">
+        <v>-6.6899999999999998E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="13">
+        <f>A9+0.1</f>
+        <v>119.29999999999998</v>
+      </c>
+      <c r="B10" s="13">
+        <f>B9</f>
+        <v>120</v>
+      </c>
+      <c r="C10" s="13">
         <f t="shared" si="0"/>
         <v>84.357838995555113</v>
       </c>
-      <c r="D9" s="11">
+      <c r="D10" s="13">
         <v>2.0070000000000001E-2</v>
       </c>
-      <c r="E9" s="11">
+      <c r="E10" s="13">
         <v>5.8500000000000002E-3</v>
       </c>
-      <c r="F9" s="11">
+      <c r="F10" s="13">
         <f t="shared" si="1"/>
         <v>5.8164506281639097E-3</v>
       </c>
-      <c r="G9" s="16">
+      <c r="G10" s="17">
         <f t="shared" si="2"/>
         <v>-5.7680145471605358E-3</v>
       </c>
-      <c r="H9" s="11">
-        <f t="shared" si="3"/>
-        <v>5.8164506281639097E-3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="11">
-        <f>A9+0.1</f>
+      <c r="H10" s="13">
+        <v>-5.8500000000000002E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="13">
+        <f>A10+0.1</f>
         <v>119.39999999999998</v>
       </c>
-      <c r="B10" s="11">
-        <f>B9</f>
+      <c r="B11" s="13">
+        <f>B10</f>
         <v>120</v>
       </c>
-      <c r="C10" s="11">
+      <c r="C11" s="13">
         <f t="shared" si="0"/>
         <v>84.428549673673757</v>
       </c>
-      <c r="D10" s="11">
+      <c r="D11" s="13">
         <v>2.5080000000000002E-2</v>
       </c>
-      <c r="E10" s="11">
+      <c r="E11" s="13">
         <v>5.0099999999999997E-3</v>
       </c>
-      <c r="F10" s="11">
+      <c r="F11" s="13">
         <f t="shared" si="1"/>
         <v>4.9875827135985127E-3</v>
       </c>
-      <c r="G10" s="16">
+      <c r="G11" s="17">
         <f t="shared" si="2"/>
         <v>-4.4946194757566338E-3</v>
       </c>
-      <c r="H10" s="11">
-        <f t="shared" si="3"/>
-        <v>4.9875827135985127E-3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="11">
-        <f>A10+0.1</f>
+      <c r="H11" s="13">
+        <v>-5.0099999999999997E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="13">
+        <f>A11+0.1</f>
         <v>119.49999999999997</v>
       </c>
-      <c r="B11" s="11">
+      <c r="B12" s="13">
         <v>120</v>
       </c>
-      <c r="C11" s="11">
+      <c r="C12" s="13">
         <f t="shared" si="0"/>
         <v>84.499260351792415</v>
       </c>
-      <c r="D11" s="11">
+      <c r="D12" s="13">
         <v>2.9260000000000001E-2</v>
       </c>
-      <c r="E11" s="11">
+      <c r="E12" s="13">
         <v>4.1799999999999997E-3</v>
       </c>
-      <c r="F11" s="11">
+      <c r="F12" s="13">
         <f t="shared" si="1"/>
         <v>4.1580340371305197E-3</v>
       </c>
-      <c r="G11" s="16">
+      <c r="G12" s="17">
         <f t="shared" si="2"/>
         <v>-5.2827761084511971E-3</v>
       </c>
-      <c r="H11" s="11">
-        <f t="shared" si="3"/>
-        <v>4.1580340371305197E-3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="11">
-        <f>A11+0.1</f>
+      <c r="H12" s="13">
+        <v>-4.1799999999999997E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" s="13">
+        <f>A12+0.1</f>
         <v>119.59999999999997</v>
       </c>
-      <c r="B12" s="11">
-        <f>B11</f>
+      <c r="B13" s="13">
+        <f>B12</f>
         <v>120</v>
       </c>
-      <c r="C12" s="11">
+      <c r="C13" s="13">
         <f t="shared" si="0"/>
         <v>84.569971029911059</v>
       </c>
-      <c r="D12" s="11">
+      <c r="D13" s="13">
         <v>3.2590000000000001E-2</v>
       </c>
-      <c r="E12" s="11">
+      <c r="E13" s="13">
         <v>3.3400000000000001E-3</v>
       </c>
-      <c r="F12" s="11">
+      <c r="F13" s="13">
         <f t="shared" si="1"/>
         <v>3.3278023463746906E-3</v>
       </c>
-      <c r="G12" s="16">
+      <c r="G13" s="17">
         <f t="shared" si="2"/>
         <v>-3.6653780350259196E-3</v>
       </c>
-      <c r="H12" s="11">
-        <f t="shared" si="3"/>
-        <v>3.3278023463746906E-3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="11">
-        <f>A12+0.1</f>
+      <c r="H13" s="13">
+        <v>-3.3400000000000001E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" s="13">
+        <f>A13+0.1</f>
         <v>119.69999999999996</v>
       </c>
-      <c r="B13" s="11">
-        <f>B12</f>
+      <c r="B14" s="13">
+        <f>B13</f>
         <v>120</v>
       </c>
-      <c r="C13" s="11">
+      <c r="C14" s="13">
         <f t="shared" si="0"/>
         <v>84.640681708029717</v>
       </c>
-      <c r="D13" s="11">
+      <c r="D14" s="13">
         <v>3.5099999999999999E-2</v>
       </c>
-      <c r="E13" s="11">
+      <c r="E14" s="13">
         <v>2.5000000000000001E-3</v>
       </c>
-      <c r="F13" s="11">
+      <c r="F14" s="13">
         <f t="shared" si="1"/>
         <v>2.4968853777696011E-3</v>
       </c>
-      <c r="G13" s="16">
+      <c r="G14" s="17">
         <f t="shared" si="2"/>
         <v>-1.2474029677650498E-3</v>
       </c>
-      <c r="H13" s="11">
-        <f t="shared" si="3"/>
-        <v>2.4968853777696011E-3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="11">
-        <f>A13+0.1</f>
+      <c r="H14" s="13">
+        <v>-2.5000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" s="13">
+        <f>A14+0.1</f>
         <v>119.79999999999995</v>
       </c>
-      <c r="B14" s="11">
-        <f>B13</f>
+      <c r="B15" s="13">
+        <f>B14</f>
         <v>120</v>
       </c>
-      <c r="C14" s="11">
+      <c r="C15" s="13">
         <f t="shared" si="0"/>
         <v>84.711392386148361</v>
       </c>
-      <c r="D14" s="11">
+      <c r="D15" s="13">
         <v>3.6769999999999997E-2</v>
       </c>
-      <c r="E14" s="11">
+      <c r="E15" s="13">
         <v>1.67E-3</v>
       </c>
-      <c r="F14" s="11">
+      <c r="F15" s="13">
         <f t="shared" si="1"/>
         <v>1.6652808565034815E-3</v>
       </c>
-      <c r="G14" s="16">
+      <c r="G15" s="17">
         <f t="shared" si="2"/>
         <v>-2.8338423984691106E-3</v>
       </c>
-      <c r="H14" s="11">
-        <f t="shared" si="3"/>
-        <v>1.6652808565034815E-3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="11">
-        <f>A14+0.1</f>
+      <c r="H15" s="13">
+        <v>-1.67E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" s="13">
+        <f>A15+0.1</f>
         <v>119.89999999999995</v>
       </c>
-      <c r="B15" s="11">
+      <c r="B16" s="13">
         <v>120</v>
       </c>
-      <c r="C15" s="11">
+      <c r="C16" s="13">
         <f t="shared" si="0"/>
         <v>84.782103064267019</v>
       </c>
-      <c r="D15" s="11">
+      <c r="D16" s="13">
         <v>3.7600000000000001E-2</v>
       </c>
-      <c r="E15" s="11">
+      <c r="E16" s="13">
         <v>8.3000000000000001E-4</v>
       </c>
-      <c r="F15" s="11">
-        <f>RADIANS(45-DEGREES(ASIN(C15/B15)))</f>
+      <c r="F16" s="13">
+        <f>RADIANS(45-DEGREES(ASIN(C16/B16)))</f>
         <v>8.3298649643237055E-4</v>
       </c>
-      <c r="G15" s="16">
+      <c r="G16" s="17">
         <f t="shared" si="2"/>
         <v>3.585287931030719E-3</v>
       </c>
-      <c r="H15" s="11">
-        <f t="shared" si="3"/>
-        <v>8.3298649643237055E-4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="11">
-        <f>A15+0.1</f>
+      <c r="H16" s="13">
+        <v>-8.3000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" s="13">
+        <f>A16+0.1</f>
         <v>119.99999999999994</v>
       </c>
-      <c r="B16" s="11">
-        <f>B15</f>
+      <c r="B17" s="13">
+        <f>B16</f>
         <v>120</v>
       </c>
-      <c r="C16" s="11">
+      <c r="C17" s="13">
         <f t="shared" si="0"/>
         <v>84.852813742385663</v>
       </c>
-      <c r="D16" s="11">
+      <c r="D17" s="13">
         <v>3.7600000000000001E-2</v>
       </c>
-      <c r="E16" s="11">
-        <v>0</v>
-      </c>
-      <c r="F16" s="11">
-        <f t="shared" ref="F16:F26" si="4">RADIANS(45-DEGREES(ASIN(C16/B16)))</f>
+      <c r="E17" s="13">
+        <v>0</v>
+      </c>
+      <c r="F17" s="13">
+        <f t="shared" ref="F17:F27" si="3">RADIANS(45-DEGREES(ASIN(C17/B17)))</f>
         <v>3.7203930645425409E-16</v>
       </c>
-      <c r="G16" s="17">
-        <v>0</v>
-      </c>
-      <c r="H16" s="11">
-        <f t="shared" si="3"/>
-        <v>3.7203930645425409E-16</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" s="11">
-        <f>A16+0.1</f>
+      <c r="G17" s="18">
+        <v>0</v>
+      </c>
+      <c r="H17" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18" s="13">
+        <f>A17+0.1</f>
         <v>120.09999999999994</v>
       </c>
-      <c r="B17" s="11">
-        <f t="shared" ref="B17" si="5">B16</f>
+      <c r="B18" s="13">
+        <f t="shared" ref="B18" si="4">B17</f>
         <v>120</v>
       </c>
-      <c r="C17" s="11">
+      <c r="C18" s="13">
         <f t="shared" si="0"/>
         <v>84.923524420504322</v>
       </c>
-      <c r="D17" s="11">
+      <c r="D18" s="13">
         <v>3.6769999999999997E-2</v>
       </c>
-      <c r="E17" s="11">
+      <c r="E18" s="13">
         <v>-8.3000000000000001E-4</v>
       </c>
-      <c r="F17" s="11">
-        <f t="shared" si="4"/>
+      <c r="F18" s="13">
+        <f t="shared" si="3"/>
         <v>-8.3368094184058008E-4</v>
       </c>
-      <c r="G17" s="16">
+      <c r="G18" s="17">
         <f t="shared" si="2"/>
         <v>4.415288458499941E-3</v>
       </c>
-      <c r="H17" s="11">
-        <f t="shared" si="3"/>
-        <v>-1.2401310215141802E-16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" s="11">
-        <f>A17+0.1</f>
+      <c r="H18" s="13">
+        <v>8.3000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" s="13">
+        <f>A18+0.1</f>
         <v>120.19999999999993</v>
       </c>
-      <c r="B18" s="11">
+      <c r="B19" s="13">
         <v>120</v>
       </c>
-      <c r="C18" s="11">
+      <c r="C19" s="13">
         <f t="shared" si="0"/>
         <v>84.994235098622966</v>
       </c>
-      <c r="D18" s="11">
+      <c r="D19" s="13">
         <v>3.5099999999999999E-2</v>
       </c>
-      <c r="E18" s="11">
+      <c r="E19" s="13">
         <v>-1.67E-3</v>
       </c>
-      <c r="F18" s="11">
-        <f t="shared" si="4"/>
+      <c r="F19" s="13">
+        <f t="shared" si="3"/>
         <v>-1.6680586497126947E-3</v>
       </c>
-      <c r="G18" s="16">
+      <c r="G19" s="17">
         <f t="shared" si="2"/>
         <v>-1.1638381466021657E-3</v>
       </c>
-      <c r="H18" s="11">
-        <f t="shared" si="3"/>
-        <v>-1.2401310215141802E-16</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19" s="11">
-        <f>A18+0.1</f>
+      <c r="H19" s="13">
+        <v>1.67E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20" s="13">
+        <f>A19+0.1</f>
         <v>120.29999999999993</v>
       </c>
-      <c r="B19" s="11">
-        <f>B18</f>
+      <c r="B20" s="13">
+        <f>B19</f>
         <v>120</v>
       </c>
-      <c r="C19" s="11">
+      <c r="C20" s="13">
         <f t="shared" si="0"/>
         <v>85.064945776741624</v>
       </c>
-      <c r="D19" s="11">
+      <c r="D20" s="13">
         <v>3.2599999999999997E-2</v>
       </c>
-      <c r="E19" s="11">
+      <c r="E20" s="13">
         <v>-2.5000000000000001E-3</v>
       </c>
-      <c r="F19" s="11">
-        <f t="shared" si="4"/>
+      <c r="F20" s="13">
+        <f t="shared" si="3"/>
         <v>-2.5031354558954122E-3</v>
       </c>
-      <c r="G19" s="16">
+      <c r="G20" s="17">
         <f t="shared" si="2"/>
         <v>1.2526113551016599E-3</v>
       </c>
-      <c r="H19" s="11">
-        <f t="shared" si="3"/>
-        <v>-1.2401310215141802E-16</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A20" s="11">
-        <f>A19+0.1</f>
+      <c r="H20" s="13">
+        <v>2.5000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21" s="13">
+        <f>A20+0.1</f>
         <v>120.39999999999992</v>
       </c>
-      <c r="B20" s="11">
-        <f>B19</f>
+      <c r="B21" s="13">
+        <f>B20</f>
         <v>120</v>
       </c>
-      <c r="C20" s="11">
+      <c r="C21" s="13">
         <f t="shared" si="0"/>
         <v>85.135656454860268</v>
       </c>
-      <c r="D20" s="11">
+      <c r="D21" s="13">
         <v>2.928E-2</v>
       </c>
-      <c r="E20" s="11">
+      <c r="E21" s="13">
         <v>-3.3300000000000001E-3</v>
       </c>
-      <c r="F20" s="11">
-        <f t="shared" si="4"/>
+      <c r="F21" s="13">
+        <f t="shared" si="3"/>
         <v>-3.3389137044070056E-3</v>
       </c>
-      <c r="G20" s="16">
+      <c r="G21" s="17">
         <f t="shared" si="2"/>
         <v>2.6696420441296234E-3</v>
       </c>
-      <c r="H20" s="11">
-        <f t="shared" si="3"/>
-        <v>-1.2401310215141802E-16</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A21" s="11">
-        <f>A20+0.1</f>
+      <c r="H21" s="13">
+        <v>3.3300000000000001E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22" s="13">
+        <f>A21+0.1</f>
         <v>120.49999999999991</v>
       </c>
-      <c r="B21" s="11">
-        <f>B20</f>
+      <c r="B22" s="13">
+        <f>B21</f>
         <v>120</v>
       </c>
-      <c r="C21" s="11">
+      <c r="C22" s="13">
         <f t="shared" si="0"/>
         <v>85.206367132978926</v>
       </c>
-      <c r="D21" s="11">
+      <c r="D22" s="13">
         <v>2.512E-2</v>
       </c>
-      <c r="E21" s="11">
+      <c r="E22" s="13">
         <v>-4.1599999999999996E-3</v>
       </c>
-      <c r="F21" s="11">
-        <f t="shared" si="4"/>
+      <c r="F22" s="13">
+        <f t="shared" si="3"/>
         <v>-4.1753957510896524E-3</v>
       </c>
-      <c r="G21" s="16">
+      <c r="G22" s="17">
         <f t="shared" si="2"/>
         <v>3.6872555339538689E-3</v>
       </c>
-      <c r="H21" s="11">
-        <f t="shared" si="3"/>
-        <v>-1.2401310215141802E-16</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A22" s="11">
-        <f>A21+0.1</f>
+      <c r="H22" s="13">
+        <v>4.1599999999999996E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23" s="13">
+        <f>A22+0.1</f>
         <v>120.59999999999991</v>
       </c>
-      <c r="B22" s="11">
+      <c r="B23" s="13">
         <v>120</v>
       </c>
-      <c r="C22" s="11">
+      <c r="C23" s="13">
         <f t="shared" si="0"/>
         <v>85.27707781109757</v>
       </c>
-      <c r="D22" s="11">
+      <c r="D23" s="13">
         <v>2.0129999999999999E-2</v>
       </c>
-      <c r="E22" s="11">
+      <c r="E23" s="13">
         <v>-4.9899999999999996E-3</v>
       </c>
-      <c r="F22" s="11">
-        <f t="shared" si="4"/>
+      <c r="F23" s="13">
+        <f t="shared" si="3"/>
         <v>-5.0125839636937647E-3</v>
       </c>
-      <c r="G22" s="16">
+      <c r="G23" s="17">
         <f t="shared" si="2"/>
         <v>4.5054534462347362E-3</v>
       </c>
-      <c r="H22" s="11">
-        <f t="shared" si="3"/>
-        <v>-1.2401310215141802E-16</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A23" s="11">
-        <f>A22+0.1</f>
+      <c r="H23" s="13">
+        <v>4.9899999999999996E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24" s="13">
+        <f>A23+0.1</f>
         <v>120.6999999999999</v>
       </c>
-      <c r="B23" s="11">
-        <f>B22</f>
+      <c r="B24" s="13">
+        <f>B23</f>
         <v>120</v>
       </c>
-      <c r="C23" s="11">
+      <c r="C24" s="13">
         <f t="shared" si="0"/>
         <v>85.347788489216228</v>
       </c>
-      <c r="D23" s="11">
+      <c r="D24" s="13">
         <v>1.431E-2</v>
       </c>
-      <c r="E23" s="11">
+      <c r="E24" s="13">
         <v>-5.8199999999999997E-3</v>
       </c>
-      <c r="F23" s="11">
-        <f t="shared" si="4"/>
+      <c r="F24" s="13">
+        <f t="shared" si="3"/>
         <v>-5.8504807219633094E-3</v>
       </c>
-      <c r="G23" s="16">
+      <c r="G24" s="17">
         <f t="shared" si="2"/>
         <v>5.2099516965985262E-3</v>
       </c>
-      <c r="H23" s="11">
-        <f t="shared" si="3"/>
-        <v>-1.2401310215141802E-16</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A24" s="11">
-        <f>A23+0.1</f>
+      <c r="H24" s="13">
+        <v>5.8199999999999997E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25" s="13">
+        <f>A24+0.1</f>
         <v>120.7999999999999</v>
       </c>
-      <c r="B24" s="11">
-        <f>B23</f>
+      <c r="B25" s="13">
+        <f>B24</f>
         <v>120</v>
       </c>
-      <c r="C24" s="11">
+      <c r="C25" s="13">
         <f t="shared" si="0"/>
         <v>85.418499167334872</v>
       </c>
-      <c r="D24" s="11">
+      <c r="D25" s="13">
         <v>7.6699999999999997E-3</v>
       </c>
-      <c r="E24" s="11">
+      <c r="E25" s="13">
         <v>-6.6400000000000001E-3</v>
       </c>
-      <c r="F24" s="11">
-        <f t="shared" si="4"/>
+      <c r="F25" s="13">
+        <f t="shared" si="3"/>
         <v>-6.6890884177219986E-3</v>
       </c>
-      <c r="G24" s="16">
+      <c r="G25" s="17">
         <f t="shared" si="2"/>
         <v>7.3385810825798391E-3</v>
       </c>
-      <c r="H24" s="11">
-        <f t="shared" si="3"/>
-        <v>-1.2401310215141802E-16</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A25" s="11">
-        <f>A24+0.1</f>
+      <c r="H25" s="13">
+        <v>6.6400000000000001E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26" s="13">
+        <f>A25+0.1</f>
         <v>120.89999999999989</v>
       </c>
-      <c r="B25" s="11">
-        <f t="shared" ref="B25" si="6">B24</f>
+      <c r="B26" s="13">
+        <f t="shared" ref="B26" si="5">B25</f>
         <v>120</v>
       </c>
-      <c r="C25" s="11">
+      <c r="C26" s="13">
         <f t="shared" si="0"/>
         <v>85.48920984545353</v>
       </c>
-      <c r="D25" s="11">
+      <c r="D26" s="13">
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="E25" s="11">
+      <c r="E26" s="13">
         <v>-7.4700000000000001E-3</v>
       </c>
-      <c r="F25" s="11">
-        <f t="shared" si="4"/>
+      <c r="F26" s="13">
+        <f t="shared" si="3"/>
         <v>-7.5284094549602203E-3</v>
       </c>
-      <c r="G25" s="16">
+      <c r="G26" s="17">
         <f t="shared" si="2"/>
         <v>7.758538547838441E-3</v>
       </c>
-      <c r="H25" s="11">
-        <f t="shared" si="3"/>
-        <v>-1.2401310215141802E-16</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A26" s="11">
+      <c r="H26" s="13">
+        <v>7.4700000000000001E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27" s="13">
         <v>119.1</v>
       </c>
-      <c r="B26" s="11">
+      <c r="B27" s="13">
         <v>120</v>
       </c>
-      <c r="C26" s="11">
+      <c r="C27" s="13">
         <f t="shared" si="0"/>
         <v>84.216417639317811</v>
       </c>
-      <c r="D26" s="11">
+      <c r="D27" s="13">
         <v>7.7299999999999999E-3</v>
       </c>
-      <c r="E26" s="11">
+      <c r="E27" s="13">
         <v>7.5300000000000002E-3</v>
       </c>
-      <c r="F26" s="11">
-        <f t="shared" si="4"/>
+      <c r="F27" s="13">
+        <f t="shared" si="3"/>
         <v>7.4721531257382857E-3</v>
       </c>
-      <c r="G26" s="16">
+      <c r="G27" s="17">
         <f t="shared" si="2"/>
         <v>-7.741660708538942E-3</v>
       </c>
-      <c r="H26" s="11">
-        <f t="shared" si="3"/>
-        <v>7.4721531257382857E-3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A31" s="9"/>
-      <c r="B31" s="10"/>
+      <c r="H27" s="13" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A32" s="9"/>
-      <c r="B32" s="10"/>
+      <c r="A32" s="11"/>
+      <c r="B32" s="12"/>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33" s="9"/>
-      <c r="B33" s="10"/>
+      <c r="A33" s="11"/>
+      <c r="B33" s="12"/>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A34" s="9"/>
-      <c r="B34" s="10"/>
+      <c r="A34" s="11"/>
+      <c r="B34" s="12"/>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A35" s="9"/>
-      <c r="B35" s="10"/>
+      <c r="A35" s="11"/>
+      <c r="B35" s="12"/>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A36" s="9"/>
-      <c r="B36" s="10"/>
+      <c r="A36" s="11"/>
+      <c r="B36" s="12"/>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A37" s="9"/>
-      <c r="B37" s="10"/>
+      <c r="A37" s="11"/>
+      <c r="B37" s="12"/>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A38" s="9"/>
-      <c r="B38" s="10"/>
+      <c r="A38" s="11"/>
+      <c r="B38" s="12"/>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A39" s="9"/>
-      <c r="B39" s="10"/>
+      <c r="A39" s="11"/>
+      <c r="B39" s="12"/>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A40" s="9"/>
-      <c r="B40" s="10"/>
+      <c r="A40" s="11"/>
+      <c r="B40" s="12"/>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A41" s="9"/>
-      <c r="B41" s="10"/>
+      <c r="A41" s="11"/>
+      <c r="B41" s="12"/>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A42" s="9"/>
-      <c r="B42" s="10"/>
+      <c r="A42" s="11"/>
+      <c r="B42" s="12"/>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A43" s="9"/>
-      <c r="B43" s="10"/>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A44" s="9"/>
-      <c r="B44" s="10"/>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A45" s="9"/>
-      <c r="B45" s="10"/>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A46" s="9"/>
-      <c r="B46" s="10"/>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A47" s="9"/>
-      <c r="B47" s="10"/>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A48" s="9"/>
-      <c r="B48" s="10"/>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A49" s="9"/>
-      <c r="B49" s="10"/>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A50" s="9"/>
-      <c r="B50" s="10"/>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A51" s="9"/>
-      <c r="B51" s="10"/>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A52" s="9"/>
-      <c r="B52" s="10"/>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A53" s="9"/>
-      <c r="B53" s="10"/>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A54" s="9"/>
-      <c r="B54" s="10"/>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A55" s="9"/>
-      <c r="B55" s="10"/>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A56" s="9"/>
-      <c r="B56" s="10"/>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A57" s="9"/>
-      <c r="B57" s="10"/>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A58" s="9"/>
-      <c r="B58" s="10"/>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A59" s="9"/>
-      <c r="B59" s="10"/>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A60" s="9"/>
-      <c r="B60" s="10"/>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A61" s="9"/>
-      <c r="B61" s="10"/>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A62" s="9"/>
-      <c r="B62" s="10"/>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A63" s="9"/>
-      <c r="B63" s="10"/>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A64" s="9"/>
-      <c r="B64" s="10"/>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A65" s="9"/>
-      <c r="B65" s="10"/>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A66" s="9"/>
-      <c r="B66" s="10"/>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A67" s="9"/>
-      <c r="B67" s="10"/>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A68" s="9"/>
-      <c r="B68" s="10"/>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A69" s="9"/>
-      <c r="B69" s="10"/>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A70" s="9"/>
-      <c r="B70" s="10"/>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A71" s="9"/>
-      <c r="B71" s="10"/>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A72" s="9"/>
-      <c r="B72" s="10"/>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A73" s="9"/>
-      <c r="B73" s="10"/>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A74" s="9"/>
-      <c r="B74" s="10"/>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A75" s="9"/>
-      <c r="B75" s="10"/>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A76" s="9"/>
-      <c r="B76" s="10"/>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A77" s="9"/>
-      <c r="B77" s="10"/>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A78" s="9"/>
-      <c r="B78" s="10"/>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A79" s="9"/>
-      <c r="B79" s="10"/>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A80" s="9"/>
-      <c r="B80" s="10"/>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A81" s="9"/>
-      <c r="B81" s="10"/>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A82" s="9"/>
-      <c r="B82" s="10"/>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A83" s="9"/>
-      <c r="B83" s="10"/>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A84" s="9"/>
-      <c r="B84" s="10"/>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A85" s="9"/>
-      <c r="B85" s="10"/>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A86" s="9"/>
-      <c r="B86" s="10"/>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A87" s="9"/>
-      <c r="B87" s="10"/>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A88" s="9"/>
-      <c r="B88" s="10"/>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A89" s="9"/>
-      <c r="B89" s="10"/>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A90" s="9"/>
-      <c r="B90" s="10"/>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A91" s="9"/>
-      <c r="B91" s="10"/>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A92" s="9"/>
-      <c r="B92" s="10"/>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A93" s="9"/>
-      <c r="B93" s="10"/>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A94" s="9"/>
-      <c r="B94" s="10"/>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A95" s="9"/>
-      <c r="B95" s="10"/>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A96" s="9"/>
-      <c r="B96" s="10"/>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A97" s="9"/>
-      <c r="B97" s="10"/>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A98" s="9"/>
-      <c r="B98" s="10"/>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A99" s="9"/>
-      <c r="B99" s="10"/>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A100" s="9"/>
-      <c r="B100" s="10"/>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A101" s="9"/>
-      <c r="B101" s="10"/>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A102" s="9"/>
-      <c r="B102" s="10"/>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A103" s="9"/>
-      <c r="B103" s="10"/>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A104" s="9"/>
-      <c r="B104" s="10"/>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A105" s="9"/>
-      <c r="B105" s="10"/>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A106" s="9"/>
-      <c r="B106" s="10"/>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A107" s="9"/>
-      <c r="B107" s="10"/>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A108" s="9"/>
-      <c r="B108" s="10"/>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A109" s="9"/>
-      <c r="B109" s="10"/>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A110" s="9"/>
-      <c r="B110" s="10"/>
+      <c r="A43" s="11"/>
+      <c r="B43" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="8">
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="G5:G6"/>
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="F2:F3"/>
     <mergeCell ref="D2:D3"/>
     <mergeCell ref="C2:C3"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:F6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{238BEE41-46C7-C24B-986C-74C2080EEE3C}">
+  <dimension ref="A1:M199"/>
+  <sheetViews>
+    <sheetView zoomScale="61" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A1" s="1">
+        <v>45412</v>
+      </c>
+      <c r="B1" s="2">
+        <v>0.92412037037037043</v>
+      </c>
+      <c r="C1">
+        <v>983</v>
+      </c>
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>45412</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0.92412037037037043</v>
+      </c>
+      <c r="C2">
+        <v>995</v>
+      </c>
+      <c r="D2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J2" t="s">
+        <v>5</v>
+      </c>
+      <c r="K2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L2" t="s">
+        <v>7</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>45412</v>
+      </c>
+      <c r="B3" s="2">
+        <v>0.92413194444444446</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" t="s">
+        <v>0</v>
+      </c>
+      <c r="G3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L3" t="s">
+        <v>7</v>
+      </c>
+      <c r="M3">
+        <v>7.5300000000000002E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>45412</v>
+      </c>
+      <c r="B4" s="2">
+        <v>0.92415509259259254</v>
+      </c>
+      <c r="C4">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H4" t="s">
+        <v>3</v>
+      </c>
+      <c r="I4" t="s">
+        <v>4</v>
+      </c>
+      <c r="J4" t="s">
+        <v>5</v>
+      </c>
+      <c r="K4" t="s">
+        <v>6</v>
+      </c>
+      <c r="L4" t="s">
+        <v>7</v>
+      </c>
+      <c r="M4">
+        <v>7.5300000000000002E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>45412</v>
+      </c>
+      <c r="B5" s="2">
+        <v>0.92415509259259254</v>
+      </c>
+      <c r="C5">
+        <v>12</v>
+      </c>
+      <c r="D5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F5" t="s">
+        <v>0</v>
+      </c>
+      <c r="G5" t="s">
+        <v>2</v>
+      </c>
+      <c r="H5" t="s">
+        <v>3</v>
+      </c>
+      <c r="I5" t="s">
+        <v>4</v>
+      </c>
+      <c r="J5" t="s">
+        <v>5</v>
+      </c>
+      <c r="K5" t="s">
+        <v>8</v>
+      </c>
+      <c r="L5" t="s">
+        <v>7</v>
+      </c>
+      <c r="M5">
+        <v>1.422E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>45412</v>
+      </c>
+      <c r="B6" s="2">
+        <v>0.92416666666666669</v>
+      </c>
+      <c r="C6">
+        <v>19</v>
+      </c>
+      <c r="D6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F6" t="s">
+        <v>0</v>
+      </c>
+      <c r="G6" t="s">
+        <v>2</v>
+      </c>
+      <c r="H6" t="s">
+        <v>3</v>
+      </c>
+      <c r="I6" t="s">
+        <v>4</v>
+      </c>
+      <c r="J6" t="s">
+        <v>5</v>
+      </c>
+      <c r="K6" t="s">
+        <v>6</v>
+      </c>
+      <c r="L6" t="s">
+        <v>7</v>
+      </c>
+      <c r="M6">
+        <v>1.422E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>45412</v>
+      </c>
+      <c r="B7" s="2">
+        <v>0.92416666666666669</v>
+      </c>
+      <c r="C7">
+        <v>21</v>
+      </c>
+      <c r="D7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F7" t="s">
+        <v>0</v>
+      </c>
+      <c r="G7" t="s">
+        <v>2</v>
+      </c>
+      <c r="H7" t="s">
+        <v>3</v>
+      </c>
+      <c r="I7" t="s">
+        <v>4</v>
+      </c>
+      <c r="J7" t="s">
+        <v>5</v>
+      </c>
+      <c r="K7" t="s">
+        <v>8</v>
+      </c>
+      <c r="L7" t="s">
+        <v>7</v>
+      </c>
+      <c r="M7">
+        <v>2.0070000000000001E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>45412</v>
+      </c>
+      <c r="B8" s="2">
+        <v>0.92418981481481477</v>
+      </c>
+      <c r="C8">
+        <v>29</v>
+      </c>
+      <c r="D8" t="s">
+        <v>0</v>
+      </c>
+      <c r="E8" t="s">
+        <v>1</v>
+      </c>
+      <c r="F8" t="s">
+        <v>0</v>
+      </c>
+      <c r="G8" t="s">
+        <v>2</v>
+      </c>
+      <c r="H8" t="s">
+        <v>3</v>
+      </c>
+      <c r="I8" t="s">
+        <v>4</v>
+      </c>
+      <c r="J8" t="s">
+        <v>5</v>
+      </c>
+      <c r="K8" t="s">
+        <v>6</v>
+      </c>
+      <c r="L8" t="s">
+        <v>7</v>
+      </c>
+      <c r="M8">
+        <v>2.0070000000000001E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>45412</v>
+      </c>
+      <c r="B9" s="2">
+        <v>0.92418981481481477</v>
+      </c>
+      <c r="C9">
+        <v>32</v>
+      </c>
+      <c r="D9" t="s">
+        <v>0</v>
+      </c>
+      <c r="E9" t="s">
+        <v>1</v>
+      </c>
+      <c r="F9" t="s">
+        <v>0</v>
+      </c>
+      <c r="G9" t="s">
+        <v>2</v>
+      </c>
+      <c r="H9" t="s">
+        <v>3</v>
+      </c>
+      <c r="I9" t="s">
+        <v>4</v>
+      </c>
+      <c r="J9" t="s">
+        <v>5</v>
+      </c>
+      <c r="K9" t="s">
+        <v>8</v>
+      </c>
+      <c r="L9" t="s">
+        <v>7</v>
+      </c>
+      <c r="M9">
+        <v>2.5080000000000002E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>45412</v>
+      </c>
+      <c r="B10" s="2">
+        <v>0.92420138888888892</v>
+      </c>
+      <c r="C10">
+        <v>39</v>
+      </c>
+      <c r="D10" t="s">
+        <v>0</v>
+      </c>
+      <c r="E10" t="s">
+        <v>1</v>
+      </c>
+      <c r="F10" t="s">
+        <v>0</v>
+      </c>
+      <c r="G10" t="s">
+        <v>2</v>
+      </c>
+      <c r="H10" t="s">
+        <v>3</v>
+      </c>
+      <c r="I10" t="s">
+        <v>4</v>
+      </c>
+      <c r="J10" t="s">
+        <v>5</v>
+      </c>
+      <c r="K10" t="s">
+        <v>6</v>
+      </c>
+      <c r="L10" t="s">
+        <v>7</v>
+      </c>
+      <c r="M10">
+        <v>2.5080000000000002E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>45412</v>
+      </c>
+      <c r="B11" s="2">
+        <v>0.92420138888888892</v>
+      </c>
+      <c r="C11">
+        <v>42</v>
+      </c>
+      <c r="D11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E11" t="s">
+        <v>1</v>
+      </c>
+      <c r="F11" t="s">
+        <v>0</v>
+      </c>
+      <c r="G11" t="s">
+        <v>2</v>
+      </c>
+      <c r="H11" t="s">
+        <v>3</v>
+      </c>
+      <c r="I11" t="s">
+        <v>4</v>
+      </c>
+      <c r="J11" t="s">
+        <v>5</v>
+      </c>
+      <c r="K11" t="s">
+        <v>8</v>
+      </c>
+      <c r="L11" t="s">
+        <v>7</v>
+      </c>
+      <c r="M11">
+        <v>2.9260000000000001E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>45412</v>
+      </c>
+      <c r="B12" s="2">
+        <v>0.924224537037037</v>
+      </c>
+      <c r="C12">
+        <v>48</v>
+      </c>
+      <c r="D12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E12" t="s">
+        <v>1</v>
+      </c>
+      <c r="F12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G12" t="s">
+        <v>2</v>
+      </c>
+      <c r="H12" t="s">
+        <v>3</v>
+      </c>
+      <c r="I12" t="s">
+        <v>4</v>
+      </c>
+      <c r="J12" t="s">
+        <v>5</v>
+      </c>
+      <c r="K12" t="s">
+        <v>6</v>
+      </c>
+      <c r="L12" t="s">
+        <v>7</v>
+      </c>
+      <c r="M12">
+        <v>2.9260000000000001E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>45412</v>
+      </c>
+      <c r="B13" s="2">
+        <v>0.924224537037037</v>
+      </c>
+      <c r="C13">
+        <v>53</v>
+      </c>
+      <c r="D13" t="s">
+        <v>0</v>
+      </c>
+      <c r="E13" t="s">
+        <v>1</v>
+      </c>
+      <c r="F13" t="s">
+        <v>0</v>
+      </c>
+      <c r="G13" t="s">
+        <v>2</v>
+      </c>
+      <c r="H13" t="s">
+        <v>3</v>
+      </c>
+      <c r="I13" t="s">
+        <v>4</v>
+      </c>
+      <c r="J13" t="s">
+        <v>5</v>
+      </c>
+      <c r="K13" t="s">
+        <v>8</v>
+      </c>
+      <c r="L13" t="s">
+        <v>7</v>
+      </c>
+      <c r="M13">
+        <v>3.2590000000000001E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>45412</v>
+      </c>
+      <c r="B14" s="2">
+        <v>0.92423611111111115</v>
+      </c>
+      <c r="C14">
+        <v>60</v>
+      </c>
+      <c r="D14" t="s">
+        <v>0</v>
+      </c>
+      <c r="E14" t="s">
+        <v>1</v>
+      </c>
+      <c r="F14" t="s">
+        <v>0</v>
+      </c>
+      <c r="G14" t="s">
+        <v>2</v>
+      </c>
+      <c r="H14" t="s">
+        <v>3</v>
+      </c>
+      <c r="I14" t="s">
+        <v>4</v>
+      </c>
+      <c r="J14" t="s">
+        <v>5</v>
+      </c>
+      <c r="K14" t="s">
+        <v>6</v>
+      </c>
+      <c r="L14" t="s">
+        <v>7</v>
+      </c>
+      <c r="M14">
+        <v>3.2590000000000001E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>45412</v>
+      </c>
+      <c r="B15" s="2">
+        <v>0.92423611111111115</v>
+      </c>
+      <c r="C15">
+        <v>63</v>
+      </c>
+      <c r="D15" t="s">
+        <v>0</v>
+      </c>
+      <c r="E15" t="s">
+        <v>1</v>
+      </c>
+      <c r="F15" t="s">
+        <v>0</v>
+      </c>
+      <c r="G15" t="s">
+        <v>2</v>
+      </c>
+      <c r="H15" t="s">
+        <v>3</v>
+      </c>
+      <c r="I15" t="s">
+        <v>4</v>
+      </c>
+      <c r="J15" t="s">
+        <v>5</v>
+      </c>
+      <c r="K15" t="s">
+        <v>8</v>
+      </c>
+      <c r="L15" t="s">
+        <v>7</v>
+      </c>
+      <c r="M15">
+        <v>3.5099999999999999E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>45412</v>
+      </c>
+      <c r="B16" s="2">
+        <v>0.92425925925925922</v>
+      </c>
+      <c r="C16">
+        <v>71</v>
+      </c>
+      <c r="D16" t="s">
+        <v>0</v>
+      </c>
+      <c r="E16" t="s">
+        <v>1</v>
+      </c>
+      <c r="F16" t="s">
+        <v>0</v>
+      </c>
+      <c r="G16" t="s">
+        <v>2</v>
+      </c>
+      <c r="H16" t="s">
+        <v>3</v>
+      </c>
+      <c r="I16" t="s">
+        <v>4</v>
+      </c>
+      <c r="J16" t="s">
+        <v>5</v>
+      </c>
+      <c r="K16" t="s">
+        <v>6</v>
+      </c>
+      <c r="L16" t="s">
+        <v>7</v>
+      </c>
+      <c r="M16">
+        <v>3.5099999999999999E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>45412</v>
+      </c>
+      <c r="B17" s="2">
+        <v>0.92425925925925922</v>
+      </c>
+      <c r="C17">
+        <v>74</v>
+      </c>
+      <c r="D17" t="s">
+        <v>0</v>
+      </c>
+      <c r="E17" t="s">
+        <v>1</v>
+      </c>
+      <c r="F17" t="s">
+        <v>0</v>
+      </c>
+      <c r="G17" t="s">
+        <v>2</v>
+      </c>
+      <c r="H17" t="s">
+        <v>3</v>
+      </c>
+      <c r="I17" t="s">
+        <v>4</v>
+      </c>
+      <c r="J17" t="s">
+        <v>5</v>
+      </c>
+      <c r="K17" t="s">
+        <v>8</v>
+      </c>
+      <c r="L17" t="s">
+        <v>7</v>
+      </c>
+      <c r="M17">
+        <v>3.6769999999999997E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <v>45412</v>
+      </c>
+      <c r="B18" s="2">
+        <v>0.92427083333333337</v>
+      </c>
+      <c r="C18">
+        <v>80</v>
+      </c>
+      <c r="D18" t="s">
+        <v>0</v>
+      </c>
+      <c r="E18" t="s">
+        <v>1</v>
+      </c>
+      <c r="F18" t="s">
+        <v>0</v>
+      </c>
+      <c r="G18" t="s">
+        <v>2</v>
+      </c>
+      <c r="H18" t="s">
+        <v>3</v>
+      </c>
+      <c r="I18" t="s">
+        <v>4</v>
+      </c>
+      <c r="J18" t="s">
+        <v>5</v>
+      </c>
+      <c r="K18" t="s">
+        <v>6</v>
+      </c>
+      <c r="L18" t="s">
+        <v>7</v>
+      </c>
+      <c r="M18">
+        <v>3.6769999999999997E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <v>45412</v>
+      </c>
+      <c r="B19" s="2">
+        <v>0.92427083333333337</v>
+      </c>
+      <c r="C19">
+        <v>83</v>
+      </c>
+      <c r="D19" t="s">
+        <v>0</v>
+      </c>
+      <c r="E19" t="s">
+        <v>1</v>
+      </c>
+      <c r="F19" t="s">
+        <v>0</v>
+      </c>
+      <c r="G19" t="s">
+        <v>2</v>
+      </c>
+      <c r="H19" t="s">
+        <v>3</v>
+      </c>
+      <c r="I19" t="s">
+        <v>4</v>
+      </c>
+      <c r="J19" t="s">
+        <v>5</v>
+      </c>
+      <c r="K19" t="s">
+        <v>8</v>
+      </c>
+      <c r="L19" t="s">
+        <v>7</v>
+      </c>
+      <c r="M19">
+        <v>3.7600000000000001E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <v>45412</v>
+      </c>
+      <c r="B20" s="2">
+        <v>0.92429398148148145</v>
+      </c>
+      <c r="C20">
+        <v>91</v>
+      </c>
+      <c r="D20" t="s">
+        <v>0</v>
+      </c>
+      <c r="E20" t="s">
+        <v>1</v>
+      </c>
+      <c r="F20" t="s">
+        <v>0</v>
+      </c>
+      <c r="G20" t="s">
+        <v>2</v>
+      </c>
+      <c r="H20" t="s">
+        <v>3</v>
+      </c>
+      <c r="I20" t="s">
+        <v>4</v>
+      </c>
+      <c r="J20" t="s">
+        <v>5</v>
+      </c>
+      <c r="K20" t="s">
+        <v>6</v>
+      </c>
+      <c r="L20" t="s">
+        <v>7</v>
+      </c>
+      <c r="M20">
+        <v>3.7600000000000001E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
+        <v>45412</v>
+      </c>
+      <c r="B21" s="2">
+        <v>0.92429398148148145</v>
+      </c>
+      <c r="C21">
+        <v>96</v>
+      </c>
+      <c r="D21" t="s">
+        <v>0</v>
+      </c>
+      <c r="E21" t="s">
+        <v>1</v>
+      </c>
+      <c r="F21" t="s">
+        <v>0</v>
+      </c>
+      <c r="G21" t="s">
+        <v>2</v>
+      </c>
+      <c r="H21" t="s">
+        <v>3</v>
+      </c>
+      <c r="I21" t="s">
+        <v>4</v>
+      </c>
+      <c r="J21" t="s">
+        <v>5</v>
+      </c>
+      <c r="K21" t="s">
+        <v>8</v>
+      </c>
+      <c r="L21" t="s">
+        <v>7</v>
+      </c>
+      <c r="M21">
+        <v>3.7600000000000001E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
+        <v>45412</v>
+      </c>
+      <c r="B22" s="2">
+        <v>0.9243055555555556</v>
+      </c>
+      <c r="C22">
+        <v>104</v>
+      </c>
+      <c r="D22" t="s">
+        <v>0</v>
+      </c>
+      <c r="E22" t="s">
+        <v>1</v>
+      </c>
+      <c r="F22" t="s">
+        <v>0</v>
+      </c>
+      <c r="G22" t="s">
+        <v>2</v>
+      </c>
+      <c r="H22" t="s">
+        <v>3</v>
+      </c>
+      <c r="I22" t="s">
+        <v>4</v>
+      </c>
+      <c r="J22" t="s">
+        <v>5</v>
+      </c>
+      <c r="K22" t="s">
+        <v>6</v>
+      </c>
+      <c r="L22" t="s">
+        <v>7</v>
+      </c>
+      <c r="M22">
+        <v>3.7600000000000001E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
+        <v>45412</v>
+      </c>
+      <c r="B23" s="2">
+        <v>0.9243055555555556</v>
+      </c>
+      <c r="C23">
+        <v>107</v>
+      </c>
+      <c r="D23" t="s">
+        <v>0</v>
+      </c>
+      <c r="E23" t="s">
+        <v>1</v>
+      </c>
+      <c r="F23" t="s">
+        <v>0</v>
+      </c>
+      <c r="G23" t="s">
+        <v>2</v>
+      </c>
+      <c r="H23" t="s">
+        <v>3</v>
+      </c>
+      <c r="I23" t="s">
+        <v>4</v>
+      </c>
+      <c r="J23" t="s">
+        <v>5</v>
+      </c>
+      <c r="K23" t="s">
+        <v>8</v>
+      </c>
+      <c r="L23" t="s">
+        <v>7</v>
+      </c>
+      <c r="M23">
+        <v>3.6769999999999997E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A24" s="1">
+        <v>45412</v>
+      </c>
+      <c r="B24" s="2">
+        <v>0.92432870370370368</v>
+      </c>
+      <c r="C24">
+        <v>114</v>
+      </c>
+      <c r="D24" t="s">
+        <v>0</v>
+      </c>
+      <c r="E24" t="s">
+        <v>1</v>
+      </c>
+      <c r="F24" t="s">
+        <v>0</v>
+      </c>
+      <c r="G24" t="s">
+        <v>2</v>
+      </c>
+      <c r="H24" t="s">
+        <v>3</v>
+      </c>
+      <c r="I24" t="s">
+        <v>4</v>
+      </c>
+      <c r="J24" t="s">
+        <v>5</v>
+      </c>
+      <c r="K24" t="s">
+        <v>6</v>
+      </c>
+      <c r="L24" t="s">
+        <v>7</v>
+      </c>
+      <c r="M24">
+        <v>3.6769999999999997E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A25" s="1">
+        <v>45412</v>
+      </c>
+      <c r="B25" s="2">
+        <v>0.92432870370370368</v>
+      </c>
+      <c r="C25">
+        <v>118</v>
+      </c>
+      <c r="D25" t="s">
+        <v>0</v>
+      </c>
+      <c r="E25" t="s">
+        <v>1</v>
+      </c>
+      <c r="F25" t="s">
+        <v>0</v>
+      </c>
+      <c r="G25" t="s">
+        <v>2</v>
+      </c>
+      <c r="H25" t="s">
+        <v>3</v>
+      </c>
+      <c r="I25" t="s">
+        <v>4</v>
+      </c>
+      <c r="J25" t="s">
+        <v>5</v>
+      </c>
+      <c r="K25" t="s">
+        <v>8</v>
+      </c>
+      <c r="L25" t="s">
+        <v>7</v>
+      </c>
+      <c r="M25">
+        <v>3.5099999999999999E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A26" s="1">
+        <v>45412</v>
+      </c>
+      <c r="B26" s="2">
+        <v>0.92434027777777783</v>
+      </c>
+      <c r="C26">
+        <v>125</v>
+      </c>
+      <c r="D26" t="s">
+        <v>0</v>
+      </c>
+      <c r="E26" t="s">
+        <v>1</v>
+      </c>
+      <c r="F26" t="s">
+        <v>0</v>
+      </c>
+      <c r="G26" t="s">
+        <v>2</v>
+      </c>
+      <c r="H26" t="s">
+        <v>3</v>
+      </c>
+      <c r="I26" t="s">
+        <v>4</v>
+      </c>
+      <c r="J26" t="s">
+        <v>5</v>
+      </c>
+      <c r="K26" t="s">
+        <v>6</v>
+      </c>
+      <c r="L26" t="s">
+        <v>7</v>
+      </c>
+      <c r="M26">
+        <v>3.5099999999999999E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A27" s="1">
+        <v>45412</v>
+      </c>
+      <c r="B27" s="2">
+        <v>0.92434027777777783</v>
+      </c>
+      <c r="C27">
+        <v>127</v>
+      </c>
+      <c r="D27" t="s">
+        <v>0</v>
+      </c>
+      <c r="E27" t="s">
+        <v>1</v>
+      </c>
+      <c r="F27" t="s">
+        <v>0</v>
+      </c>
+      <c r="G27" t="s">
+        <v>2</v>
+      </c>
+      <c r="H27" t="s">
+        <v>3</v>
+      </c>
+      <c r="I27" t="s">
+        <v>4</v>
+      </c>
+      <c r="J27" t="s">
+        <v>5</v>
+      </c>
+      <c r="K27" t="s">
+        <v>8</v>
+      </c>
+      <c r="L27" t="s">
+        <v>7</v>
+      </c>
+      <c r="M27">
+        <v>3.2599999999999997E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A28" s="1">
+        <v>45412</v>
+      </c>
+      <c r="B28" s="2">
+        <v>0.92436342592592591</v>
+      </c>
+      <c r="C28">
+        <v>137</v>
+      </c>
+      <c r="D28" t="s">
+        <v>0</v>
+      </c>
+      <c r="E28" t="s">
+        <v>1</v>
+      </c>
+      <c r="F28" t="s">
+        <v>0</v>
+      </c>
+      <c r="G28" t="s">
+        <v>2</v>
+      </c>
+      <c r="H28" t="s">
+        <v>3</v>
+      </c>
+      <c r="I28" t="s">
+        <v>4</v>
+      </c>
+      <c r="J28" t="s">
+        <v>5</v>
+      </c>
+      <c r="K28" t="s">
+        <v>6</v>
+      </c>
+      <c r="L28" t="s">
+        <v>7</v>
+      </c>
+      <c r="M28">
+        <v>3.2599999999999997E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A29" s="1">
+        <v>45412</v>
+      </c>
+      <c r="B29" s="2">
+        <v>0.92436342592592591</v>
+      </c>
+      <c r="C29">
+        <v>138</v>
+      </c>
+      <c r="D29" t="s">
+        <v>0</v>
+      </c>
+      <c r="E29" t="s">
+        <v>1</v>
+      </c>
+      <c r="F29" t="s">
+        <v>0</v>
+      </c>
+      <c r="G29" t="s">
+        <v>2</v>
+      </c>
+      <c r="H29" t="s">
+        <v>3</v>
+      </c>
+      <c r="I29" t="s">
+        <v>4</v>
+      </c>
+      <c r="J29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K29" t="s">
+        <v>8</v>
+      </c>
+      <c r="L29" t="s">
+        <v>7</v>
+      </c>
+      <c r="M29">
+        <v>2.928E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A30" s="1">
+        <v>45412</v>
+      </c>
+      <c r="B30" s="2">
+        <v>0.92437499999999995</v>
+      </c>
+      <c r="C30">
+        <v>144</v>
+      </c>
+      <c r="D30" t="s">
+        <v>0</v>
+      </c>
+      <c r="E30" t="s">
+        <v>1</v>
+      </c>
+      <c r="F30" t="s">
+        <v>0</v>
+      </c>
+      <c r="G30" t="s">
+        <v>2</v>
+      </c>
+      <c r="H30" t="s">
+        <v>3</v>
+      </c>
+      <c r="I30" t="s">
+        <v>4</v>
+      </c>
+      <c r="J30" t="s">
+        <v>5</v>
+      </c>
+      <c r="K30" t="s">
+        <v>6</v>
+      </c>
+      <c r="L30" t="s">
+        <v>7</v>
+      </c>
+      <c r="M30">
+        <v>2.928E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A31" s="1">
+        <v>45412</v>
+      </c>
+      <c r="B31" s="2">
+        <v>0.92437499999999995</v>
+      </c>
+      <c r="C31">
+        <v>148</v>
+      </c>
+      <c r="D31" t="s">
+        <v>0</v>
+      </c>
+      <c r="E31" t="s">
+        <v>1</v>
+      </c>
+      <c r="F31" t="s">
+        <v>0</v>
+      </c>
+      <c r="G31" t="s">
+        <v>2</v>
+      </c>
+      <c r="H31" t="s">
+        <v>3</v>
+      </c>
+      <c r="I31" t="s">
+        <v>4</v>
+      </c>
+      <c r="J31" t="s">
+        <v>5</v>
+      </c>
+      <c r="K31" t="s">
+        <v>8</v>
+      </c>
+      <c r="L31" t="s">
+        <v>7</v>
+      </c>
+      <c r="M31">
+        <v>2.512E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A32" s="1">
+        <v>45412</v>
+      </c>
+      <c r="B32" s="2">
+        <v>0.92439814814814814</v>
+      </c>
+      <c r="C32">
+        <v>155</v>
+      </c>
+      <c r="D32" t="s">
+        <v>0</v>
+      </c>
+      <c r="E32" t="s">
+        <v>1</v>
+      </c>
+      <c r="F32" t="s">
+        <v>0</v>
+      </c>
+      <c r="G32" t="s">
+        <v>2</v>
+      </c>
+      <c r="H32" t="s">
+        <v>3</v>
+      </c>
+      <c r="I32" t="s">
+        <v>4</v>
+      </c>
+      <c r="J32" t="s">
+        <v>5</v>
+      </c>
+      <c r="K32" t="s">
+        <v>6</v>
+      </c>
+      <c r="L32" t="s">
+        <v>7</v>
+      </c>
+      <c r="M32">
+        <v>2.512E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A33" s="1">
+        <v>45412</v>
+      </c>
+      <c r="B33" s="2">
+        <v>0.92439814814814814</v>
+      </c>
+      <c r="C33">
+        <v>161</v>
+      </c>
+      <c r="D33" t="s">
+        <v>0</v>
+      </c>
+      <c r="E33" t="s">
+        <v>1</v>
+      </c>
+      <c r="F33" t="s">
+        <v>0</v>
+      </c>
+      <c r="G33" t="s">
+        <v>2</v>
+      </c>
+      <c r="H33" t="s">
+        <v>3</v>
+      </c>
+      <c r="I33" t="s">
+        <v>4</v>
+      </c>
+      <c r="J33" t="s">
+        <v>5</v>
+      </c>
+      <c r="K33" t="s">
+        <v>8</v>
+      </c>
+      <c r="L33" t="s">
+        <v>7</v>
+      </c>
+      <c r="M33">
+        <v>2.0129999999999999E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A34" s="1">
+        <v>45412</v>
+      </c>
+      <c r="B34" s="2">
+        <v>0.92440972222222217</v>
+      </c>
+      <c r="C34">
+        <v>170</v>
+      </c>
+      <c r="D34" t="s">
+        <v>0</v>
+      </c>
+      <c r="E34" t="s">
+        <v>1</v>
+      </c>
+      <c r="F34" t="s">
+        <v>0</v>
+      </c>
+      <c r="G34" t="s">
+        <v>2</v>
+      </c>
+      <c r="H34" t="s">
+        <v>3</v>
+      </c>
+      <c r="I34" t="s">
+        <v>4</v>
+      </c>
+      <c r="J34" t="s">
+        <v>5</v>
+      </c>
+      <c r="K34" t="s">
+        <v>6</v>
+      </c>
+      <c r="L34" t="s">
+        <v>7</v>
+      </c>
+      <c r="M34">
+        <v>2.0129999999999999E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A35" s="1">
+        <v>45412</v>
+      </c>
+      <c r="B35" s="2">
+        <v>0.92440972222222217</v>
+      </c>
+      <c r="C35">
+        <v>173</v>
+      </c>
+      <c r="D35" t="s">
+        <v>0</v>
+      </c>
+      <c r="E35" t="s">
+        <v>1</v>
+      </c>
+      <c r="F35" t="s">
+        <v>0</v>
+      </c>
+      <c r="G35" t="s">
+        <v>2</v>
+      </c>
+      <c r="H35" t="s">
+        <v>3</v>
+      </c>
+      <c r="I35" t="s">
+        <v>4</v>
+      </c>
+      <c r="J35" t="s">
+        <v>5</v>
+      </c>
+      <c r="K35" t="s">
+        <v>8</v>
+      </c>
+      <c r="L35" t="s">
+        <v>7</v>
+      </c>
+      <c r="M35">
+        <v>1.431E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A36" s="1">
+        <v>45412</v>
+      </c>
+      <c r="B36" s="2">
+        <v>0.92443287037037036</v>
+      </c>
+      <c r="C36">
+        <v>182</v>
+      </c>
+      <c r="D36" t="s">
+        <v>0</v>
+      </c>
+      <c r="E36" t="s">
+        <v>1</v>
+      </c>
+      <c r="F36" t="s">
+        <v>0</v>
+      </c>
+      <c r="G36" t="s">
+        <v>2</v>
+      </c>
+      <c r="H36" t="s">
+        <v>3</v>
+      </c>
+      <c r="I36" t="s">
+        <v>4</v>
+      </c>
+      <c r="J36" t="s">
+        <v>5</v>
+      </c>
+      <c r="K36" t="s">
+        <v>6</v>
+      </c>
+      <c r="L36" t="s">
+        <v>7</v>
+      </c>
+      <c r="M36">
+        <v>1.431E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A37" s="1">
+        <v>45412</v>
+      </c>
+      <c r="B37" s="2">
+        <v>0.92443287037037036</v>
+      </c>
+      <c r="C37">
+        <v>185</v>
+      </c>
+      <c r="D37" t="s">
+        <v>0</v>
+      </c>
+      <c r="E37" t="s">
+        <v>1</v>
+      </c>
+      <c r="F37" t="s">
+        <v>0</v>
+      </c>
+      <c r="G37" t="s">
+        <v>2</v>
+      </c>
+      <c r="H37" t="s">
+        <v>3</v>
+      </c>
+      <c r="I37" t="s">
+        <v>4</v>
+      </c>
+      <c r="J37" t="s">
+        <v>5</v>
+      </c>
+      <c r="K37" t="s">
+        <v>8</v>
+      </c>
+      <c r="L37" t="s">
+        <v>7</v>
+      </c>
+      <c r="M37">
+        <v>7.6699999999999997E-3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A38" s="1">
+        <v>45412</v>
+      </c>
+      <c r="B38" s="2">
+        <v>0.9244444444444444</v>
+      </c>
+      <c r="C38">
+        <v>192</v>
+      </c>
+      <c r="D38" t="s">
+        <v>0</v>
+      </c>
+      <c r="E38" t="s">
+        <v>1</v>
+      </c>
+      <c r="F38" t="s">
+        <v>0</v>
+      </c>
+      <c r="G38" t="s">
+        <v>2</v>
+      </c>
+      <c r="H38" t="s">
+        <v>3</v>
+      </c>
+      <c r="I38" t="s">
+        <v>4</v>
+      </c>
+      <c r="J38" t="s">
+        <v>5</v>
+      </c>
+      <c r="K38" t="s">
+        <v>6</v>
+      </c>
+      <c r="L38" t="s">
+        <v>7</v>
+      </c>
+      <c r="M38">
+        <v>7.6699999999999997E-3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A39" s="1">
+        <v>45412</v>
+      </c>
+      <c r="B39" s="2">
+        <v>0.9244444444444444</v>
+      </c>
+      <c r="C39">
+        <v>194</v>
+      </c>
+      <c r="D39" t="s">
+        <v>0</v>
+      </c>
+      <c r="E39" t="s">
+        <v>1</v>
+      </c>
+      <c r="F39" t="s">
+        <v>0</v>
+      </c>
+      <c r="G39" t="s">
+        <v>2</v>
+      </c>
+      <c r="H39" t="s">
+        <v>3</v>
+      </c>
+      <c r="I39" t="s">
+        <v>4</v>
+      </c>
+      <c r="J39" t="s">
+        <v>5</v>
+      </c>
+      <c r="K39" t="s">
+        <v>8</v>
+      </c>
+      <c r="L39" t="s">
+        <v>7</v>
+      </c>
+      <c r="M39">
+        <v>2.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A40" s="1">
+        <v>45412</v>
+      </c>
+      <c r="B40" s="2">
+        <v>0.92446759259259259</v>
+      </c>
+      <c r="C40">
+        <v>201</v>
+      </c>
+      <c r="D40" t="s">
+        <v>0</v>
+      </c>
+      <c r="E40" t="s">
+        <v>1</v>
+      </c>
+      <c r="F40" t="s">
+        <v>0</v>
+      </c>
+      <c r="G40" t="s">
+        <v>2</v>
+      </c>
+      <c r="H40" t="s">
+        <v>3</v>
+      </c>
+      <c r="I40" t="s">
+        <v>4</v>
+      </c>
+      <c r="J40" t="s">
+        <v>5</v>
+      </c>
+      <c r="K40" t="s">
+        <v>6</v>
+      </c>
+      <c r="L40" t="s">
+        <v>7</v>
+      </c>
+      <c r="M40">
+        <v>2.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A41" s="1">
+        <v>45412</v>
+      </c>
+      <c r="B41" s="2">
+        <v>0.92446759259259259</v>
+      </c>
+      <c r="C41">
+        <v>203</v>
+      </c>
+      <c r="D41" t="s">
+        <v>0</v>
+      </c>
+      <c r="E41" t="s">
+        <v>1</v>
+      </c>
+      <c r="F41" t="s">
+        <v>0</v>
+      </c>
+      <c r="G41" t="s">
+        <v>2</v>
+      </c>
+      <c r="H41" t="s">
+        <v>3</v>
+      </c>
+      <c r="I41" t="s">
+        <v>4</v>
+      </c>
+      <c r="J41" t="s">
+        <v>5</v>
+      </c>
+      <c r="K41" t="s">
+        <v>8</v>
+      </c>
+      <c r="L41" t="s">
+        <v>7</v>
+      </c>
+      <c r="M41">
+        <v>7.7299999999999999E-3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A42" s="1">
+        <v>45412</v>
+      </c>
+      <c r="B42" s="2">
+        <v>0.92776620370370366</v>
+      </c>
+      <c r="C42">
+        <v>649</v>
+      </c>
+      <c r="D42" t="s">
+        <v>0</v>
+      </c>
+      <c r="E42" t="s">
+        <v>1</v>
+      </c>
+      <c r="F42" t="s">
+        <v>0</v>
+      </c>
+      <c r="G42" t="s">
+        <v>2</v>
+      </c>
+      <c r="H42" t="s">
+        <v>3</v>
+      </c>
+      <c r="I42" t="s">
+        <v>4</v>
+      </c>
+      <c r="J42" t="s">
+        <v>5</v>
+      </c>
+      <c r="K42" t="s">
+        <v>6</v>
+      </c>
+      <c r="L42" t="s">
+        <v>7</v>
+      </c>
+      <c r="M42">
+        <v>7.7299999999999999E-3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A43" s="1">
+        <v>45412</v>
+      </c>
+      <c r="B43" s="2">
+        <v>0.92776620370370366</v>
+      </c>
+      <c r="C43">
+        <v>652</v>
+      </c>
+      <c r="D43" t="s">
+        <v>0</v>
+      </c>
+      <c r="E43" t="s">
+        <v>1</v>
+      </c>
+      <c r="F43" t="s">
+        <v>0</v>
+      </c>
+      <c r="G43" t="s">
+        <v>2</v>
+      </c>
+      <c r="H43" t="s">
+        <v>3</v>
+      </c>
+      <c r="I43" t="s">
+        <v>4</v>
+      </c>
+      <c r="J43" t="s">
+        <v>5</v>
+      </c>
+      <c r="K43" t="s">
+        <v>8</v>
+      </c>
+      <c r="L43" t="s">
+        <v>7</v>
+      </c>
+      <c r="M43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A44" s="1">
+        <v>45412</v>
+      </c>
+      <c r="B44" s="2">
+        <v>0.92776620370370366</v>
+      </c>
+      <c r="C44">
+        <v>656</v>
+      </c>
+      <c r="D44" t="s">
+        <v>0</v>
+      </c>
+      <c r="E44" t="s">
+        <v>1</v>
+      </c>
+      <c r="F44" t="s">
+        <v>0</v>
+      </c>
+      <c r="G44" t="s">
+        <v>2</v>
+      </c>
+      <c r="H44" t="s">
+        <v>3</v>
+      </c>
+      <c r="I44" t="s">
+        <v>4</v>
+      </c>
+      <c r="J44" t="s">
+        <v>5</v>
+      </c>
+      <c r="K44" t="s">
+        <v>6</v>
+      </c>
+      <c r="L44" t="s">
+        <v>7</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A45" s="1">
+        <v>45412</v>
+      </c>
+      <c r="B45" s="2">
+        <v>0.92776620370370366</v>
+      </c>
+      <c r="C45">
+        <v>659</v>
+      </c>
+      <c r="D45" t="s">
+        <v>0</v>
+      </c>
+      <c r="E45" t="s">
+        <v>1</v>
+      </c>
+      <c r="F45" t="s">
+        <v>0</v>
+      </c>
+      <c r="G45" t="s">
+        <v>2</v>
+      </c>
+      <c r="H45" t="s">
+        <v>3</v>
+      </c>
+      <c r="I45" t="s">
+        <v>4</v>
+      </c>
+      <c r="J45" t="s">
+        <v>5</v>
+      </c>
+      <c r="K45" t="s">
+        <v>8</v>
+      </c>
+      <c r="L45" t="s">
+        <v>7</v>
+      </c>
+      <c r="M45">
+        <v>7.5300000000000002E-3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A46" s="1">
+        <v>45412</v>
+      </c>
+      <c r="B46" s="2">
+        <v>0.92778935185185185</v>
+      </c>
+      <c r="C46">
+        <v>667</v>
+      </c>
+      <c r="D46" t="s">
+        <v>0</v>
+      </c>
+      <c r="E46" t="s">
+        <v>1</v>
+      </c>
+      <c r="F46" t="s">
+        <v>0</v>
+      </c>
+      <c r="G46" t="s">
+        <v>2</v>
+      </c>
+      <c r="H46" t="s">
+        <v>3</v>
+      </c>
+      <c r="I46" t="s">
+        <v>4</v>
+      </c>
+      <c r="J46" t="s">
+        <v>5</v>
+      </c>
+      <c r="K46" t="s">
+        <v>6</v>
+      </c>
+      <c r="L46" t="s">
+        <v>7</v>
+      </c>
+      <c r="M46">
+        <v>7.5300000000000002E-3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A47" s="1">
+        <v>45412</v>
+      </c>
+      <c r="B47" s="2">
+        <v>0.92778935185185185</v>
+      </c>
+      <c r="C47">
+        <v>671</v>
+      </c>
+      <c r="D47" t="s">
+        <v>0</v>
+      </c>
+      <c r="E47" t="s">
+        <v>1</v>
+      </c>
+      <c r="F47" t="s">
+        <v>0</v>
+      </c>
+      <c r="G47" t="s">
+        <v>2</v>
+      </c>
+      <c r="H47" t="s">
+        <v>3</v>
+      </c>
+      <c r="I47" t="s">
+        <v>4</v>
+      </c>
+      <c r="J47" t="s">
+        <v>5</v>
+      </c>
+      <c r="K47" t="s">
+        <v>8</v>
+      </c>
+      <c r="L47" t="s">
+        <v>7</v>
+      </c>
+      <c r="M47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A48" s="1">
+        <v>45412</v>
+      </c>
+      <c r="B48" s="2">
+        <v>0.92780092592592589</v>
+      </c>
+      <c r="C48">
+        <v>677</v>
+      </c>
+      <c r="D48" t="s">
+        <v>0</v>
+      </c>
+      <c r="E48" t="s">
+        <v>1</v>
+      </c>
+      <c r="F48" t="s">
+        <v>0</v>
+      </c>
+      <c r="G48" t="s">
+        <v>2</v>
+      </c>
+      <c r="H48" t="s">
+        <v>3</v>
+      </c>
+      <c r="I48" t="s">
+        <v>4</v>
+      </c>
+      <c r="J48" t="s">
+        <v>5</v>
+      </c>
+      <c r="K48" t="s">
+        <v>6</v>
+      </c>
+      <c r="L48" t="s">
+        <v>7</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A49" s="1">
+        <v>45412</v>
+      </c>
+      <c r="B49" s="2">
+        <v>0.92780092592592589</v>
+      </c>
+      <c r="C49">
+        <v>682</v>
+      </c>
+      <c r="D49" t="s">
+        <v>0</v>
+      </c>
+      <c r="E49" t="s">
+        <v>1</v>
+      </c>
+      <c r="F49" t="s">
+        <v>0</v>
+      </c>
+      <c r="G49" t="s">
+        <v>2</v>
+      </c>
+      <c r="H49" t="s">
+        <v>3</v>
+      </c>
+      <c r="I49" t="s">
+        <v>4</v>
+      </c>
+      <c r="J49" t="s">
+        <v>5</v>
+      </c>
+      <c r="K49" t="s">
+        <v>8</v>
+      </c>
+      <c r="L49" t="s">
+        <v>7</v>
+      </c>
+      <c r="M49">
+        <v>6.6899999999999998E-3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A50" s="1">
+        <v>45412</v>
+      </c>
+      <c r="B50" s="2">
+        <v>0.92782407407407408</v>
+      </c>
+      <c r="C50">
+        <v>690</v>
+      </c>
+      <c r="D50" t="s">
+        <v>0</v>
+      </c>
+      <c r="E50" t="s">
+        <v>1</v>
+      </c>
+      <c r="F50" t="s">
+        <v>0</v>
+      </c>
+      <c r="G50" t="s">
+        <v>2</v>
+      </c>
+      <c r="H50" t="s">
+        <v>3</v>
+      </c>
+      <c r="I50" t="s">
+        <v>4</v>
+      </c>
+      <c r="J50" t="s">
+        <v>5</v>
+      </c>
+      <c r="K50" t="s">
+        <v>6</v>
+      </c>
+      <c r="L50" t="s">
+        <v>7</v>
+      </c>
+      <c r="M50">
+        <v>6.6899999999999998E-3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A51" s="1">
+        <v>45412</v>
+      </c>
+      <c r="B51" s="2">
+        <v>0.92782407407407408</v>
+      </c>
+      <c r="C51">
+        <v>694</v>
+      </c>
+      <c r="D51" t="s">
+        <v>0</v>
+      </c>
+      <c r="E51" t="s">
+        <v>1</v>
+      </c>
+      <c r="F51" t="s">
+        <v>0</v>
+      </c>
+      <c r="G51" t="s">
+        <v>2</v>
+      </c>
+      <c r="H51" t="s">
+        <v>3</v>
+      </c>
+      <c r="I51" t="s">
+        <v>4</v>
+      </c>
+      <c r="J51" t="s">
+        <v>5</v>
+      </c>
+      <c r="K51" t="s">
+        <v>8</v>
+      </c>
+      <c r="L51" t="s">
+        <v>7</v>
+      </c>
+      <c r="M51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A52" s="1">
+        <v>45412</v>
+      </c>
+      <c r="B52" s="2">
+        <v>0.92783564814814812</v>
+      </c>
+      <c r="C52">
+        <v>699</v>
+      </c>
+      <c r="D52" t="s">
+        <v>0</v>
+      </c>
+      <c r="E52" t="s">
+        <v>1</v>
+      </c>
+      <c r="F52" t="s">
+        <v>0</v>
+      </c>
+      <c r="G52" t="s">
+        <v>2</v>
+      </c>
+      <c r="H52" t="s">
+        <v>3</v>
+      </c>
+      <c r="I52" t="s">
+        <v>4</v>
+      </c>
+      <c r="J52" t="s">
+        <v>5</v>
+      </c>
+      <c r="K52" t="s">
+        <v>6</v>
+      </c>
+      <c r="L52" t="s">
+        <v>7</v>
+      </c>
+      <c r="M52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A53" s="1">
+        <v>45412</v>
+      </c>
+      <c r="B53" s="2">
+        <v>0.92783564814814812</v>
+      </c>
+      <c r="C53">
+        <v>703</v>
+      </c>
+      <c r="D53" t="s">
+        <v>0</v>
+      </c>
+      <c r="E53" t="s">
+        <v>1</v>
+      </c>
+      <c r="F53" t="s">
+        <v>0</v>
+      </c>
+      <c r="G53" t="s">
+        <v>2</v>
+      </c>
+      <c r="H53" t="s">
+        <v>3</v>
+      </c>
+      <c r="I53" t="s">
+        <v>4</v>
+      </c>
+      <c r="J53" t="s">
+        <v>5</v>
+      </c>
+      <c r="K53" t="s">
+        <v>8</v>
+      </c>
+      <c r="L53" t="s">
+        <v>7</v>
+      </c>
+      <c r="M53">
+        <v>5.8500000000000002E-3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A54" s="1">
+        <v>45412</v>
+      </c>
+      <c r="B54" s="2">
+        <v>0.92785879629629631</v>
+      </c>
+      <c r="C54">
+        <v>710</v>
+      </c>
+      <c r="D54" t="s">
+        <v>0</v>
+      </c>
+      <c r="E54" t="s">
+        <v>1</v>
+      </c>
+      <c r="F54" t="s">
+        <v>0</v>
+      </c>
+      <c r="G54" t="s">
+        <v>2</v>
+      </c>
+      <c r="H54" t="s">
+        <v>3</v>
+      </c>
+      <c r="I54" t="s">
+        <v>4</v>
+      </c>
+      <c r="J54" t="s">
+        <v>5</v>
+      </c>
+      <c r="K54" t="s">
+        <v>6</v>
+      </c>
+      <c r="L54" t="s">
+        <v>7</v>
+      </c>
+      <c r="M54">
+        <v>5.8500000000000002E-3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A55" s="1">
+        <v>45412</v>
+      </c>
+      <c r="B55" s="2">
+        <v>0.92785879629629631</v>
+      </c>
+      <c r="C55">
+        <v>713</v>
+      </c>
+      <c r="D55" t="s">
+        <v>0</v>
+      </c>
+      <c r="E55" t="s">
+        <v>1</v>
+      </c>
+      <c r="F55" t="s">
+        <v>0</v>
+      </c>
+      <c r="G55" t="s">
+        <v>2</v>
+      </c>
+      <c r="H55" t="s">
+        <v>3</v>
+      </c>
+      <c r="I55" t="s">
+        <v>4</v>
+      </c>
+      <c r="J55" t="s">
+        <v>5</v>
+      </c>
+      <c r="K55" t="s">
+        <v>8</v>
+      </c>
+      <c r="L55" t="s">
+        <v>7</v>
+      </c>
+      <c r="M55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A56" s="1">
+        <v>45412</v>
+      </c>
+      <c r="B56" s="2">
+        <v>0.92787037037037035</v>
+      </c>
+      <c r="C56">
+        <v>720</v>
+      </c>
+      <c r="D56" t="s">
+        <v>0</v>
+      </c>
+      <c r="E56" t="s">
+        <v>1</v>
+      </c>
+      <c r="F56" t="s">
+        <v>0</v>
+      </c>
+      <c r="G56" t="s">
+        <v>2</v>
+      </c>
+      <c r="H56" t="s">
+        <v>3</v>
+      </c>
+      <c r="I56" t="s">
+        <v>4</v>
+      </c>
+      <c r="J56" t="s">
+        <v>5</v>
+      </c>
+      <c r="K56" t="s">
+        <v>6</v>
+      </c>
+      <c r="L56" t="s">
+        <v>7</v>
+      </c>
+      <c r="M56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A57" s="1">
+        <v>45412</v>
+      </c>
+      <c r="B57" s="2">
+        <v>0.92787037037037035</v>
+      </c>
+      <c r="C57">
+        <v>724</v>
+      </c>
+      <c r="D57" t="s">
+        <v>0</v>
+      </c>
+      <c r="E57" t="s">
+        <v>1</v>
+      </c>
+      <c r="F57" t="s">
+        <v>0</v>
+      </c>
+      <c r="G57" t="s">
+        <v>2</v>
+      </c>
+      <c r="H57" t="s">
+        <v>3</v>
+      </c>
+      <c r="I57" t="s">
+        <v>4</v>
+      </c>
+      <c r="J57" t="s">
+        <v>5</v>
+      </c>
+      <c r="K57" t="s">
+        <v>8</v>
+      </c>
+      <c r="L57" t="s">
+        <v>7</v>
+      </c>
+      <c r="M57">
+        <v>5.0099999999999997E-3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A58" s="1">
+        <v>45412</v>
+      </c>
+      <c r="B58" s="2">
+        <v>0.92789351851851853</v>
+      </c>
+      <c r="C58">
+        <v>732</v>
+      </c>
+      <c r="D58" t="s">
+        <v>0</v>
+      </c>
+      <c r="E58" t="s">
+        <v>1</v>
+      </c>
+      <c r="F58" t="s">
+        <v>0</v>
+      </c>
+      <c r="G58" t="s">
+        <v>2</v>
+      </c>
+      <c r="H58" t="s">
+        <v>3</v>
+      </c>
+      <c r="I58" t="s">
+        <v>4</v>
+      </c>
+      <c r="J58" t="s">
+        <v>5</v>
+      </c>
+      <c r="K58" t="s">
+        <v>6</v>
+      </c>
+      <c r="L58" t="s">
+        <v>7</v>
+      </c>
+      <c r="M58">
+        <v>5.0099999999999997E-3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A59" s="1">
+        <v>45412</v>
+      </c>
+      <c r="B59" s="2">
+        <v>0.92789351851851853</v>
+      </c>
+      <c r="C59">
+        <v>735</v>
+      </c>
+      <c r="D59" t="s">
+        <v>0</v>
+      </c>
+      <c r="E59" t="s">
+        <v>1</v>
+      </c>
+      <c r="F59" t="s">
+        <v>0</v>
+      </c>
+      <c r="G59" t="s">
+        <v>2</v>
+      </c>
+      <c r="H59" t="s">
+        <v>3</v>
+      </c>
+      <c r="I59" t="s">
+        <v>4</v>
+      </c>
+      <c r="J59" t="s">
+        <v>5</v>
+      </c>
+      <c r="K59" t="s">
+        <v>8</v>
+      </c>
+      <c r="L59" t="s">
+        <v>7</v>
+      </c>
+      <c r="M59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A60" s="1">
+        <v>45412</v>
+      </c>
+      <c r="B60" s="2">
+        <v>0.92790509259259257</v>
+      </c>
+      <c r="C60">
+        <v>741</v>
+      </c>
+      <c r="D60" t="s">
+        <v>0</v>
+      </c>
+      <c r="E60" t="s">
+        <v>1</v>
+      </c>
+      <c r="F60" t="s">
+        <v>0</v>
+      </c>
+      <c r="G60" t="s">
+        <v>2</v>
+      </c>
+      <c r="H60" t="s">
+        <v>3</v>
+      </c>
+      <c r="I60" t="s">
+        <v>4</v>
+      </c>
+      <c r="J60" t="s">
+        <v>5</v>
+      </c>
+      <c r="K60" t="s">
+        <v>6</v>
+      </c>
+      <c r="L60" t="s">
+        <v>7</v>
+      </c>
+      <c r="M60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A61" s="1">
+        <v>45412</v>
+      </c>
+      <c r="B61" s="2">
+        <v>0.92790509259259257</v>
+      </c>
+      <c r="C61">
+        <v>744</v>
+      </c>
+      <c r="D61" t="s">
+        <v>0</v>
+      </c>
+      <c r="E61" t="s">
+        <v>1</v>
+      </c>
+      <c r="F61" t="s">
+        <v>0</v>
+      </c>
+      <c r="G61" t="s">
+        <v>2</v>
+      </c>
+      <c r="H61" t="s">
+        <v>3</v>
+      </c>
+      <c r="I61" t="s">
+        <v>4</v>
+      </c>
+      <c r="J61" t="s">
+        <v>5</v>
+      </c>
+      <c r="K61" t="s">
+        <v>8</v>
+      </c>
+      <c r="L61" t="s">
+        <v>7</v>
+      </c>
+      <c r="M61">
+        <v>4.1799999999999997E-3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A62" s="1">
+        <v>45412</v>
+      </c>
+      <c r="B62" s="2">
+        <v>0.92792824074074076</v>
+      </c>
+      <c r="C62">
+        <v>750</v>
+      </c>
+      <c r="D62" t="s">
+        <v>0</v>
+      </c>
+      <c r="E62" t="s">
+        <v>1</v>
+      </c>
+      <c r="F62" t="s">
+        <v>0</v>
+      </c>
+      <c r="G62" t="s">
+        <v>2</v>
+      </c>
+      <c r="H62" t="s">
+        <v>3</v>
+      </c>
+      <c r="I62" t="s">
+        <v>4</v>
+      </c>
+      <c r="J62" t="s">
+        <v>5</v>
+      </c>
+      <c r="K62" t="s">
+        <v>6</v>
+      </c>
+      <c r="L62" t="s">
+        <v>7</v>
+      </c>
+      <c r="M62">
+        <v>4.1799999999999997E-3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A63" s="1">
+        <v>45412</v>
+      </c>
+      <c r="B63" s="2">
+        <v>0.92792824074074076</v>
+      </c>
+      <c r="C63">
+        <v>753</v>
+      </c>
+      <c r="D63" t="s">
+        <v>0</v>
+      </c>
+      <c r="E63" t="s">
+        <v>1</v>
+      </c>
+      <c r="F63" t="s">
+        <v>0</v>
+      </c>
+      <c r="G63" t="s">
+        <v>2</v>
+      </c>
+      <c r="H63" t="s">
+        <v>3</v>
+      </c>
+      <c r="I63" t="s">
+        <v>4</v>
+      </c>
+      <c r="J63" t="s">
+        <v>5</v>
+      </c>
+      <c r="K63" t="s">
+        <v>8</v>
+      </c>
+      <c r="L63" t="s">
+        <v>7</v>
+      </c>
+      <c r="M63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A64" s="1">
+        <v>45412</v>
+      </c>
+      <c r="B64" s="2">
+        <v>0.9279398148148148</v>
+      </c>
+      <c r="C64">
+        <v>758</v>
+      </c>
+      <c r="D64" t="s">
+        <v>0</v>
+      </c>
+      <c r="E64" t="s">
+        <v>1</v>
+      </c>
+      <c r="F64" t="s">
+        <v>0</v>
+      </c>
+      <c r="G64" t="s">
+        <v>2</v>
+      </c>
+      <c r="H64" t="s">
+        <v>3</v>
+      </c>
+      <c r="I64" t="s">
+        <v>4</v>
+      </c>
+      <c r="J64" t="s">
+        <v>5</v>
+      </c>
+      <c r="K64" t="s">
+        <v>6</v>
+      </c>
+      <c r="L64" t="s">
+        <v>7</v>
+      </c>
+      <c r="M64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A65" s="1">
+        <v>45412</v>
+      </c>
+      <c r="B65" s="2">
+        <v>0.9279398148148148</v>
+      </c>
+      <c r="C65">
+        <v>761</v>
+      </c>
+      <c r="D65" t="s">
+        <v>0</v>
+      </c>
+      <c r="E65" t="s">
+        <v>1</v>
+      </c>
+      <c r="F65" t="s">
+        <v>0</v>
+      </c>
+      <c r="G65" t="s">
+        <v>2</v>
+      </c>
+      <c r="H65" t="s">
+        <v>3</v>
+      </c>
+      <c r="I65" t="s">
+        <v>4</v>
+      </c>
+      <c r="J65" t="s">
+        <v>5</v>
+      </c>
+      <c r="K65" t="s">
+        <v>8</v>
+      </c>
+      <c r="L65" t="s">
+        <v>7</v>
+      </c>
+      <c r="M65">
+        <v>3.3400000000000001E-3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A66" s="1">
+        <v>45412</v>
+      </c>
+      <c r="B66" s="2">
+        <v>0.92796296296296299</v>
+      </c>
+      <c r="C66">
+        <v>770</v>
+      </c>
+      <c r="D66" t="s">
+        <v>0</v>
+      </c>
+      <c r="E66" t="s">
+        <v>1</v>
+      </c>
+      <c r="F66" t="s">
+        <v>0</v>
+      </c>
+      <c r="G66" t="s">
+        <v>2</v>
+      </c>
+      <c r="H66" t="s">
+        <v>3</v>
+      </c>
+      <c r="I66" t="s">
+        <v>4</v>
+      </c>
+      <c r="J66" t="s">
+        <v>5</v>
+      </c>
+      <c r="K66" t="s">
+        <v>6</v>
+      </c>
+      <c r="L66" t="s">
+        <v>7</v>
+      </c>
+      <c r="M66">
+        <v>3.3400000000000001E-3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A67" s="1">
+        <v>45412</v>
+      </c>
+      <c r="B67" s="2">
+        <v>0.92796296296296299</v>
+      </c>
+      <c r="C67">
+        <v>772</v>
+      </c>
+      <c r="D67" t="s">
+        <v>0</v>
+      </c>
+      <c r="E67" t="s">
+        <v>1</v>
+      </c>
+      <c r="F67" t="s">
+        <v>0</v>
+      </c>
+      <c r="G67" t="s">
+        <v>2</v>
+      </c>
+      <c r="H67" t="s">
+        <v>3</v>
+      </c>
+      <c r="I67" t="s">
+        <v>4</v>
+      </c>
+      <c r="J67" t="s">
+        <v>5</v>
+      </c>
+      <c r="K67" t="s">
+        <v>8</v>
+      </c>
+      <c r="L67" t="s">
+        <v>7</v>
+      </c>
+      <c r="M67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A68" s="1">
+        <v>45412</v>
+      </c>
+      <c r="B68" s="2">
+        <v>0.92797453703703703</v>
+      </c>
+      <c r="C68">
+        <v>778</v>
+      </c>
+      <c r="D68" t="s">
+        <v>0</v>
+      </c>
+      <c r="E68" t="s">
+        <v>1</v>
+      </c>
+      <c r="F68" t="s">
+        <v>0</v>
+      </c>
+      <c r="G68" t="s">
+        <v>2</v>
+      </c>
+      <c r="H68" t="s">
+        <v>3</v>
+      </c>
+      <c r="I68" t="s">
+        <v>4</v>
+      </c>
+      <c r="J68" t="s">
+        <v>5</v>
+      </c>
+      <c r="K68" t="s">
+        <v>6</v>
+      </c>
+      <c r="L68" t="s">
+        <v>7</v>
+      </c>
+      <c r="M68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A69" s="1">
+        <v>45412</v>
+      </c>
+      <c r="B69" s="2">
+        <v>0.92797453703703703</v>
+      </c>
+      <c r="C69">
+        <v>780</v>
+      </c>
+      <c r="D69" t="s">
+        <v>0</v>
+      </c>
+      <c r="E69" t="s">
+        <v>1</v>
+      </c>
+      <c r="F69" t="s">
+        <v>0</v>
+      </c>
+      <c r="G69" t="s">
+        <v>2</v>
+      </c>
+      <c r="H69" t="s">
+        <v>3</v>
+      </c>
+      <c r="I69" t="s">
+        <v>4</v>
+      </c>
+      <c r="J69" t="s">
+        <v>5</v>
+      </c>
+      <c r="K69" t="s">
+        <v>8</v>
+      </c>
+      <c r="L69" t="s">
+        <v>7</v>
+      </c>
+      <c r="M69">
+        <v>2.5000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A70" s="1">
+        <v>45412</v>
+      </c>
+      <c r="B70" s="2">
+        <v>0.92799768518518522</v>
+      </c>
+      <c r="C70">
+        <v>787</v>
+      </c>
+      <c r="D70" t="s">
+        <v>0</v>
+      </c>
+      <c r="E70" t="s">
+        <v>1</v>
+      </c>
+      <c r="F70" t="s">
+        <v>0</v>
+      </c>
+      <c r="G70" t="s">
+        <v>2</v>
+      </c>
+      <c r="H70" t="s">
+        <v>3</v>
+      </c>
+      <c r="I70" t="s">
+        <v>4</v>
+      </c>
+      <c r="J70" t="s">
+        <v>5</v>
+      </c>
+      <c r="K70" t="s">
+        <v>6</v>
+      </c>
+      <c r="L70" t="s">
+        <v>7</v>
+      </c>
+      <c r="M70">
+        <v>2.5000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A71" s="1">
+        <v>45412</v>
+      </c>
+      <c r="B71" s="2">
+        <v>0.92799768518518522</v>
+      </c>
+      <c r="C71">
+        <v>790</v>
+      </c>
+      <c r="D71" t="s">
+        <v>0</v>
+      </c>
+      <c r="E71" t="s">
+        <v>1</v>
+      </c>
+      <c r="F71" t="s">
+        <v>0</v>
+      </c>
+      <c r="G71" t="s">
+        <v>2</v>
+      </c>
+      <c r="H71" t="s">
+        <v>3</v>
+      </c>
+      <c r="I71" t="s">
+        <v>4</v>
+      </c>
+      <c r="J71" t="s">
+        <v>5</v>
+      </c>
+      <c r="K71" t="s">
+        <v>8</v>
+      </c>
+      <c r="L71" t="s">
+        <v>7</v>
+      </c>
+      <c r="M71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A72" s="1">
+        <v>45412</v>
+      </c>
+      <c r="B72" s="2">
+        <v>0.92800925925925926</v>
+      </c>
+      <c r="C72">
+        <v>801</v>
+      </c>
+      <c r="D72" t="s">
+        <v>0</v>
+      </c>
+      <c r="E72" t="s">
+        <v>1</v>
+      </c>
+      <c r="F72" t="s">
+        <v>0</v>
+      </c>
+      <c r="G72" t="s">
+        <v>2</v>
+      </c>
+      <c r="H72" t="s">
+        <v>3</v>
+      </c>
+      <c r="I72" t="s">
+        <v>4</v>
+      </c>
+      <c r="J72" t="s">
+        <v>5</v>
+      </c>
+      <c r="K72" t="s">
+        <v>6</v>
+      </c>
+      <c r="L72" t="s">
+        <v>7</v>
+      </c>
+      <c r="M72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A73" s="1">
+        <v>45412</v>
+      </c>
+      <c r="B73" s="2">
+        <v>0.92800925925925926</v>
+      </c>
+      <c r="C73">
+        <v>803</v>
+      </c>
+      <c r="D73" t="s">
+        <v>0</v>
+      </c>
+      <c r="E73" t="s">
+        <v>1</v>
+      </c>
+      <c r="F73" t="s">
+        <v>0</v>
+      </c>
+      <c r="G73" t="s">
+        <v>2</v>
+      </c>
+      <c r="H73" t="s">
+        <v>3</v>
+      </c>
+      <c r="I73" t="s">
+        <v>4</v>
+      </c>
+      <c r="J73" t="s">
+        <v>5</v>
+      </c>
+      <c r="K73" t="s">
+        <v>8</v>
+      </c>
+      <c r="L73" t="s">
+        <v>7</v>
+      </c>
+      <c r="M73">
+        <v>1.67E-3</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A74" s="1">
+        <v>45412</v>
+      </c>
+      <c r="B74" s="2">
+        <v>0.92803240740740744</v>
+      </c>
+      <c r="C74">
+        <v>810</v>
+      </c>
+      <c r="D74" t="s">
+        <v>0</v>
+      </c>
+      <c r="E74" t="s">
+        <v>1</v>
+      </c>
+      <c r="F74" t="s">
+        <v>0</v>
+      </c>
+      <c r="G74" t="s">
+        <v>2</v>
+      </c>
+      <c r="H74" t="s">
+        <v>3</v>
+      </c>
+      <c r="I74" t="s">
+        <v>4</v>
+      </c>
+      <c r="J74" t="s">
+        <v>5</v>
+      </c>
+      <c r="K74" t="s">
+        <v>6</v>
+      </c>
+      <c r="L74" t="s">
+        <v>7</v>
+      </c>
+      <c r="M74">
+        <v>1.67E-3</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A75" s="1">
+        <v>45412</v>
+      </c>
+      <c r="B75" s="2">
+        <v>0.92803240740740744</v>
+      </c>
+      <c r="C75">
+        <v>812</v>
+      </c>
+      <c r="D75" t="s">
+        <v>0</v>
+      </c>
+      <c r="E75" t="s">
+        <v>1</v>
+      </c>
+      <c r="F75" t="s">
+        <v>0</v>
+      </c>
+      <c r="G75" t="s">
+        <v>2</v>
+      </c>
+      <c r="H75" t="s">
+        <v>3</v>
+      </c>
+      <c r="I75" t="s">
+        <v>4</v>
+      </c>
+      <c r="J75" t="s">
+        <v>5</v>
+      </c>
+      <c r="K75" t="s">
+        <v>8</v>
+      </c>
+      <c r="L75" t="s">
+        <v>7</v>
+      </c>
+      <c r="M75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A76" s="1">
+        <v>45412</v>
+      </c>
+      <c r="B76" s="2">
+        <v>0.92804398148148148</v>
+      </c>
+      <c r="C76">
+        <v>817</v>
+      </c>
+      <c r="D76" t="s">
+        <v>0</v>
+      </c>
+      <c r="E76" t="s">
+        <v>1</v>
+      </c>
+      <c r="F76" t="s">
+        <v>0</v>
+      </c>
+      <c r="G76" t="s">
+        <v>2</v>
+      </c>
+      <c r="H76" t="s">
+        <v>3</v>
+      </c>
+      <c r="I76" t="s">
+        <v>4</v>
+      </c>
+      <c r="J76" t="s">
+        <v>5</v>
+      </c>
+      <c r="K76" t="s">
+        <v>6</v>
+      </c>
+      <c r="L76" t="s">
+        <v>7</v>
+      </c>
+      <c r="M76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A77" s="1">
+        <v>45412</v>
+      </c>
+      <c r="B77" s="2">
+        <v>0.92804398148148148</v>
+      </c>
+      <c r="C77">
+        <v>821</v>
+      </c>
+      <c r="D77" t="s">
+        <v>0</v>
+      </c>
+      <c r="E77" t="s">
+        <v>1</v>
+      </c>
+      <c r="F77" t="s">
+        <v>0</v>
+      </c>
+      <c r="G77" t="s">
+        <v>2</v>
+      </c>
+      <c r="H77" t="s">
+        <v>3</v>
+      </c>
+      <c r="I77" t="s">
+        <v>4</v>
+      </c>
+      <c r="J77" t="s">
+        <v>5</v>
+      </c>
+      <c r="K77" t="s">
+        <v>8</v>
+      </c>
+      <c r="L77" t="s">
+        <v>7</v>
+      </c>
+      <c r="M77">
+        <v>8.3000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A78" s="1">
+        <v>45412</v>
+      </c>
+      <c r="B78" s="2">
+        <v>0.92806712962962967</v>
+      </c>
+      <c r="C78">
+        <v>827</v>
+      </c>
+      <c r="D78" t="s">
+        <v>0</v>
+      </c>
+      <c r="E78" t="s">
+        <v>1</v>
+      </c>
+      <c r="F78" t="s">
+        <v>0</v>
+      </c>
+      <c r="G78" t="s">
+        <v>2</v>
+      </c>
+      <c r="H78" t="s">
+        <v>3</v>
+      </c>
+      <c r="I78" t="s">
+        <v>4</v>
+      </c>
+      <c r="J78" t="s">
+        <v>5</v>
+      </c>
+      <c r="K78" t="s">
+        <v>6</v>
+      </c>
+      <c r="L78" t="s">
+        <v>7</v>
+      </c>
+      <c r="M78">
+        <v>8.3000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A79" s="1">
+        <v>45412</v>
+      </c>
+      <c r="B79" s="2">
+        <v>0.92806712962962967</v>
+      </c>
+      <c r="C79">
+        <v>830</v>
+      </c>
+      <c r="D79" t="s">
+        <v>0</v>
+      </c>
+      <c r="E79" t="s">
+        <v>1</v>
+      </c>
+      <c r="F79" t="s">
+        <v>0</v>
+      </c>
+      <c r="G79" t="s">
+        <v>2</v>
+      </c>
+      <c r="H79" t="s">
+        <v>3</v>
+      </c>
+      <c r="I79" t="s">
+        <v>4</v>
+      </c>
+      <c r="J79" t="s">
+        <v>5</v>
+      </c>
+      <c r="K79" t="s">
+        <v>8</v>
+      </c>
+      <c r="L79" t="s">
+        <v>7</v>
+      </c>
+      <c r="M79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A80" s="1">
+        <v>45412</v>
+      </c>
+      <c r="B80" s="2">
+        <v>0.92807870370370371</v>
+      </c>
+      <c r="C80">
+        <v>837</v>
+      </c>
+      <c r="D80" t="s">
+        <v>0</v>
+      </c>
+      <c r="E80" t="s">
+        <v>1</v>
+      </c>
+      <c r="F80" t="s">
+        <v>0</v>
+      </c>
+      <c r="G80" t="s">
+        <v>2</v>
+      </c>
+      <c r="H80" t="s">
+        <v>3</v>
+      </c>
+      <c r="I80" t="s">
+        <v>4</v>
+      </c>
+      <c r="J80" t="s">
+        <v>5</v>
+      </c>
+      <c r="K80" t="s">
+        <v>6</v>
+      </c>
+      <c r="L80" t="s">
+        <v>7</v>
+      </c>
+      <c r="M80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A81" s="1">
+        <v>45412</v>
+      </c>
+      <c r="B81" s="2">
+        <v>0.92807870370370371</v>
+      </c>
+      <c r="C81">
+        <v>840</v>
+      </c>
+      <c r="D81" t="s">
+        <v>0</v>
+      </c>
+      <c r="E81" t="s">
+        <v>1</v>
+      </c>
+      <c r="F81" t="s">
+        <v>0</v>
+      </c>
+      <c r="G81" t="s">
+        <v>2</v>
+      </c>
+      <c r="H81" t="s">
+        <v>3</v>
+      </c>
+      <c r="I81" t="s">
+        <v>4</v>
+      </c>
+      <c r="J81" t="s">
+        <v>5</v>
+      </c>
+      <c r="K81" t="s">
+        <v>8</v>
+      </c>
+      <c r="L81" t="s">
+        <v>7</v>
+      </c>
+      <c r="M81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A82" s="1">
+        <v>45412</v>
+      </c>
+      <c r="B82" s="2">
+        <v>0.9281018518518519</v>
+      </c>
+      <c r="C82">
+        <v>846</v>
+      </c>
+      <c r="D82" t="s">
+        <v>0</v>
+      </c>
+      <c r="E82" t="s">
+        <v>1</v>
+      </c>
+      <c r="F82" t="s">
+        <v>0</v>
+      </c>
+      <c r="G82" t="s">
+        <v>2</v>
+      </c>
+      <c r="H82" t="s">
+        <v>3</v>
+      </c>
+      <c r="I82" t="s">
+        <v>4</v>
+      </c>
+      <c r="J82" t="s">
+        <v>5</v>
+      </c>
+      <c r="K82" t="s">
+        <v>6</v>
+      </c>
+      <c r="L82" t="s">
+        <v>7</v>
+      </c>
+      <c r="M82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A83" s="1">
+        <v>45412</v>
+      </c>
+      <c r="B83" s="2">
+        <v>0.9281018518518519</v>
+      </c>
+      <c r="C83">
+        <v>848</v>
+      </c>
+      <c r="D83" t="s">
+        <v>0</v>
+      </c>
+      <c r="E83" t="s">
+        <v>1</v>
+      </c>
+      <c r="F83" t="s">
+        <v>0</v>
+      </c>
+      <c r="G83" t="s">
+        <v>2</v>
+      </c>
+      <c r="H83" t="s">
+        <v>3</v>
+      </c>
+      <c r="I83" t="s">
+        <v>4</v>
+      </c>
+      <c r="J83" t="s">
+        <v>5</v>
+      </c>
+      <c r="K83" t="s">
+        <v>8</v>
+      </c>
+      <c r="L83" t="s">
+        <v>7</v>
+      </c>
+      <c r="M83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A84" s="1">
+        <v>45412</v>
+      </c>
+      <c r="B84" s="2">
+        <v>0.92811342592592594</v>
+      </c>
+      <c r="C84">
+        <v>856</v>
+      </c>
+      <c r="D84" t="s">
+        <v>0</v>
+      </c>
+      <c r="E84" t="s">
+        <v>1</v>
+      </c>
+      <c r="F84" t="s">
+        <v>0</v>
+      </c>
+      <c r="G84" t="s">
+        <v>2</v>
+      </c>
+      <c r="H84" t="s">
+        <v>3</v>
+      </c>
+      <c r="I84" t="s">
+        <v>4</v>
+      </c>
+      <c r="J84" t="s">
+        <v>5</v>
+      </c>
+      <c r="K84" t="s">
+        <v>6</v>
+      </c>
+      <c r="L84" t="s">
+        <v>7</v>
+      </c>
+      <c r="M84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A85" s="1">
+        <v>45412</v>
+      </c>
+      <c r="B85" s="2">
+        <v>0.92811342592592594</v>
+      </c>
+      <c r="C85">
+        <v>859</v>
+      </c>
+      <c r="D85" t="s">
+        <v>0</v>
+      </c>
+      <c r="E85" t="s">
+        <v>1</v>
+      </c>
+      <c r="F85" t="s">
+        <v>0</v>
+      </c>
+      <c r="G85" t="s">
+        <v>2</v>
+      </c>
+      <c r="H85" t="s">
+        <v>3</v>
+      </c>
+      <c r="I85" t="s">
+        <v>4</v>
+      </c>
+      <c r="J85" t="s">
+        <v>5</v>
+      </c>
+      <c r="K85" t="s">
+        <v>8</v>
+      </c>
+      <c r="L85" t="s">
+        <v>7</v>
+      </c>
+      <c r="M85">
+        <v>-8.3000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A86" s="1">
+        <v>45412</v>
+      </c>
+      <c r="B86" s="2">
+        <v>0.92813657407407413</v>
+      </c>
+      <c r="C86">
+        <v>866</v>
+      </c>
+      <c r="D86" t="s">
+        <v>0</v>
+      </c>
+      <c r="E86" t="s">
+        <v>1</v>
+      </c>
+      <c r="F86" t="s">
+        <v>0</v>
+      </c>
+      <c r="G86" t="s">
+        <v>2</v>
+      </c>
+      <c r="H86" t="s">
+        <v>3</v>
+      </c>
+      <c r="I86" t="s">
+        <v>4</v>
+      </c>
+      <c r="J86" t="s">
+        <v>5</v>
+      </c>
+      <c r="K86" t="s">
+        <v>6</v>
+      </c>
+      <c r="L86" t="s">
+        <v>7</v>
+      </c>
+      <c r="M86">
+        <v>-8.3000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A87" s="1">
+        <v>45412</v>
+      </c>
+      <c r="B87" s="2">
+        <v>0.92813657407407413</v>
+      </c>
+      <c r="C87">
+        <v>868</v>
+      </c>
+      <c r="D87" t="s">
+        <v>0</v>
+      </c>
+      <c r="E87" t="s">
+        <v>1</v>
+      </c>
+      <c r="F87" t="s">
+        <v>0</v>
+      </c>
+      <c r="G87" t="s">
+        <v>2</v>
+      </c>
+      <c r="H87" t="s">
+        <v>3</v>
+      </c>
+      <c r="I87" t="s">
+        <v>4</v>
+      </c>
+      <c r="J87" t="s">
+        <v>5</v>
+      </c>
+      <c r="K87" t="s">
+        <v>8</v>
+      </c>
+      <c r="L87" t="s">
+        <v>7</v>
+      </c>
+      <c r="M87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A88" s="1">
+        <v>45412</v>
+      </c>
+      <c r="B88" s="2">
+        <v>0.92814814814814817</v>
+      </c>
+      <c r="C88">
+        <v>875</v>
+      </c>
+      <c r="D88" t="s">
+        <v>0</v>
+      </c>
+      <c r="E88" t="s">
+        <v>1</v>
+      </c>
+      <c r="F88" t="s">
+        <v>0</v>
+      </c>
+      <c r="G88" t="s">
+        <v>2</v>
+      </c>
+      <c r="H88" t="s">
+        <v>3</v>
+      </c>
+      <c r="I88" t="s">
+        <v>4</v>
+      </c>
+      <c r="J88" t="s">
+        <v>5</v>
+      </c>
+      <c r="K88" t="s">
+        <v>6</v>
+      </c>
+      <c r="L88" t="s">
+        <v>7</v>
+      </c>
+      <c r="M88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A89" s="1">
+        <v>45412</v>
+      </c>
+      <c r="B89" s="2">
+        <v>0.92814814814814817</v>
+      </c>
+      <c r="C89">
+        <v>880</v>
+      </c>
+      <c r="D89" t="s">
+        <v>0</v>
+      </c>
+      <c r="E89" t="s">
+        <v>1</v>
+      </c>
+      <c r="F89" t="s">
+        <v>0</v>
+      </c>
+      <c r="G89" t="s">
+        <v>2</v>
+      </c>
+      <c r="H89" t="s">
+        <v>3</v>
+      </c>
+      <c r="I89" t="s">
+        <v>4</v>
+      </c>
+      <c r="J89" t="s">
+        <v>5</v>
+      </c>
+      <c r="K89" t="s">
+        <v>8</v>
+      </c>
+      <c r="L89" t="s">
+        <v>7</v>
+      </c>
+      <c r="M89">
+        <v>-1.67E-3</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A90" s="1">
+        <v>45412</v>
+      </c>
+      <c r="B90" s="2">
+        <v>0.92817129629629624</v>
+      </c>
+      <c r="C90">
+        <v>887</v>
+      </c>
+      <c r="D90" t="s">
+        <v>0</v>
+      </c>
+      <c r="E90" t="s">
+        <v>1</v>
+      </c>
+      <c r="F90" t="s">
+        <v>0</v>
+      </c>
+      <c r="G90" t="s">
+        <v>2</v>
+      </c>
+      <c r="H90" t="s">
+        <v>3</v>
+      </c>
+      <c r="I90" t="s">
+        <v>4</v>
+      </c>
+      <c r="J90" t="s">
+        <v>5</v>
+      </c>
+      <c r="K90" t="s">
+        <v>6</v>
+      </c>
+      <c r="L90" t="s">
+        <v>7</v>
+      </c>
+      <c r="M90">
+        <v>-1.67E-3</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A91" s="1">
+        <v>45412</v>
+      </c>
+      <c r="B91" s="2">
+        <v>0.92817129629629624</v>
+      </c>
+      <c r="C91">
+        <v>889</v>
+      </c>
+      <c r="D91" t="s">
+        <v>0</v>
+      </c>
+      <c r="E91" t="s">
+        <v>1</v>
+      </c>
+      <c r="F91" t="s">
+        <v>0</v>
+      </c>
+      <c r="G91" t="s">
+        <v>2</v>
+      </c>
+      <c r="H91" t="s">
+        <v>3</v>
+      </c>
+      <c r="I91" t="s">
+        <v>4</v>
+      </c>
+      <c r="J91" t="s">
+        <v>5</v>
+      </c>
+      <c r="K91" t="s">
+        <v>8</v>
+      </c>
+      <c r="L91" t="s">
+        <v>7</v>
+      </c>
+      <c r="M91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A92" s="1">
+        <v>45412</v>
+      </c>
+      <c r="B92" s="2">
+        <v>0.92818287037037039</v>
+      </c>
+      <c r="C92">
+        <v>896</v>
+      </c>
+      <c r="D92" t="s">
+        <v>0</v>
+      </c>
+      <c r="E92" t="s">
+        <v>1</v>
+      </c>
+      <c r="F92" t="s">
+        <v>0</v>
+      </c>
+      <c r="G92" t="s">
+        <v>2</v>
+      </c>
+      <c r="H92" t="s">
+        <v>3</v>
+      </c>
+      <c r="I92" t="s">
+        <v>4</v>
+      </c>
+      <c r="J92" t="s">
+        <v>5</v>
+      </c>
+      <c r="K92" t="s">
+        <v>6</v>
+      </c>
+      <c r="L92" t="s">
+        <v>7</v>
+      </c>
+      <c r="M92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A93" s="1">
+        <v>45412</v>
+      </c>
+      <c r="B93" s="2">
+        <v>0.92818287037037039</v>
+      </c>
+      <c r="C93">
+        <v>898</v>
+      </c>
+      <c r="D93" t="s">
+        <v>0</v>
+      </c>
+      <c r="E93" t="s">
+        <v>1</v>
+      </c>
+      <c r="F93" t="s">
+        <v>0</v>
+      </c>
+      <c r="G93" t="s">
+        <v>2</v>
+      </c>
+      <c r="H93" t="s">
+        <v>3</v>
+      </c>
+      <c r="I93" t="s">
+        <v>4</v>
+      </c>
+      <c r="J93" t="s">
+        <v>5</v>
+      </c>
+      <c r="K93" t="s">
+        <v>8</v>
+      </c>
+      <c r="L93" t="s">
+        <v>7</v>
+      </c>
+      <c r="M93">
+        <v>-2.5000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A94" s="1">
+        <v>45412</v>
+      </c>
+      <c r="B94" s="2">
+        <v>0.92820601851851847</v>
+      </c>
+      <c r="C94">
+        <v>904</v>
+      </c>
+      <c r="D94" t="s">
+        <v>0</v>
+      </c>
+      <c r="E94" t="s">
+        <v>1</v>
+      </c>
+      <c r="F94" t="s">
+        <v>0</v>
+      </c>
+      <c r="G94" t="s">
+        <v>2</v>
+      </c>
+      <c r="H94" t="s">
+        <v>3</v>
+      </c>
+      <c r="I94" t="s">
+        <v>4</v>
+      </c>
+      <c r="J94" t="s">
+        <v>5</v>
+      </c>
+      <c r="K94" t="s">
+        <v>6</v>
+      </c>
+      <c r="L94" t="s">
+        <v>7</v>
+      </c>
+      <c r="M94">
+        <v>-2.5000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A95" s="1">
+        <v>45412</v>
+      </c>
+      <c r="B95" s="2">
+        <v>0.92820601851851847</v>
+      </c>
+      <c r="C95">
+        <v>906</v>
+      </c>
+      <c r="D95" t="s">
+        <v>0</v>
+      </c>
+      <c r="E95" t="s">
+        <v>1</v>
+      </c>
+      <c r="F95" t="s">
+        <v>0</v>
+      </c>
+      <c r="G95" t="s">
+        <v>2</v>
+      </c>
+      <c r="H95" t="s">
+        <v>3</v>
+      </c>
+      <c r="I95" t="s">
+        <v>4</v>
+      </c>
+      <c r="J95" t="s">
+        <v>5</v>
+      </c>
+      <c r="K95" t="s">
+        <v>8</v>
+      </c>
+      <c r="L95" t="s">
+        <v>7</v>
+      </c>
+      <c r="M95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A96" s="1">
+        <v>45412</v>
+      </c>
+      <c r="B96" s="2">
+        <v>0.92821759259259262</v>
+      </c>
+      <c r="C96">
+        <v>915</v>
+      </c>
+      <c r="D96" t="s">
+        <v>0</v>
+      </c>
+      <c r="E96" t="s">
+        <v>1</v>
+      </c>
+      <c r="F96" t="s">
+        <v>0</v>
+      </c>
+      <c r="G96" t="s">
+        <v>2</v>
+      </c>
+      <c r="H96" t="s">
+        <v>3</v>
+      </c>
+      <c r="I96" t="s">
+        <v>4</v>
+      </c>
+      <c r="J96" t="s">
+        <v>5</v>
+      </c>
+      <c r="K96" t="s">
+        <v>6</v>
+      </c>
+      <c r="L96" t="s">
+        <v>7</v>
+      </c>
+      <c r="M96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A97" s="1">
+        <v>45412</v>
+      </c>
+      <c r="B97" s="2">
+        <v>0.92821759259259262</v>
+      </c>
+      <c r="C97">
+        <v>918</v>
+      </c>
+      <c r="D97" t="s">
+        <v>0</v>
+      </c>
+      <c r="E97" t="s">
+        <v>1</v>
+      </c>
+      <c r="F97" t="s">
+        <v>0</v>
+      </c>
+      <c r="G97" t="s">
+        <v>2</v>
+      </c>
+      <c r="H97" t="s">
+        <v>3</v>
+      </c>
+      <c r="I97" t="s">
+        <v>4</v>
+      </c>
+      <c r="J97" t="s">
+        <v>5</v>
+      </c>
+      <c r="K97" t="s">
+        <v>8</v>
+      </c>
+      <c r="L97" t="s">
+        <v>7</v>
+      </c>
+      <c r="M97">
+        <v>-3.3300000000000001E-3</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A98" s="1">
+        <v>45412</v>
+      </c>
+      <c r="B98" s="2">
+        <v>0.9282407407407407</v>
+      </c>
+      <c r="C98">
+        <v>925</v>
+      </c>
+      <c r="D98" t="s">
+        <v>0</v>
+      </c>
+      <c r="E98" t="s">
+        <v>1</v>
+      </c>
+      <c r="F98" t="s">
+        <v>0</v>
+      </c>
+      <c r="G98" t="s">
+        <v>2</v>
+      </c>
+      <c r="H98" t="s">
+        <v>3</v>
+      </c>
+      <c r="I98" t="s">
+        <v>4</v>
+      </c>
+      <c r="J98" t="s">
+        <v>5</v>
+      </c>
+      <c r="K98" t="s">
+        <v>6</v>
+      </c>
+      <c r="L98" t="s">
+        <v>7</v>
+      </c>
+      <c r="M98">
+        <v>-3.3300000000000001E-3</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A99" s="1">
+        <v>45412</v>
+      </c>
+      <c r="B99" s="2">
+        <v>0.9282407407407407</v>
+      </c>
+      <c r="C99">
+        <v>927</v>
+      </c>
+      <c r="D99" t="s">
+        <v>0</v>
+      </c>
+      <c r="E99" t="s">
+        <v>1</v>
+      </c>
+      <c r="F99" t="s">
+        <v>0</v>
+      </c>
+      <c r="G99" t="s">
+        <v>2</v>
+      </c>
+      <c r="H99" t="s">
+        <v>3</v>
+      </c>
+      <c r="I99" t="s">
+        <v>4</v>
+      </c>
+      <c r="J99" t="s">
+        <v>5</v>
+      </c>
+      <c r="K99" t="s">
+        <v>8</v>
+      </c>
+      <c r="L99" t="s">
+        <v>7</v>
+      </c>
+      <c r="M99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A100" s="1">
+        <v>45412</v>
+      </c>
+      <c r="B100" s="2">
+        <v>0.92825231481481485</v>
+      </c>
+      <c r="C100">
+        <v>935</v>
+      </c>
+      <c r="D100" t="s">
+        <v>0</v>
+      </c>
+      <c r="E100" t="s">
+        <v>1</v>
+      </c>
+      <c r="F100" t="s">
+        <v>0</v>
+      </c>
+      <c r="G100" t="s">
+        <v>2</v>
+      </c>
+      <c r="H100" t="s">
+        <v>3</v>
+      </c>
+      <c r="I100" t="s">
+        <v>4</v>
+      </c>
+      <c r="J100" t="s">
+        <v>5</v>
+      </c>
+      <c r="K100" t="s">
+        <v>6</v>
+      </c>
+      <c r="L100" t="s">
+        <v>7</v>
+      </c>
+      <c r="M100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A101" s="1">
+        <v>45412</v>
+      </c>
+      <c r="B101" s="2">
+        <v>0.92825231481481485</v>
+      </c>
+      <c r="C101">
+        <v>938</v>
+      </c>
+      <c r="D101" t="s">
+        <v>0</v>
+      </c>
+      <c r="E101" t="s">
+        <v>1</v>
+      </c>
+      <c r="F101" t="s">
+        <v>0</v>
+      </c>
+      <c r="G101" t="s">
+        <v>2</v>
+      </c>
+      <c r="H101" t="s">
+        <v>3</v>
+      </c>
+      <c r="I101" t="s">
+        <v>4</v>
+      </c>
+      <c r="J101" t="s">
+        <v>5</v>
+      </c>
+      <c r="K101" t="s">
+        <v>8</v>
+      </c>
+      <c r="L101" t="s">
+        <v>7</v>
+      </c>
+      <c r="M101">
+        <v>-4.1599999999999996E-3</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A102" s="1">
+        <v>45412</v>
+      </c>
+      <c r="B102" s="2">
+        <v>0.92827546296296293</v>
+      </c>
+      <c r="C102">
+        <v>945</v>
+      </c>
+      <c r="D102" t="s">
+        <v>0</v>
+      </c>
+      <c r="E102" t="s">
+        <v>1</v>
+      </c>
+      <c r="F102" t="s">
+        <v>0</v>
+      </c>
+      <c r="G102" t="s">
+        <v>2</v>
+      </c>
+      <c r="H102" t="s">
+        <v>3</v>
+      </c>
+      <c r="I102" t="s">
+        <v>4</v>
+      </c>
+      <c r="J102" t="s">
+        <v>5</v>
+      </c>
+      <c r="K102" t="s">
+        <v>6</v>
+      </c>
+      <c r="L102" t="s">
+        <v>7</v>
+      </c>
+      <c r="M102">
+        <v>-4.1599999999999996E-3</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A103" s="1">
+        <v>45412</v>
+      </c>
+      <c r="B103" s="2">
+        <v>0.92827546296296293</v>
+      </c>
+      <c r="C103">
+        <v>951</v>
+      </c>
+      <c r="D103" t="s">
+        <v>0</v>
+      </c>
+      <c r="E103" t="s">
+        <v>1</v>
+      </c>
+      <c r="F103" t="s">
+        <v>0</v>
+      </c>
+      <c r="G103" t="s">
+        <v>2</v>
+      </c>
+      <c r="H103" t="s">
+        <v>3</v>
+      </c>
+      <c r="I103" t="s">
+        <v>4</v>
+      </c>
+      <c r="J103" t="s">
+        <v>5</v>
+      </c>
+      <c r="K103" t="s">
+        <v>8</v>
+      </c>
+      <c r="L103" t="s">
+        <v>7</v>
+      </c>
+      <c r="M103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A104" s="1">
+        <v>45412</v>
+      </c>
+      <c r="B104" s="2">
+        <v>0.92828703703703708</v>
+      </c>
+      <c r="C104">
+        <v>956</v>
+      </c>
+      <c r="D104" t="s">
+        <v>0</v>
+      </c>
+      <c r="E104" t="s">
+        <v>1</v>
+      </c>
+      <c r="F104" t="s">
+        <v>0</v>
+      </c>
+      <c r="G104" t="s">
+        <v>2</v>
+      </c>
+      <c r="H104" t="s">
+        <v>3</v>
+      </c>
+      <c r="I104" t="s">
+        <v>4</v>
+      </c>
+      <c r="J104" t="s">
+        <v>5</v>
+      </c>
+      <c r="K104" t="s">
+        <v>6</v>
+      </c>
+      <c r="L104" t="s">
+        <v>7</v>
+      </c>
+      <c r="M104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A105" s="1">
+        <v>45412</v>
+      </c>
+      <c r="B105" s="2">
+        <v>0.92828703703703708</v>
+      </c>
+      <c r="C105">
+        <v>959</v>
+      </c>
+      <c r="D105" t="s">
+        <v>0</v>
+      </c>
+      <c r="E105" t="s">
+        <v>1</v>
+      </c>
+      <c r="F105" t="s">
+        <v>0</v>
+      </c>
+      <c r="G105" t="s">
+        <v>2</v>
+      </c>
+      <c r="H105" t="s">
+        <v>3</v>
+      </c>
+      <c r="I105" t="s">
+        <v>4</v>
+      </c>
+      <c r="J105" t="s">
+        <v>5</v>
+      </c>
+      <c r="K105" t="s">
+        <v>8</v>
+      </c>
+      <c r="L105" t="s">
+        <v>7</v>
+      </c>
+      <c r="M105">
+        <v>-4.9899999999999996E-3</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A106" s="1">
+        <v>45412</v>
+      </c>
+      <c r="B106" s="2">
+        <v>0.92831018518518515</v>
+      </c>
+      <c r="C106">
+        <v>965</v>
+      </c>
+      <c r="D106" t="s">
+        <v>0</v>
+      </c>
+      <c r="E106" t="s">
+        <v>1</v>
+      </c>
+      <c r="F106" t="s">
+        <v>0</v>
+      </c>
+      <c r="G106" t="s">
+        <v>2</v>
+      </c>
+      <c r="H106" t="s">
+        <v>3</v>
+      </c>
+      <c r="I106" t="s">
+        <v>4</v>
+      </c>
+      <c r="J106" t="s">
+        <v>5</v>
+      </c>
+      <c r="K106" t="s">
+        <v>6</v>
+      </c>
+      <c r="L106" t="s">
+        <v>7</v>
+      </c>
+      <c r="M106">
+        <v>-4.9899999999999996E-3</v>
+      </c>
+    </row>
+    <row r="107" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A107" s="1">
+        <v>45412</v>
+      </c>
+      <c r="B107" s="2">
+        <v>0.92831018518518515</v>
+      </c>
+      <c r="C107">
+        <v>968</v>
+      </c>
+      <c r="D107" t="s">
+        <v>0</v>
+      </c>
+      <c r="E107" t="s">
+        <v>1</v>
+      </c>
+      <c r="F107" t="s">
+        <v>0</v>
+      </c>
+      <c r="G107" t="s">
+        <v>2</v>
+      </c>
+      <c r="H107" t="s">
+        <v>3</v>
+      </c>
+      <c r="I107" t="s">
+        <v>4</v>
+      </c>
+      <c r="J107" t="s">
+        <v>5</v>
+      </c>
+      <c r="K107" t="s">
+        <v>8</v>
+      </c>
+      <c r="L107" t="s">
+        <v>7</v>
+      </c>
+      <c r="M107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A108" s="1">
+        <v>45412</v>
+      </c>
+      <c r="B108" s="2">
+        <v>0.9283217592592593</v>
+      </c>
+      <c r="C108">
+        <v>975</v>
+      </c>
+      <c r="D108" t="s">
+        <v>0</v>
+      </c>
+      <c r="E108" t="s">
+        <v>1</v>
+      </c>
+      <c r="F108" t="s">
+        <v>0</v>
+      </c>
+      <c r="G108" t="s">
+        <v>2</v>
+      </c>
+      <c r="H108" t="s">
+        <v>3</v>
+      </c>
+      <c r="I108" t="s">
+        <v>4</v>
+      </c>
+      <c r="J108" t="s">
+        <v>5</v>
+      </c>
+      <c r="K108" t="s">
+        <v>6</v>
+      </c>
+      <c r="L108" t="s">
+        <v>7</v>
+      </c>
+      <c r="M108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A109" s="1">
+        <v>45412</v>
+      </c>
+      <c r="B109" s="2">
+        <v>0.9283217592592593</v>
+      </c>
+      <c r="C109">
+        <v>977</v>
+      </c>
+      <c r="D109" t="s">
+        <v>0</v>
+      </c>
+      <c r="E109" t="s">
+        <v>1</v>
+      </c>
+      <c r="F109" t="s">
+        <v>0</v>
+      </c>
+      <c r="G109" t="s">
+        <v>2</v>
+      </c>
+      <c r="H109" t="s">
+        <v>3</v>
+      </c>
+      <c r="I109" t="s">
+        <v>4</v>
+      </c>
+      <c r="J109" t="s">
+        <v>5</v>
+      </c>
+      <c r="K109" t="s">
+        <v>8</v>
+      </c>
+      <c r="L109" t="s">
+        <v>7</v>
+      </c>
+      <c r="M109">
+        <v>-5.8199999999999997E-3</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A110" s="1">
+        <v>45412</v>
+      </c>
+      <c r="B110" s="2">
+        <v>0.92834490740740738</v>
+      </c>
+      <c r="C110">
+        <v>985</v>
+      </c>
+      <c r="D110" t="s">
+        <v>0</v>
+      </c>
+      <c r="E110" t="s">
+        <v>1</v>
+      </c>
+      <c r="F110" t="s">
+        <v>0</v>
+      </c>
+      <c r="G110" t="s">
+        <v>2</v>
+      </c>
+      <c r="H110" t="s">
+        <v>3</v>
+      </c>
+      <c r="I110" t="s">
+        <v>4</v>
+      </c>
+      <c r="J110" t="s">
+        <v>5</v>
+      </c>
+      <c r="K110" t="s">
+        <v>6</v>
+      </c>
+      <c r="L110" t="s">
+        <v>7</v>
+      </c>
+      <c r="M110">
+        <v>-5.8199999999999997E-3</v>
+      </c>
+    </row>
+    <row r="111" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A111" s="1">
+        <v>45412</v>
+      </c>
+      <c r="B111" s="2">
+        <v>0.92834490740740738</v>
+      </c>
+      <c r="C111">
+        <v>989</v>
+      </c>
+      <c r="D111" t="s">
+        <v>0</v>
+      </c>
+      <c r="E111" t="s">
+        <v>1</v>
+      </c>
+      <c r="F111" t="s">
+        <v>0</v>
+      </c>
+      <c r="G111" t="s">
+        <v>2</v>
+      </c>
+      <c r="H111" t="s">
+        <v>3</v>
+      </c>
+      <c r="I111" t="s">
+        <v>4</v>
+      </c>
+      <c r="J111" t="s">
+        <v>5</v>
+      </c>
+      <c r="K111" t="s">
+        <v>8</v>
+      </c>
+      <c r="L111" t="s">
+        <v>7</v>
+      </c>
+      <c r="M111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A112" s="1">
+        <v>45412</v>
+      </c>
+      <c r="B112" s="2">
+        <v>0.92835648148148153</v>
+      </c>
+      <c r="C112">
+        <v>997</v>
+      </c>
+      <c r="D112" t="s">
+        <v>0</v>
+      </c>
+      <c r="E112" t="s">
+        <v>1</v>
+      </c>
+      <c r="F112" t="s">
+        <v>0</v>
+      </c>
+      <c r="G112" t="s">
+        <v>2</v>
+      </c>
+      <c r="H112" t="s">
+        <v>3</v>
+      </c>
+      <c r="I112" t="s">
+        <v>4</v>
+      </c>
+      <c r="J112" t="s">
+        <v>5</v>
+      </c>
+      <c r="K112" t="s">
+        <v>6</v>
+      </c>
+      <c r="L112" t="s">
+        <v>7</v>
+      </c>
+      <c r="M112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A113" s="1">
+        <v>45412</v>
+      </c>
+      <c r="B113" s="2">
+        <v>0.92836805555555557</v>
+      </c>
+      <c r="C113">
+        <v>0</v>
+      </c>
+      <c r="D113" t="s">
+        <v>0</v>
+      </c>
+      <c r="E113" t="s">
+        <v>1</v>
+      </c>
+      <c r="F113" t="s">
+        <v>0</v>
+      </c>
+      <c r="G113" t="s">
+        <v>2</v>
+      </c>
+      <c r="H113" t="s">
+        <v>3</v>
+      </c>
+      <c r="I113" t="s">
+        <v>4</v>
+      </c>
+      <c r="J113" t="s">
+        <v>5</v>
+      </c>
+      <c r="K113" t="s">
+        <v>8</v>
+      </c>
+      <c r="L113" t="s">
+        <v>7</v>
+      </c>
+      <c r="M113">
+        <v>-6.6400000000000001E-3</v>
+      </c>
+    </row>
+    <row r="114" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A114" s="1">
+        <v>45412</v>
+      </c>
+      <c r="B114" s="2">
+        <v>0.92839120370370365</v>
+      </c>
+      <c r="C114">
+        <v>6</v>
+      </c>
+      <c r="D114" t="s">
+        <v>0</v>
+      </c>
+      <c r="E114" t="s">
+        <v>1</v>
+      </c>
+      <c r="F114" t="s">
+        <v>0</v>
+      </c>
+      <c r="G114" t="s">
+        <v>2</v>
+      </c>
+      <c r="H114" t="s">
+        <v>3</v>
+      </c>
+      <c r="I114" t="s">
+        <v>4</v>
+      </c>
+      <c r="J114" t="s">
+        <v>5</v>
+      </c>
+      <c r="K114" t="s">
+        <v>6</v>
+      </c>
+      <c r="L114" t="s">
+        <v>7</v>
+      </c>
+      <c r="M114">
+        <v>-6.6400000000000001E-3</v>
+      </c>
+    </row>
+    <row r="115" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A115" s="1">
+        <v>45412</v>
+      </c>
+      <c r="B115" s="2">
+        <v>0.92839120370370365</v>
+      </c>
+      <c r="C115">
+        <v>9</v>
+      </c>
+      <c r="D115" t="s">
+        <v>0</v>
+      </c>
+      <c r="E115" t="s">
+        <v>1</v>
+      </c>
+      <c r="F115" t="s">
+        <v>0</v>
+      </c>
+      <c r="G115" t="s">
+        <v>2</v>
+      </c>
+      <c r="H115" t="s">
+        <v>3</v>
+      </c>
+      <c r="I115" t="s">
+        <v>4</v>
+      </c>
+      <c r="J115" t="s">
+        <v>5</v>
+      </c>
+      <c r="K115" t="s">
+        <v>8</v>
+      </c>
+      <c r="L115" t="s">
+        <v>7</v>
+      </c>
+      <c r="M115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A116" s="1">
+        <v>45412</v>
+      </c>
+      <c r="B116" s="2">
+        <v>0.9284027777777778</v>
+      </c>
+      <c r="C116">
+        <v>16</v>
+      </c>
+      <c r="D116" t="s">
+        <v>0</v>
+      </c>
+      <c r="E116" t="s">
+        <v>1</v>
+      </c>
+      <c r="F116" t="s">
+        <v>0</v>
+      </c>
+      <c r="G116" t="s">
+        <v>2</v>
+      </c>
+      <c r="H116" t="s">
+        <v>3</v>
+      </c>
+      <c r="I116" t="s">
+        <v>4</v>
+      </c>
+      <c r="J116" t="s">
+        <v>5</v>
+      </c>
+      <c r="K116" t="s">
+        <v>6</v>
+      </c>
+      <c r="L116" t="s">
+        <v>7</v>
+      </c>
+      <c r="M116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A117" s="1">
+        <v>45412</v>
+      </c>
+      <c r="B117" s="2">
+        <v>0.9284027777777778</v>
+      </c>
+      <c r="C117">
+        <v>20</v>
+      </c>
+      <c r="D117" t="s">
+        <v>0</v>
+      </c>
+      <c r="E117" t="s">
+        <v>1</v>
+      </c>
+      <c r="F117" t="s">
+        <v>0</v>
+      </c>
+      <c r="G117" t="s">
+        <v>2</v>
+      </c>
+      <c r="H117" t="s">
+        <v>3</v>
+      </c>
+      <c r="I117" t="s">
+        <v>4</v>
+      </c>
+      <c r="J117" t="s">
+        <v>5</v>
+      </c>
+      <c r="K117" t="s">
+        <v>8</v>
+      </c>
+      <c r="L117" t="s">
+        <v>7</v>
+      </c>
+      <c r="M117">
+        <v>-7.4700000000000001E-3</v>
+      </c>
+    </row>
+    <row r="118" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A118" s="1">
+        <v>45412</v>
+      </c>
+      <c r="B118" s="2">
+        <v>0.92842592592592588</v>
+      </c>
+      <c r="C118">
+        <v>27</v>
+      </c>
+      <c r="D118" t="s">
+        <v>0</v>
+      </c>
+      <c r="E118" t="s">
+        <v>1</v>
+      </c>
+      <c r="F118" t="s">
+        <v>0</v>
+      </c>
+      <c r="G118" t="s">
+        <v>2</v>
+      </c>
+      <c r="H118" t="s">
+        <v>3</v>
+      </c>
+      <c r="I118" t="s">
+        <v>4</v>
+      </c>
+      <c r="J118" t="s">
+        <v>5</v>
+      </c>
+      <c r="K118" t="s">
+        <v>6</v>
+      </c>
+      <c r="L118" t="s">
+        <v>7</v>
+      </c>
+      <c r="M118">
+        <v>-7.4700000000000001E-3</v>
+      </c>
+    </row>
+    <row r="119" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A119" s="1">
+        <v>45412</v>
+      </c>
+      <c r="B119" s="2">
+        <v>0.92842592592592588</v>
+      </c>
+      <c r="C119">
+        <v>32</v>
+      </c>
+      <c r="D119" t="s">
+        <v>0</v>
+      </c>
+      <c r="E119" t="s">
+        <v>1</v>
+      </c>
+      <c r="F119" t="s">
+        <v>0</v>
+      </c>
+      <c r="G119" t="s">
+        <v>2</v>
+      </c>
+      <c r="H119" t="s">
+        <v>3</v>
+      </c>
+      <c r="I119" t="s">
+        <v>4</v>
+      </c>
+      <c r="J119" t="s">
+        <v>5</v>
+      </c>
+      <c r="K119" t="s">
+        <v>8</v>
+      </c>
+      <c r="L119" t="s">
+        <v>7</v>
+      </c>
+      <c r="M119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A120" s="1">
+        <v>45412</v>
+      </c>
+      <c r="B120" s="2">
+        <v>0.92843750000000003</v>
+      </c>
+      <c r="C120">
+        <v>41</v>
+      </c>
+      <c r="D120" t="s">
+        <v>0</v>
+      </c>
+      <c r="E120" t="s">
+        <v>1</v>
+      </c>
+      <c r="F120" t="s">
+        <v>0</v>
+      </c>
+      <c r="G120" t="s">
+        <v>2</v>
+      </c>
+      <c r="H120" t="s">
+        <v>3</v>
+      </c>
+      <c r="I120" t="s">
+        <v>4</v>
+      </c>
+      <c r="J120" t="s">
+        <v>5</v>
+      </c>
+      <c r="K120" t="s">
+        <v>6</v>
+      </c>
+      <c r="L120" t="s">
+        <v>7</v>
+      </c>
+      <c r="M120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A121" s="1">
+        <v>45412</v>
+      </c>
+      <c r="B121" s="2">
+        <v>0.92843750000000003</v>
+      </c>
+      <c r="C121">
+        <v>44</v>
+      </c>
+      <c r="D121" t="s">
+        <v>0</v>
+      </c>
+      <c r="E121" t="s">
+        <v>1</v>
+      </c>
+      <c r="F121" t="s">
+        <v>0</v>
+      </c>
+      <c r="G121" t="s">
+        <v>2</v>
+      </c>
+      <c r="H121" t="s">
+        <v>3</v>
+      </c>
+      <c r="I121" t="s">
+        <v>4</v>
+      </c>
+      <c r="J121" t="s">
+        <v>5</v>
+      </c>
+      <c r="K121" t="s">
+        <v>8</v>
+      </c>
+      <c r="L121" t="s">
+        <v>7</v>
+      </c>
+      <c r="M121">
+        <v>7.5300000000000002E-3</v>
+      </c>
+    </row>
+    <row r="122" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A122" s="1">
+        <v>45412</v>
+      </c>
+      <c r="B122" s="2">
+        <v>0.96934027777777776</v>
+      </c>
+      <c r="C122">
+        <v>614</v>
+      </c>
+      <c r="D122" t="s">
+        <v>0</v>
+      </c>
+      <c r="E122" t="s">
+        <v>1</v>
+      </c>
+      <c r="F122" t="s">
+        <v>0</v>
+      </c>
+      <c r="G122" t="s">
+        <v>2</v>
+      </c>
+      <c r="H122" t="s">
+        <v>3</v>
+      </c>
+      <c r="I122" t="s">
+        <v>4</v>
+      </c>
+      <c r="J122" t="s">
+        <v>5</v>
+      </c>
+      <c r="K122" t="s">
+        <v>6</v>
+      </c>
+      <c r="L122" t="s">
+        <v>7</v>
+      </c>
+      <c r="M122">
+        <v>7.5300000000000002E-3</v>
+      </c>
+    </row>
+    <row r="123" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A123" s="1">
+        <v>45412</v>
+      </c>
+      <c r="B123" s="2">
+        <v>0.96934027777777776</v>
+      </c>
+      <c r="C123">
+        <v>619</v>
+      </c>
+      <c r="D123" t="s">
+        <v>0</v>
+      </c>
+      <c r="E123" t="s">
+        <v>1</v>
+      </c>
+      <c r="F123" t="s">
+        <v>0</v>
+      </c>
+      <c r="G123" t="s">
+        <v>2</v>
+      </c>
+      <c r="H123" t="s">
+        <v>3</v>
+      </c>
+      <c r="I123" t="s">
+        <v>4</v>
+      </c>
+      <c r="J123" t="s">
+        <v>5</v>
+      </c>
+      <c r="K123" t="s">
+        <v>8</v>
+      </c>
+      <c r="L123" t="s">
+        <v>7</v>
+      </c>
+      <c r="M123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A124" s="1">
+        <v>45412</v>
+      </c>
+      <c r="B124" s="2">
+        <v>0.96934027777777776</v>
+      </c>
+      <c r="C124">
+        <v>623</v>
+      </c>
+      <c r="D124" t="s">
+        <v>0</v>
+      </c>
+      <c r="E124" t="s">
+        <v>1</v>
+      </c>
+      <c r="F124" t="s">
+        <v>0</v>
+      </c>
+      <c r="G124" t="s">
+        <v>2</v>
+      </c>
+      <c r="H124" t="s">
+        <v>3</v>
+      </c>
+      <c r="I124" t="s">
+        <v>4</v>
+      </c>
+      <c r="J124" t="s">
+        <v>5</v>
+      </c>
+      <c r="K124" t="s">
+        <v>6</v>
+      </c>
+      <c r="L124" t="s">
+        <v>7</v>
+      </c>
+      <c r="M124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A125" s="1">
+        <v>45412</v>
+      </c>
+      <c r="B125" s="2">
+        <v>0.96934027777777776</v>
+      </c>
+      <c r="C125">
+        <v>627</v>
+      </c>
+      <c r="D125" t="s">
+        <v>0</v>
+      </c>
+      <c r="E125" t="s">
+        <v>1</v>
+      </c>
+      <c r="F125" t="s">
+        <v>0</v>
+      </c>
+      <c r="G125" t="s">
+        <v>2</v>
+      </c>
+      <c r="H125" t="s">
+        <v>3</v>
+      </c>
+      <c r="I125" t="s">
+        <v>4</v>
+      </c>
+      <c r="J125" t="s">
+        <v>5</v>
+      </c>
+      <c r="K125" t="s">
+        <v>8</v>
+      </c>
+      <c r="L125" t="s">
+        <v>7</v>
+      </c>
+      <c r="M125">
+        <v>-7.5300000000000002E-3</v>
+      </c>
+    </row>
+    <row r="126" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A126" s="1">
+        <v>45412</v>
+      </c>
+      <c r="B126" s="2">
+        <v>0.96936342592592595</v>
+      </c>
+      <c r="C126">
+        <v>637</v>
+      </c>
+      <c r="D126" t="s">
+        <v>0</v>
+      </c>
+      <c r="E126" t="s">
+        <v>1</v>
+      </c>
+      <c r="F126" t="s">
+        <v>0</v>
+      </c>
+      <c r="G126" t="s">
+        <v>2</v>
+      </c>
+      <c r="H126" t="s">
+        <v>3</v>
+      </c>
+      <c r="I126" t="s">
+        <v>4</v>
+      </c>
+      <c r="J126" t="s">
+        <v>5</v>
+      </c>
+      <c r="K126" t="s">
+        <v>6</v>
+      </c>
+      <c r="L126" t="s">
+        <v>7</v>
+      </c>
+      <c r="M126">
+        <v>-7.5300000000000002E-3</v>
+      </c>
+    </row>
+    <row r="127" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A127" s="1">
+        <v>45412</v>
+      </c>
+      <c r="B127" s="2">
+        <v>0.96936342592592595</v>
+      </c>
+      <c r="C127">
+        <v>640</v>
+      </c>
+      <c r="D127" t="s">
+        <v>0</v>
+      </c>
+      <c r="E127" t="s">
+        <v>1</v>
+      </c>
+      <c r="F127" t="s">
+        <v>0</v>
+      </c>
+      <c r="G127" t="s">
+        <v>2</v>
+      </c>
+      <c r="H127" t="s">
+        <v>3</v>
+      </c>
+      <c r="I127" t="s">
+        <v>4</v>
+      </c>
+      <c r="J127" t="s">
+        <v>5</v>
+      </c>
+      <c r="K127" t="s">
+        <v>8</v>
+      </c>
+      <c r="L127" t="s">
+        <v>7</v>
+      </c>
+      <c r="M127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A128" s="1">
+        <v>45412</v>
+      </c>
+      <c r="B128" s="2">
+        <v>0.96936342592592595</v>
+      </c>
+      <c r="C128">
+        <v>643</v>
+      </c>
+      <c r="D128" t="s">
+        <v>0</v>
+      </c>
+      <c r="E128" t="s">
+        <v>1</v>
+      </c>
+      <c r="F128" t="s">
+        <v>0</v>
+      </c>
+      <c r="G128" t="s">
+        <v>2</v>
+      </c>
+      <c r="H128" t="s">
+        <v>3</v>
+      </c>
+      <c r="I128" t="s">
+        <v>4</v>
+      </c>
+      <c r="J128" t="s">
+        <v>5</v>
+      </c>
+      <c r="K128" t="s">
+        <v>6</v>
+      </c>
+      <c r="L128" t="s">
+        <v>7</v>
+      </c>
+      <c r="M128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A129" s="1">
+        <v>45412</v>
+      </c>
+      <c r="B129" s="2">
+        <v>0.96936342592592595</v>
+      </c>
+      <c r="C129">
+        <v>646</v>
+      </c>
+      <c r="D129" t="s">
+        <v>0</v>
+      </c>
+      <c r="E129" t="s">
+        <v>1</v>
+      </c>
+      <c r="F129" t="s">
+        <v>0</v>
+      </c>
+      <c r="G129" t="s">
+        <v>2</v>
+      </c>
+      <c r="H129" t="s">
+        <v>3</v>
+      </c>
+      <c r="I129" t="s">
+        <v>4</v>
+      </c>
+      <c r="J129" t="s">
+        <v>5</v>
+      </c>
+      <c r="K129" t="s">
+        <v>8</v>
+      </c>
+      <c r="L129" t="s">
+        <v>7</v>
+      </c>
+      <c r="M129">
+        <v>-6.6899999999999998E-3</v>
+      </c>
+    </row>
+    <row r="130" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A130" s="1">
+        <v>45412</v>
+      </c>
+      <c r="B130" s="2">
+        <v>0.96937499999999999</v>
+      </c>
+      <c r="C130">
+        <v>653</v>
+      </c>
+      <c r="D130" t="s">
+        <v>0</v>
+      </c>
+      <c r="E130" t="s">
+        <v>1</v>
+      </c>
+      <c r="F130" t="s">
+        <v>0</v>
+      </c>
+      <c r="G130" t="s">
+        <v>2</v>
+      </c>
+      <c r="H130" t="s">
+        <v>3</v>
+      </c>
+      <c r="I130" t="s">
+        <v>4</v>
+      </c>
+      <c r="J130" t="s">
+        <v>5</v>
+      </c>
+      <c r="K130" t="s">
+        <v>6</v>
+      </c>
+      <c r="L130" t="s">
+        <v>7</v>
+      </c>
+      <c r="M130">
+        <v>-6.6899999999999998E-3</v>
+      </c>
+    </row>
+    <row r="131" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A131" s="1">
+        <v>45412</v>
+      </c>
+      <c r="B131" s="2">
+        <v>0.96937499999999999</v>
+      </c>
+      <c r="C131">
+        <v>655</v>
+      </c>
+      <c r="D131" t="s">
+        <v>0</v>
+      </c>
+      <c r="E131" t="s">
+        <v>1</v>
+      </c>
+      <c r="F131" t="s">
+        <v>0</v>
+      </c>
+      <c r="G131" t="s">
+        <v>2</v>
+      </c>
+      <c r="H131" t="s">
+        <v>3</v>
+      </c>
+      <c r="I131" t="s">
+        <v>4</v>
+      </c>
+      <c r="J131" t="s">
+        <v>5</v>
+      </c>
+      <c r="K131" t="s">
+        <v>8</v>
+      </c>
+      <c r="L131" t="s">
+        <v>7</v>
+      </c>
+      <c r="M131">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A132" s="1">
+        <v>45412</v>
+      </c>
+      <c r="B132" s="2">
+        <v>0.96937499999999999</v>
+      </c>
+      <c r="C132">
+        <v>660</v>
+      </c>
+      <c r="D132" t="s">
+        <v>0</v>
+      </c>
+      <c r="E132" t="s">
+        <v>1</v>
+      </c>
+      <c r="F132" t="s">
+        <v>0</v>
+      </c>
+      <c r="G132" t="s">
+        <v>2</v>
+      </c>
+      <c r="H132" t="s">
+        <v>3</v>
+      </c>
+      <c r="I132" t="s">
+        <v>4</v>
+      </c>
+      <c r="J132" t="s">
+        <v>5</v>
+      </c>
+      <c r="K132" t="s">
+        <v>6</v>
+      </c>
+      <c r="L132" t="s">
+        <v>7</v>
+      </c>
+      <c r="M132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A133" s="1">
+        <v>45412</v>
+      </c>
+      <c r="B133" s="2">
+        <v>0.96937499999999999</v>
+      </c>
+      <c r="C133">
+        <v>662</v>
+      </c>
+      <c r="D133" t="s">
+        <v>0</v>
+      </c>
+      <c r="E133" t="s">
+        <v>1</v>
+      </c>
+      <c r="F133" t="s">
+        <v>0</v>
+      </c>
+      <c r="G133" t="s">
+        <v>2</v>
+      </c>
+      <c r="H133" t="s">
+        <v>3</v>
+      </c>
+      <c r="I133" t="s">
+        <v>4</v>
+      </c>
+      <c r="J133" t="s">
+        <v>5</v>
+      </c>
+      <c r="K133" t="s">
+        <v>8</v>
+      </c>
+      <c r="L133" t="s">
+        <v>7</v>
+      </c>
+      <c r="M133">
+        <v>-5.8500000000000002E-3</v>
+      </c>
+    </row>
+    <row r="134" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A134" s="1">
+        <v>45412</v>
+      </c>
+      <c r="B134" s="2">
+        <v>0.96938657407407403</v>
+      </c>
+      <c r="C134">
+        <v>673</v>
+      </c>
+      <c r="D134" t="s">
+        <v>0</v>
+      </c>
+      <c r="E134" t="s">
+        <v>1</v>
+      </c>
+      <c r="F134" t="s">
+        <v>0</v>
+      </c>
+      <c r="G134" t="s">
+        <v>2</v>
+      </c>
+      <c r="H134" t="s">
+        <v>3</v>
+      </c>
+      <c r="I134" t="s">
+        <v>4</v>
+      </c>
+      <c r="J134" t="s">
+        <v>5</v>
+      </c>
+      <c r="K134" t="s">
+        <v>6</v>
+      </c>
+      <c r="L134" t="s">
+        <v>7</v>
+      </c>
+      <c r="M134">
+        <v>-5.8500000000000002E-3</v>
+      </c>
+    </row>
+    <row r="135" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A135" s="1">
+        <v>45412</v>
+      </c>
+      <c r="B135" s="2">
+        <v>0.96938657407407403</v>
+      </c>
+      <c r="C135">
+        <v>675</v>
+      </c>
+      <c r="D135" t="s">
+        <v>0</v>
+      </c>
+      <c r="E135" t="s">
+        <v>1</v>
+      </c>
+      <c r="F135" t="s">
+        <v>0</v>
+      </c>
+      <c r="G135" t="s">
+        <v>2</v>
+      </c>
+      <c r="H135" t="s">
+        <v>3</v>
+      </c>
+      <c r="I135" t="s">
+        <v>4</v>
+      </c>
+      <c r="J135" t="s">
+        <v>5</v>
+      </c>
+      <c r="K135" t="s">
+        <v>8</v>
+      </c>
+      <c r="L135" t="s">
+        <v>7</v>
+      </c>
+      <c r="M135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A136" s="1">
+        <v>45412</v>
+      </c>
+      <c r="B136" s="2">
+        <v>0.96938657407407403</v>
+      </c>
+      <c r="C136">
+        <v>679</v>
+      </c>
+      <c r="D136" t="s">
+        <v>0</v>
+      </c>
+      <c r="E136" t="s">
+        <v>1</v>
+      </c>
+      <c r="F136" t="s">
+        <v>0</v>
+      </c>
+      <c r="G136" t="s">
+        <v>2</v>
+      </c>
+      <c r="H136" t="s">
+        <v>3</v>
+      </c>
+      <c r="I136" t="s">
+        <v>4</v>
+      </c>
+      <c r="J136" t="s">
+        <v>5</v>
+      </c>
+      <c r="K136" t="s">
+        <v>6</v>
+      </c>
+      <c r="L136" t="s">
+        <v>7</v>
+      </c>
+      <c r="M136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A137" s="1">
+        <v>45412</v>
+      </c>
+      <c r="B137" s="2">
+        <v>0.96938657407407403</v>
+      </c>
+      <c r="C137">
+        <v>682</v>
+      </c>
+      <c r="D137" t="s">
+        <v>0</v>
+      </c>
+      <c r="E137" t="s">
+        <v>1</v>
+      </c>
+      <c r="F137" t="s">
+        <v>0</v>
+      </c>
+      <c r="G137" t="s">
+        <v>2</v>
+      </c>
+      <c r="H137" t="s">
+        <v>3</v>
+      </c>
+      <c r="I137" t="s">
+        <v>4</v>
+      </c>
+      <c r="J137" t="s">
+        <v>5</v>
+      </c>
+      <c r="K137" t="s">
+        <v>8</v>
+      </c>
+      <c r="L137" t="s">
+        <v>7</v>
+      </c>
+      <c r="M137">
+        <v>-5.0099999999999997E-3</v>
+      </c>
+    </row>
+    <row r="138" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A138" s="1">
+        <v>45412</v>
+      </c>
+      <c r="B138" s="2">
+        <v>0.96940972222222221</v>
+      </c>
+      <c r="C138">
+        <v>690</v>
+      </c>
+      <c r="D138" t="s">
+        <v>0</v>
+      </c>
+      <c r="E138" t="s">
+        <v>1</v>
+      </c>
+      <c r="F138" t="s">
+        <v>0</v>
+      </c>
+      <c r="G138" t="s">
+        <v>2</v>
+      </c>
+      <c r="H138" t="s">
+        <v>3</v>
+      </c>
+      <c r="I138" t="s">
+        <v>4</v>
+      </c>
+      <c r="J138" t="s">
+        <v>5</v>
+      </c>
+      <c r="K138" t="s">
+        <v>6</v>
+      </c>
+      <c r="L138" t="s">
+        <v>7</v>
+      </c>
+      <c r="M138">
+        <v>-5.0099999999999997E-3</v>
+      </c>
+    </row>
+    <row r="139" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A139" s="1">
+        <v>45412</v>
+      </c>
+      <c r="B139" s="2">
+        <v>0.96940972222222221</v>
+      </c>
+      <c r="C139">
+        <v>693</v>
+      </c>
+      <c r="D139" t="s">
+        <v>0</v>
+      </c>
+      <c r="E139" t="s">
+        <v>1</v>
+      </c>
+      <c r="F139" t="s">
+        <v>0</v>
+      </c>
+      <c r="G139" t="s">
+        <v>2</v>
+      </c>
+      <c r="H139" t="s">
+        <v>3</v>
+      </c>
+      <c r="I139" t="s">
+        <v>4</v>
+      </c>
+      <c r="J139" t="s">
+        <v>5</v>
+      </c>
+      <c r="K139" t="s">
+        <v>8</v>
+      </c>
+      <c r="L139" t="s">
+        <v>7</v>
+      </c>
+      <c r="M139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A140" s="1">
+        <v>45412</v>
+      </c>
+      <c r="B140" s="2">
+        <v>0.96940972222222221</v>
+      </c>
+      <c r="C140">
+        <v>697</v>
+      </c>
+      <c r="D140" t="s">
+        <v>0</v>
+      </c>
+      <c r="E140" t="s">
+        <v>1</v>
+      </c>
+      <c r="F140" t="s">
+        <v>0</v>
+      </c>
+      <c r="G140" t="s">
+        <v>2</v>
+      </c>
+      <c r="H140" t="s">
+        <v>3</v>
+      </c>
+      <c r="I140" t="s">
+        <v>4</v>
+      </c>
+      <c r="J140" t="s">
+        <v>5</v>
+      </c>
+      <c r="K140" t="s">
+        <v>6</v>
+      </c>
+      <c r="L140" t="s">
+        <v>7</v>
+      </c>
+      <c r="M140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A141" s="1">
+        <v>45412</v>
+      </c>
+      <c r="B141" s="2">
+        <v>0.96940972222222221</v>
+      </c>
+      <c r="C141">
+        <v>699</v>
+      </c>
+      <c r="D141" t="s">
+        <v>0</v>
+      </c>
+      <c r="E141" t="s">
+        <v>1</v>
+      </c>
+      <c r="F141" t="s">
+        <v>0</v>
+      </c>
+      <c r="G141" t="s">
+        <v>2</v>
+      </c>
+      <c r="H141" t="s">
+        <v>3</v>
+      </c>
+      <c r="I141" t="s">
+        <v>4</v>
+      </c>
+      <c r="J141" t="s">
+        <v>5</v>
+      </c>
+      <c r="K141" t="s">
+        <v>8</v>
+      </c>
+      <c r="L141" t="s">
+        <v>7</v>
+      </c>
+      <c r="M141">
+        <v>-4.1799999999999997E-3</v>
+      </c>
+    </row>
+    <row r="142" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A142" s="1">
+        <v>45412</v>
+      </c>
+      <c r="B142" s="2">
+        <v>0.96942129629629625</v>
+      </c>
+      <c r="C142">
+        <v>706</v>
+      </c>
+      <c r="D142" t="s">
+        <v>0</v>
+      </c>
+      <c r="E142" t="s">
+        <v>1</v>
+      </c>
+      <c r="F142" t="s">
+        <v>0</v>
+      </c>
+      <c r="G142" t="s">
+        <v>2</v>
+      </c>
+      <c r="H142" t="s">
+        <v>3</v>
+      </c>
+      <c r="I142" t="s">
+        <v>4</v>
+      </c>
+      <c r="J142" t="s">
+        <v>5</v>
+      </c>
+      <c r="K142" t="s">
+        <v>6</v>
+      </c>
+      <c r="L142" t="s">
+        <v>7</v>
+      </c>
+      <c r="M142">
+        <v>-4.1799999999999997E-3</v>
+      </c>
+    </row>
+    <row r="143" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A143" s="1">
+        <v>45412</v>
+      </c>
+      <c r="B143" s="2">
+        <v>0.96942129629629625</v>
+      </c>
+      <c r="C143">
+        <v>709</v>
+      </c>
+      <c r="D143" t="s">
+        <v>0</v>
+      </c>
+      <c r="E143" t="s">
+        <v>1</v>
+      </c>
+      <c r="F143" t="s">
+        <v>0</v>
+      </c>
+      <c r="G143" t="s">
+        <v>2</v>
+      </c>
+      <c r="H143" t="s">
+        <v>3</v>
+      </c>
+      <c r="I143" t="s">
+        <v>4</v>
+      </c>
+      <c r="J143" t="s">
+        <v>5</v>
+      </c>
+      <c r="K143" t="s">
+        <v>8</v>
+      </c>
+      <c r="L143" t="s">
+        <v>7</v>
+      </c>
+      <c r="M143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A144" s="1">
+        <v>45412</v>
+      </c>
+      <c r="B144" s="2">
+        <v>0.96942129629629625</v>
+      </c>
+      <c r="C144">
+        <v>712</v>
+      </c>
+      <c r="D144" t="s">
+        <v>0</v>
+      </c>
+      <c r="E144" t="s">
+        <v>1</v>
+      </c>
+      <c r="F144" t="s">
+        <v>0</v>
+      </c>
+      <c r="G144" t="s">
+        <v>2</v>
+      </c>
+      <c r="H144" t="s">
+        <v>3</v>
+      </c>
+      <c r="I144" t="s">
+        <v>4</v>
+      </c>
+      <c r="J144" t="s">
+        <v>5</v>
+      </c>
+      <c r="K144" t="s">
+        <v>6</v>
+      </c>
+      <c r="L144" t="s">
+        <v>7</v>
+      </c>
+      <c r="M144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A145" s="1">
+        <v>45412</v>
+      </c>
+      <c r="B145" s="2">
+        <v>0.96942129629629625</v>
+      </c>
+      <c r="C145">
+        <v>715</v>
+      </c>
+      <c r="D145" t="s">
+        <v>0</v>
+      </c>
+      <c r="E145" t="s">
+        <v>1</v>
+      </c>
+      <c r="F145" t="s">
+        <v>0</v>
+      </c>
+      <c r="G145" t="s">
+        <v>2</v>
+      </c>
+      <c r="H145" t="s">
+        <v>3</v>
+      </c>
+      <c r="I145" t="s">
+        <v>4</v>
+      </c>
+      <c r="J145" t="s">
+        <v>5</v>
+      </c>
+      <c r="K145" t="s">
+        <v>8</v>
+      </c>
+      <c r="L145" t="s">
+        <v>7</v>
+      </c>
+      <c r="M145">
+        <v>-3.3400000000000001E-3</v>
+      </c>
+    </row>
+    <row r="146" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A146" s="1">
+        <v>45412</v>
+      </c>
+      <c r="B146" s="2">
+        <v>0.96944444444444444</v>
+      </c>
+      <c r="C146">
+        <v>728</v>
+      </c>
+      <c r="D146" t="s">
+        <v>0</v>
+      </c>
+      <c r="E146" t="s">
+        <v>1</v>
+      </c>
+      <c r="F146" t="s">
+        <v>0</v>
+      </c>
+      <c r="G146" t="s">
+        <v>2</v>
+      </c>
+      <c r="H146" t="s">
+        <v>3</v>
+      </c>
+      <c r="I146" t="s">
+        <v>4</v>
+      </c>
+      <c r="J146" t="s">
+        <v>5</v>
+      </c>
+      <c r="K146" t="s">
+        <v>6</v>
+      </c>
+      <c r="L146" t="s">
+        <v>7</v>
+      </c>
+      <c r="M146">
+        <v>-3.3400000000000001E-3</v>
+      </c>
+    </row>
+    <row r="147" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A147" s="1">
+        <v>45412</v>
+      </c>
+      <c r="B147" s="2">
+        <v>0.96944444444444444</v>
+      </c>
+      <c r="C147">
+        <v>730</v>
+      </c>
+      <c r="D147" t="s">
+        <v>0</v>
+      </c>
+      <c r="E147" t="s">
+        <v>1</v>
+      </c>
+      <c r="F147" t="s">
+        <v>0</v>
+      </c>
+      <c r="G147" t="s">
+        <v>2</v>
+      </c>
+      <c r="H147" t="s">
+        <v>3</v>
+      </c>
+      <c r="I147" t="s">
+        <v>4</v>
+      </c>
+      <c r="J147" t="s">
+        <v>5</v>
+      </c>
+      <c r="K147" t="s">
+        <v>8</v>
+      </c>
+      <c r="L147" t="s">
+        <v>7</v>
+      </c>
+      <c r="M147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A148" s="1">
+        <v>45412</v>
+      </c>
+      <c r="B148" s="2">
+        <v>0.96944444444444444</v>
+      </c>
+      <c r="C148">
+        <v>733</v>
+      </c>
+      <c r="D148" t="s">
+        <v>0</v>
+      </c>
+      <c r="E148" t="s">
+        <v>1</v>
+      </c>
+      <c r="F148" t="s">
+        <v>0</v>
+      </c>
+      <c r="G148" t="s">
+        <v>2</v>
+      </c>
+      <c r="H148" t="s">
+        <v>3</v>
+      </c>
+      <c r="I148" t="s">
+        <v>4</v>
+      </c>
+      <c r="J148" t="s">
+        <v>5</v>
+      </c>
+      <c r="K148" t="s">
+        <v>6</v>
+      </c>
+      <c r="L148" t="s">
+        <v>7</v>
+      </c>
+      <c r="M148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A149" s="1">
+        <v>45412</v>
+      </c>
+      <c r="B149" s="2">
+        <v>0.96944444444444444</v>
+      </c>
+      <c r="C149">
+        <v>737</v>
+      </c>
+      <c r="D149" t="s">
+        <v>0</v>
+      </c>
+      <c r="E149" t="s">
+        <v>1</v>
+      </c>
+      <c r="F149" t="s">
+        <v>0</v>
+      </c>
+      <c r="G149" t="s">
+        <v>2</v>
+      </c>
+      <c r="H149" t="s">
+        <v>3</v>
+      </c>
+      <c r="I149" t="s">
+        <v>4</v>
+      </c>
+      <c r="J149" t="s">
+        <v>5</v>
+      </c>
+      <c r="K149" t="s">
+        <v>8</v>
+      </c>
+      <c r="L149" t="s">
+        <v>7</v>
+      </c>
+      <c r="M149">
+        <v>-2.5000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="150" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A150" s="1">
+        <v>45412</v>
+      </c>
+      <c r="B150" s="2">
+        <v>0.96945601851851848</v>
+      </c>
+      <c r="C150">
+        <v>744</v>
+      </c>
+      <c r="D150" t="s">
+        <v>0</v>
+      </c>
+      <c r="E150" t="s">
+        <v>1</v>
+      </c>
+      <c r="F150" t="s">
+        <v>0</v>
+      </c>
+      <c r="G150" t="s">
+        <v>2</v>
+      </c>
+      <c r="H150" t="s">
+        <v>3</v>
+      </c>
+      <c r="I150" t="s">
+        <v>4</v>
+      </c>
+      <c r="J150" t="s">
+        <v>5</v>
+      </c>
+      <c r="K150" t="s">
+        <v>6</v>
+      </c>
+      <c r="L150" t="s">
+        <v>7</v>
+      </c>
+      <c r="M150">
+        <v>-2.5000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="151" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A151" s="1">
+        <v>45412</v>
+      </c>
+      <c r="B151" s="2">
+        <v>0.96945601851851848</v>
+      </c>
+      <c r="C151">
+        <v>747</v>
+      </c>
+      <c r="D151" t="s">
+        <v>0</v>
+      </c>
+      <c r="E151" t="s">
+        <v>1</v>
+      </c>
+      <c r="F151" t="s">
+        <v>0</v>
+      </c>
+      <c r="G151" t="s">
+        <v>2</v>
+      </c>
+      <c r="H151" t="s">
+        <v>3</v>
+      </c>
+      <c r="I151" t="s">
+        <v>4</v>
+      </c>
+      <c r="J151" t="s">
+        <v>5</v>
+      </c>
+      <c r="K151" t="s">
+        <v>8</v>
+      </c>
+      <c r="L151" t="s">
+        <v>7</v>
+      </c>
+      <c r="M151">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A152" s="1">
+        <v>45412</v>
+      </c>
+      <c r="B152" s="2">
+        <v>0.96945601851851848</v>
+      </c>
+      <c r="C152">
+        <v>750</v>
+      </c>
+      <c r="D152" t="s">
+        <v>0</v>
+      </c>
+      <c r="E152" t="s">
+        <v>1</v>
+      </c>
+      <c r="F152" t="s">
+        <v>0</v>
+      </c>
+      <c r="G152" t="s">
+        <v>2</v>
+      </c>
+      <c r="H152" t="s">
+        <v>3</v>
+      </c>
+      <c r="I152" t="s">
+        <v>4</v>
+      </c>
+      <c r="J152" t="s">
+        <v>5</v>
+      </c>
+      <c r="K152" t="s">
+        <v>6</v>
+      </c>
+      <c r="L152" t="s">
+        <v>7</v>
+      </c>
+      <c r="M152">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A153" s="1">
+        <v>45412</v>
+      </c>
+      <c r="B153" s="2">
+        <v>0.96945601851851848</v>
+      </c>
+      <c r="C153">
+        <v>752</v>
+      </c>
+      <c r="D153" t="s">
+        <v>0</v>
+      </c>
+      <c r="E153" t="s">
+        <v>1</v>
+      </c>
+      <c r="F153" t="s">
+        <v>0</v>
+      </c>
+      <c r="G153" t="s">
+        <v>2</v>
+      </c>
+      <c r="H153" t="s">
+        <v>3</v>
+      </c>
+      <c r="I153" t="s">
+        <v>4</v>
+      </c>
+      <c r="J153" t="s">
+        <v>5</v>
+      </c>
+      <c r="K153" t="s">
+        <v>8</v>
+      </c>
+      <c r="L153" t="s">
+        <v>7</v>
+      </c>
+      <c r="M153">
+        <v>-1.67E-3</v>
+      </c>
+    </row>
+    <row r="154" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A154" s="1">
+        <v>45412</v>
+      </c>
+      <c r="B154" s="2">
+        <v>0.96947916666666667</v>
+      </c>
+      <c r="C154">
+        <v>762</v>
+      </c>
+      <c r="D154" t="s">
+        <v>0</v>
+      </c>
+      <c r="E154" t="s">
+        <v>1</v>
+      </c>
+      <c r="F154" t="s">
+        <v>0</v>
+      </c>
+      <c r="G154" t="s">
+        <v>2</v>
+      </c>
+      <c r="H154" t="s">
+        <v>3</v>
+      </c>
+      <c r="I154" t="s">
+        <v>4</v>
+      </c>
+      <c r="J154" t="s">
+        <v>5</v>
+      </c>
+      <c r="K154" t="s">
+        <v>6</v>
+      </c>
+      <c r="L154" t="s">
+        <v>7</v>
+      </c>
+      <c r="M154">
+        <v>-1.67E-3</v>
+      </c>
+    </row>
+    <row r="155" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A155" s="1">
+        <v>45412</v>
+      </c>
+      <c r="B155" s="2">
+        <v>0.96947916666666667</v>
+      </c>
+      <c r="C155">
+        <v>764</v>
+      </c>
+      <c r="D155" t="s">
+        <v>0</v>
+      </c>
+      <c r="E155" t="s">
+        <v>1</v>
+      </c>
+      <c r="F155" t="s">
+        <v>0</v>
+      </c>
+      <c r="G155" t="s">
+        <v>2</v>
+      </c>
+      <c r="H155" t="s">
+        <v>3</v>
+      </c>
+      <c r="I155" t="s">
+        <v>4</v>
+      </c>
+      <c r="J155" t="s">
+        <v>5</v>
+      </c>
+      <c r="K155" t="s">
+        <v>8</v>
+      </c>
+      <c r="L155" t="s">
+        <v>7</v>
+      </c>
+      <c r="M155">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A156" s="1">
+        <v>45412</v>
+      </c>
+      <c r="B156" s="2">
+        <v>0.96947916666666667</v>
+      </c>
+      <c r="C156">
+        <v>768</v>
+      </c>
+      <c r="D156" t="s">
+        <v>0</v>
+      </c>
+      <c r="E156" t="s">
+        <v>1</v>
+      </c>
+      <c r="F156" t="s">
+        <v>0</v>
+      </c>
+      <c r="G156" t="s">
+        <v>2</v>
+      </c>
+      <c r="H156" t="s">
+        <v>3</v>
+      </c>
+      <c r="I156" t="s">
+        <v>4</v>
+      </c>
+      <c r="J156" t="s">
+        <v>5</v>
+      </c>
+      <c r="K156" t="s">
+        <v>6</v>
+      </c>
+      <c r="L156" t="s">
+        <v>7</v>
+      </c>
+      <c r="M156">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A157" s="1">
+        <v>45412</v>
+      </c>
+      <c r="B157" s="2">
+        <v>0.96947916666666667</v>
+      </c>
+      <c r="C157">
+        <v>771</v>
+      </c>
+      <c r="D157" t="s">
+        <v>0</v>
+      </c>
+      <c r="E157" t="s">
+        <v>1</v>
+      </c>
+      <c r="F157" t="s">
+        <v>0</v>
+      </c>
+      <c r="G157" t="s">
+        <v>2</v>
+      </c>
+      <c r="H157" t="s">
+        <v>3</v>
+      </c>
+      <c r="I157" t="s">
+        <v>4</v>
+      </c>
+      <c r="J157" t="s">
+        <v>5</v>
+      </c>
+      <c r="K157" t="s">
+        <v>8</v>
+      </c>
+      <c r="L157" t="s">
+        <v>7</v>
+      </c>
+      <c r="M157">
+        <v>-8.3000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="158" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A158" s="1">
+        <v>45412</v>
+      </c>
+      <c r="B158" s="2">
+        <v>0.96949074074074071</v>
+      </c>
+      <c r="C158">
+        <v>777</v>
+      </c>
+      <c r="D158" t="s">
+        <v>0</v>
+      </c>
+      <c r="E158" t="s">
+        <v>1</v>
+      </c>
+      <c r="F158" t="s">
+        <v>0</v>
+      </c>
+      <c r="G158" t="s">
+        <v>2</v>
+      </c>
+      <c r="H158" t="s">
+        <v>3</v>
+      </c>
+      <c r="I158" t="s">
+        <v>4</v>
+      </c>
+      <c r="J158" t="s">
+        <v>5</v>
+      </c>
+      <c r="K158" t="s">
+        <v>6</v>
+      </c>
+      <c r="L158" t="s">
+        <v>7</v>
+      </c>
+      <c r="M158">
+        <v>-8.3000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="159" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A159" s="1">
+        <v>45412</v>
+      </c>
+      <c r="B159" s="2">
+        <v>0.96949074074074071</v>
+      </c>
+      <c r="C159">
+        <v>780</v>
+      </c>
+      <c r="D159" t="s">
+        <v>0</v>
+      </c>
+      <c r="E159" t="s">
+        <v>1</v>
+      </c>
+      <c r="F159" t="s">
+        <v>0</v>
+      </c>
+      <c r="G159" t="s">
+        <v>2</v>
+      </c>
+      <c r="H159" t="s">
+        <v>3</v>
+      </c>
+      <c r="I159" t="s">
+        <v>4</v>
+      </c>
+      <c r="J159" t="s">
+        <v>5</v>
+      </c>
+      <c r="K159" t="s">
+        <v>8</v>
+      </c>
+      <c r="L159" t="s">
+        <v>7</v>
+      </c>
+      <c r="M159">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A160" s="1">
+        <v>45412</v>
+      </c>
+      <c r="B160" s="2">
+        <v>0.96949074074074071</v>
+      </c>
+      <c r="C160">
+        <v>783</v>
+      </c>
+      <c r="D160" t="s">
+        <v>0</v>
+      </c>
+      <c r="E160" t="s">
+        <v>1</v>
+      </c>
+      <c r="F160" t="s">
+        <v>0</v>
+      </c>
+      <c r="G160" t="s">
+        <v>2</v>
+      </c>
+      <c r="H160" t="s">
+        <v>3</v>
+      </c>
+      <c r="I160" t="s">
+        <v>4</v>
+      </c>
+      <c r="J160" t="s">
+        <v>5</v>
+      </c>
+      <c r="K160" t="s">
+        <v>6</v>
+      </c>
+      <c r="L160" t="s">
+        <v>7</v>
+      </c>
+      <c r="M160">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A161" s="1">
+        <v>45412</v>
+      </c>
+      <c r="B161" s="2">
+        <v>0.96949074074074071</v>
+      </c>
+      <c r="C161">
+        <v>786</v>
+      </c>
+      <c r="D161" t="s">
+        <v>0</v>
+      </c>
+      <c r="E161" t="s">
+        <v>1</v>
+      </c>
+      <c r="F161" t="s">
+        <v>0</v>
+      </c>
+      <c r="G161" t="s">
+        <v>2</v>
+      </c>
+      <c r="H161" t="s">
+        <v>3</v>
+      </c>
+      <c r="I161" t="s">
+        <v>4</v>
+      </c>
+      <c r="J161" t="s">
+        <v>5</v>
+      </c>
+      <c r="K161" t="s">
+        <v>8</v>
+      </c>
+      <c r="L161" t="s">
+        <v>7</v>
+      </c>
+      <c r="M161">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A162" s="1">
+        <v>45412</v>
+      </c>
+      <c r="B162" s="2">
+        <v>0.9695138888888889</v>
+      </c>
+      <c r="C162">
+        <v>794</v>
+      </c>
+      <c r="D162" t="s">
+        <v>0</v>
+      </c>
+      <c r="E162" t="s">
+        <v>1</v>
+      </c>
+      <c r="F162" t="s">
+        <v>0</v>
+      </c>
+      <c r="G162" t="s">
+        <v>2</v>
+      </c>
+      <c r="H162" t="s">
+        <v>3</v>
+      </c>
+      <c r="I162" t="s">
+        <v>4</v>
+      </c>
+      <c r="J162" t="s">
+        <v>5</v>
+      </c>
+      <c r="K162" t="s">
+        <v>6</v>
+      </c>
+      <c r="L162" t="s">
+        <v>7</v>
+      </c>
+      <c r="M162">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A163" s="1">
+        <v>45412</v>
+      </c>
+      <c r="B163" s="2">
+        <v>0.9695138888888889</v>
+      </c>
+      <c r="C163">
+        <v>797</v>
+      </c>
+      <c r="D163" t="s">
+        <v>0</v>
+      </c>
+      <c r="E163" t="s">
+        <v>1</v>
+      </c>
+      <c r="F163" t="s">
+        <v>0</v>
+      </c>
+      <c r="G163" t="s">
+        <v>2</v>
+      </c>
+      <c r="H163" t="s">
+        <v>3</v>
+      </c>
+      <c r="I163" t="s">
+        <v>4</v>
+      </c>
+      <c r="J163" t="s">
+        <v>5</v>
+      </c>
+      <c r="K163" t="s">
+        <v>8</v>
+      </c>
+      <c r="L163" t="s">
+        <v>7</v>
+      </c>
+      <c r="M163">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A164" s="1">
+        <v>45412</v>
+      </c>
+      <c r="B164" s="2">
+        <v>0.9695138888888889</v>
+      </c>
+      <c r="C164">
+        <v>800</v>
+      </c>
+      <c r="D164" t="s">
+        <v>0</v>
+      </c>
+      <c r="E164" t="s">
+        <v>1</v>
+      </c>
+      <c r="F164" t="s">
+        <v>0</v>
+      </c>
+      <c r="G164" t="s">
+        <v>2</v>
+      </c>
+      <c r="H164" t="s">
+        <v>3</v>
+      </c>
+      <c r="I164" t="s">
+        <v>4</v>
+      </c>
+      <c r="J164" t="s">
+        <v>5</v>
+      </c>
+      <c r="K164" t="s">
+        <v>6</v>
+      </c>
+      <c r="L164" t="s">
+        <v>7</v>
+      </c>
+      <c r="M164">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A165" s="1">
+        <v>45412</v>
+      </c>
+      <c r="B165" s="2">
+        <v>0.9695138888888889</v>
+      </c>
+      <c r="C165">
+        <v>803</v>
+      </c>
+      <c r="D165" t="s">
+        <v>0</v>
+      </c>
+      <c r="E165" t="s">
+        <v>1</v>
+      </c>
+      <c r="F165" t="s">
+        <v>0</v>
+      </c>
+      <c r="G165" t="s">
+        <v>2</v>
+      </c>
+      <c r="H165" t="s">
+        <v>3</v>
+      </c>
+      <c r="I165" t="s">
+        <v>4</v>
+      </c>
+      <c r="J165" t="s">
+        <v>5</v>
+      </c>
+      <c r="K165" t="s">
+        <v>8</v>
+      </c>
+      <c r="L165" t="s">
+        <v>7</v>
+      </c>
+      <c r="M165">
+        <v>8.3000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="166" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A166" s="1">
+        <v>45412</v>
+      </c>
+      <c r="B166" s="2">
+        <v>0.96952546296296294</v>
+      </c>
+      <c r="C166">
+        <v>811</v>
+      </c>
+      <c r="D166" t="s">
+        <v>0</v>
+      </c>
+      <c r="E166" t="s">
+        <v>1</v>
+      </c>
+      <c r="F166" t="s">
+        <v>0</v>
+      </c>
+      <c r="G166" t="s">
+        <v>2</v>
+      </c>
+      <c r="H166" t="s">
+        <v>3</v>
+      </c>
+      <c r="I166" t="s">
+        <v>4</v>
+      </c>
+      <c r="J166" t="s">
+        <v>5</v>
+      </c>
+      <c r="K166" t="s">
+        <v>6</v>
+      </c>
+      <c r="L166" t="s">
+        <v>7</v>
+      </c>
+      <c r="M166">
+        <v>8.3000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="167" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A167" s="1">
+        <v>45412</v>
+      </c>
+      <c r="B167" s="2">
+        <v>0.96952546296296294</v>
+      </c>
+      <c r="C167">
+        <v>814</v>
+      </c>
+      <c r="D167" t="s">
+        <v>0</v>
+      </c>
+      <c r="E167" t="s">
+        <v>1</v>
+      </c>
+      <c r="F167" t="s">
+        <v>0</v>
+      </c>
+      <c r="G167" t="s">
+        <v>2</v>
+      </c>
+      <c r="H167" t="s">
+        <v>3</v>
+      </c>
+      <c r="I167" t="s">
+        <v>4</v>
+      </c>
+      <c r="J167" t="s">
+        <v>5</v>
+      </c>
+      <c r="K167" t="s">
+        <v>8</v>
+      </c>
+      <c r="L167" t="s">
+        <v>7</v>
+      </c>
+      <c r="M167">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A168" s="1">
+        <v>45412</v>
+      </c>
+      <c r="B168" s="2">
+        <v>0.96952546296296294</v>
+      </c>
+      <c r="C168">
+        <v>817</v>
+      </c>
+      <c r="D168" t="s">
+        <v>0</v>
+      </c>
+      <c r="E168" t="s">
+        <v>1</v>
+      </c>
+      <c r="F168" t="s">
+        <v>0</v>
+      </c>
+      <c r="G168" t="s">
+        <v>2</v>
+      </c>
+      <c r="H168" t="s">
+        <v>3</v>
+      </c>
+      <c r="I168" t="s">
+        <v>4</v>
+      </c>
+      <c r="J168" t="s">
+        <v>5</v>
+      </c>
+      <c r="K168" t="s">
+        <v>6</v>
+      </c>
+      <c r="L168" t="s">
+        <v>7</v>
+      </c>
+      <c r="M168">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A169" s="1">
+        <v>45412</v>
+      </c>
+      <c r="B169" s="2">
+        <v>0.96952546296296294</v>
+      </c>
+      <c r="C169">
+        <v>820</v>
+      </c>
+      <c r="D169" t="s">
+        <v>0</v>
+      </c>
+      <c r="E169" t="s">
+        <v>1</v>
+      </c>
+      <c r="F169" t="s">
+        <v>0</v>
+      </c>
+      <c r="G169" t="s">
+        <v>2</v>
+      </c>
+      <c r="H169" t="s">
+        <v>3</v>
+      </c>
+      <c r="I169" t="s">
+        <v>4</v>
+      </c>
+      <c r="J169" t="s">
+        <v>5</v>
+      </c>
+      <c r="K169" t="s">
+        <v>8</v>
+      </c>
+      <c r="L169" t="s">
+        <v>7</v>
+      </c>
+      <c r="M169">
+        <v>1.67E-3</v>
+      </c>
+    </row>
+    <row r="170" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A170" s="1">
+        <v>45412</v>
+      </c>
+      <c r="B170" s="2">
+        <v>0.96954861111111112</v>
+      </c>
+      <c r="C170">
+        <v>829</v>
+      </c>
+      <c r="D170" t="s">
+        <v>0</v>
+      </c>
+      <c r="E170" t="s">
+        <v>1</v>
+      </c>
+      <c r="F170" t="s">
+        <v>0</v>
+      </c>
+      <c r="G170" t="s">
+        <v>2</v>
+      </c>
+      <c r="H170" t="s">
+        <v>3</v>
+      </c>
+      <c r="I170" t="s">
+        <v>4</v>
+      </c>
+      <c r="J170" t="s">
+        <v>5</v>
+      </c>
+      <c r="K170" t="s">
+        <v>6</v>
+      </c>
+      <c r="L170" t="s">
+        <v>7</v>
+      </c>
+      <c r="M170">
+        <v>1.67E-3</v>
+      </c>
+    </row>
+    <row r="171" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A171" s="1">
+        <v>45412</v>
+      </c>
+      <c r="B171" s="2">
+        <v>0.96954861111111112</v>
+      </c>
+      <c r="C171">
+        <v>832</v>
+      </c>
+      <c r="D171" t="s">
+        <v>0</v>
+      </c>
+      <c r="E171" t="s">
+        <v>1</v>
+      </c>
+      <c r="F171" t="s">
+        <v>0</v>
+      </c>
+      <c r="G171" t="s">
+        <v>2</v>
+      </c>
+      <c r="H171" t="s">
+        <v>3</v>
+      </c>
+      <c r="I171" t="s">
+        <v>4</v>
+      </c>
+      <c r="J171" t="s">
+        <v>5</v>
+      </c>
+      <c r="K171" t="s">
+        <v>8</v>
+      </c>
+      <c r="L171" t="s">
+        <v>7</v>
+      </c>
+      <c r="M171">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A172" s="1">
+        <v>45412</v>
+      </c>
+      <c r="B172" s="2">
+        <v>0.96954861111111112</v>
+      </c>
+      <c r="C172">
+        <v>837</v>
+      </c>
+      <c r="D172" t="s">
+        <v>0</v>
+      </c>
+      <c r="E172" t="s">
+        <v>1</v>
+      </c>
+      <c r="F172" t="s">
+        <v>0</v>
+      </c>
+      <c r="G172" t="s">
+        <v>2</v>
+      </c>
+      <c r="H172" t="s">
+        <v>3</v>
+      </c>
+      <c r="I172" t="s">
+        <v>4</v>
+      </c>
+      <c r="J172" t="s">
+        <v>5</v>
+      </c>
+      <c r="K172" t="s">
+        <v>6</v>
+      </c>
+      <c r="L172" t="s">
+        <v>7</v>
+      </c>
+      <c r="M172">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A173" s="1">
+        <v>45412</v>
+      </c>
+      <c r="B173" s="2">
+        <v>0.96954861111111112</v>
+      </c>
+      <c r="C173">
+        <v>841</v>
+      </c>
+      <c r="D173" t="s">
+        <v>0</v>
+      </c>
+      <c r="E173" t="s">
+        <v>1</v>
+      </c>
+      <c r="F173" t="s">
+        <v>0</v>
+      </c>
+      <c r="G173" t="s">
+        <v>2</v>
+      </c>
+      <c r="H173" t="s">
+        <v>3</v>
+      </c>
+      <c r="I173" t="s">
+        <v>4</v>
+      </c>
+      <c r="J173" t="s">
+        <v>5</v>
+      </c>
+      <c r="K173" t="s">
+        <v>8</v>
+      </c>
+      <c r="L173" t="s">
+        <v>7</v>
+      </c>
+      <c r="M173">
+        <v>2.5000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="174" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A174" s="1">
+        <v>45412</v>
+      </c>
+      <c r="B174" s="2">
+        <v>0.96956018518518516</v>
+      </c>
+      <c r="C174">
+        <v>850</v>
+      </c>
+      <c r="D174" t="s">
+        <v>0</v>
+      </c>
+      <c r="E174" t="s">
+        <v>1</v>
+      </c>
+      <c r="F174" t="s">
+        <v>0</v>
+      </c>
+      <c r="G174" t="s">
+        <v>2</v>
+      </c>
+      <c r="H174" t="s">
+        <v>3</v>
+      </c>
+      <c r="I174" t="s">
+        <v>4</v>
+      </c>
+      <c r="J174" t="s">
+        <v>5</v>
+      </c>
+      <c r="K174" t="s">
+        <v>6</v>
+      </c>
+      <c r="L174" t="s">
+        <v>7</v>
+      </c>
+      <c r="M174">
+        <v>2.5000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="175" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A175" s="1">
+        <v>45412</v>
+      </c>
+      <c r="B175" s="2">
+        <v>0.96956018518518516</v>
+      </c>
+      <c r="C175">
+        <v>852</v>
+      </c>
+      <c r="D175" t="s">
+        <v>0</v>
+      </c>
+      <c r="E175" t="s">
+        <v>1</v>
+      </c>
+      <c r="F175" t="s">
+        <v>0</v>
+      </c>
+      <c r="G175" t="s">
+        <v>2</v>
+      </c>
+      <c r="H175" t="s">
+        <v>3</v>
+      </c>
+      <c r="I175" t="s">
+        <v>4</v>
+      </c>
+      <c r="J175" t="s">
+        <v>5</v>
+      </c>
+      <c r="K175" t="s">
+        <v>8</v>
+      </c>
+      <c r="L175" t="s">
+        <v>7</v>
+      </c>
+      <c r="M175">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A176" s="1">
+        <v>45412</v>
+      </c>
+      <c r="B176" s="2">
+        <v>0.96956018518518516</v>
+      </c>
+      <c r="C176">
+        <v>856</v>
+      </c>
+      <c r="D176" t="s">
+        <v>0</v>
+      </c>
+      <c r="E176" t="s">
+        <v>1</v>
+      </c>
+      <c r="F176" t="s">
+        <v>0</v>
+      </c>
+      <c r="G176" t="s">
+        <v>2</v>
+      </c>
+      <c r="H176" t="s">
+        <v>3</v>
+      </c>
+      <c r="I176" t="s">
+        <v>4</v>
+      </c>
+      <c r="J176" t="s">
+        <v>5</v>
+      </c>
+      <c r="K176" t="s">
+        <v>6</v>
+      </c>
+      <c r="L176" t="s">
+        <v>7</v>
+      </c>
+      <c r="M176">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A177" s="1">
+        <v>45412</v>
+      </c>
+      <c r="B177" s="2">
+        <v>0.96956018518518516</v>
+      </c>
+      <c r="C177">
+        <v>859</v>
+      </c>
+      <c r="D177" t="s">
+        <v>0</v>
+      </c>
+      <c r="E177" t="s">
+        <v>1</v>
+      </c>
+      <c r="F177" t="s">
+        <v>0</v>
+      </c>
+      <c r="G177" t="s">
+        <v>2</v>
+      </c>
+      <c r="H177" t="s">
+        <v>3</v>
+      </c>
+      <c r="I177" t="s">
+        <v>4</v>
+      </c>
+      <c r="J177" t="s">
+        <v>5</v>
+      </c>
+      <c r="K177" t="s">
+        <v>8</v>
+      </c>
+      <c r="L177" t="s">
+        <v>7</v>
+      </c>
+      <c r="M177">
+        <v>3.3300000000000001E-3</v>
+      </c>
+    </row>
+    <row r="178" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A178" s="1">
+        <v>45412</v>
+      </c>
+      <c r="B178" s="2">
+        <v>0.96958333333333335</v>
+      </c>
+      <c r="C178">
+        <v>869</v>
+      </c>
+      <c r="D178" t="s">
+        <v>0</v>
+      </c>
+      <c r="E178" t="s">
+        <v>1</v>
+      </c>
+      <c r="F178" t="s">
+        <v>0</v>
+      </c>
+      <c r="G178" t="s">
+        <v>2</v>
+      </c>
+      <c r="H178" t="s">
+        <v>3</v>
+      </c>
+      <c r="I178" t="s">
+        <v>4</v>
+      </c>
+      <c r="J178" t="s">
+        <v>5</v>
+      </c>
+      <c r="K178" t="s">
+        <v>6</v>
+      </c>
+      <c r="L178" t="s">
+        <v>7</v>
+      </c>
+      <c r="M178">
+        <v>3.3300000000000001E-3</v>
+      </c>
+    </row>
+    <row r="179" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A179" s="1">
+        <v>45412</v>
+      </c>
+      <c r="B179" s="2">
+        <v>0.96958333333333335</v>
+      </c>
+      <c r="C179">
+        <v>872</v>
+      </c>
+      <c r="D179" t="s">
+        <v>0</v>
+      </c>
+      <c r="E179" t="s">
+        <v>1</v>
+      </c>
+      <c r="F179" t="s">
+        <v>0</v>
+      </c>
+      <c r="G179" t="s">
+        <v>2</v>
+      </c>
+      <c r="H179" t="s">
+        <v>3</v>
+      </c>
+      <c r="I179" t="s">
+        <v>4</v>
+      </c>
+      <c r="J179" t="s">
+        <v>5</v>
+      </c>
+      <c r="K179" t="s">
+        <v>8</v>
+      </c>
+      <c r="L179" t="s">
+        <v>7</v>
+      </c>
+      <c r="M179">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A180" s="1">
+        <v>45412</v>
+      </c>
+      <c r="B180" s="2">
+        <v>0.96958333333333335</v>
+      </c>
+      <c r="C180">
+        <v>876</v>
+      </c>
+      <c r="D180" t="s">
+        <v>0</v>
+      </c>
+      <c r="E180" t="s">
+        <v>1</v>
+      </c>
+      <c r="F180" t="s">
+        <v>0</v>
+      </c>
+      <c r="G180" t="s">
+        <v>2</v>
+      </c>
+      <c r="H180" t="s">
+        <v>3</v>
+      </c>
+      <c r="I180" t="s">
+        <v>4</v>
+      </c>
+      <c r="J180" t="s">
+        <v>5</v>
+      </c>
+      <c r="K180" t="s">
+        <v>6</v>
+      </c>
+      <c r="L180" t="s">
+        <v>7</v>
+      </c>
+      <c r="M180">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A181" s="1">
+        <v>45412</v>
+      </c>
+      <c r="B181" s="2">
+        <v>0.96958333333333335</v>
+      </c>
+      <c r="C181">
+        <v>881</v>
+      </c>
+      <c r="D181" t="s">
+        <v>0</v>
+      </c>
+      <c r="E181" t="s">
+        <v>1</v>
+      </c>
+      <c r="F181" t="s">
+        <v>0</v>
+      </c>
+      <c r="G181" t="s">
+        <v>2</v>
+      </c>
+      <c r="H181" t="s">
+        <v>3</v>
+      </c>
+      <c r="I181" t="s">
+        <v>4</v>
+      </c>
+      <c r="J181" t="s">
+        <v>5</v>
+      </c>
+      <c r="K181" t="s">
+        <v>8</v>
+      </c>
+      <c r="L181" t="s">
+        <v>7</v>
+      </c>
+      <c r="M181">
+        <v>4.1599999999999996E-3</v>
+      </c>
+    </row>
+    <row r="182" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A182" s="1">
+        <v>45412</v>
+      </c>
+      <c r="B182" s="2">
+        <v>0.96959490740740739</v>
+      </c>
+      <c r="C182">
+        <v>888</v>
+      </c>
+      <c r="D182" t="s">
+        <v>0</v>
+      </c>
+      <c r="E182" t="s">
+        <v>1</v>
+      </c>
+      <c r="F182" t="s">
+        <v>0</v>
+      </c>
+      <c r="G182" t="s">
+        <v>2</v>
+      </c>
+      <c r="H182" t="s">
+        <v>3</v>
+      </c>
+      <c r="I182" t="s">
+        <v>4</v>
+      </c>
+      <c r="J182" t="s">
+        <v>5</v>
+      </c>
+      <c r="K182" t="s">
+        <v>6</v>
+      </c>
+      <c r="L182" t="s">
+        <v>7</v>
+      </c>
+      <c r="M182">
+        <v>4.1599999999999996E-3</v>
+      </c>
+    </row>
+    <row r="183" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A183" s="1">
+        <v>45412</v>
+      </c>
+      <c r="B183" s="2">
+        <v>0.96959490740740739</v>
+      </c>
+      <c r="C183">
+        <v>892</v>
+      </c>
+      <c r="D183" t="s">
+        <v>0</v>
+      </c>
+      <c r="E183" t="s">
+        <v>1</v>
+      </c>
+      <c r="F183" t="s">
+        <v>0</v>
+      </c>
+      <c r="G183" t="s">
+        <v>2</v>
+      </c>
+      <c r="H183" t="s">
+        <v>3</v>
+      </c>
+      <c r="I183" t="s">
+        <v>4</v>
+      </c>
+      <c r="J183" t="s">
+        <v>5</v>
+      </c>
+      <c r="K183" t="s">
+        <v>8</v>
+      </c>
+      <c r="L183" t="s">
+        <v>7</v>
+      </c>
+      <c r="M183">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A184" s="1">
+        <v>45412</v>
+      </c>
+      <c r="B184" s="2">
+        <v>0.96959490740740739</v>
+      </c>
+      <c r="C184">
+        <v>896</v>
+      </c>
+      <c r="D184" t="s">
+        <v>0</v>
+      </c>
+      <c r="E184" t="s">
+        <v>1</v>
+      </c>
+      <c r="F184" t="s">
+        <v>0</v>
+      </c>
+      <c r="G184" t="s">
+        <v>2</v>
+      </c>
+      <c r="H184" t="s">
+        <v>3</v>
+      </c>
+      <c r="I184" t="s">
+        <v>4</v>
+      </c>
+      <c r="J184" t="s">
+        <v>5</v>
+      </c>
+      <c r="K184" t="s">
+        <v>6</v>
+      </c>
+      <c r="L184" t="s">
+        <v>7</v>
+      </c>
+      <c r="M184">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A185" s="1">
+        <v>45412</v>
+      </c>
+      <c r="B185" s="2">
+        <v>0.96959490740740739</v>
+      </c>
+      <c r="C185">
+        <v>899</v>
+      </c>
+      <c r="D185" t="s">
+        <v>0</v>
+      </c>
+      <c r="E185" t="s">
+        <v>1</v>
+      </c>
+      <c r="F185" t="s">
+        <v>0</v>
+      </c>
+      <c r="G185" t="s">
+        <v>2</v>
+      </c>
+      <c r="H185" t="s">
+        <v>3</v>
+      </c>
+      <c r="I185" t="s">
+        <v>4</v>
+      </c>
+      <c r="J185" t="s">
+        <v>5</v>
+      </c>
+      <c r="K185" t="s">
+        <v>8</v>
+      </c>
+      <c r="L185" t="s">
+        <v>7</v>
+      </c>
+      <c r="M185">
+        <v>4.9899999999999996E-3</v>
+      </c>
+    </row>
+    <row r="186" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A186" s="1">
+        <v>45412</v>
+      </c>
+      <c r="B186" s="2">
+        <v>0.96961805555555558</v>
+      </c>
+      <c r="C186">
+        <v>907</v>
+      </c>
+      <c r="D186" t="s">
+        <v>0</v>
+      </c>
+      <c r="E186" t="s">
+        <v>1</v>
+      </c>
+      <c r="F186" t="s">
+        <v>0</v>
+      </c>
+      <c r="G186" t="s">
+        <v>2</v>
+      </c>
+      <c r="H186" t="s">
+        <v>3</v>
+      </c>
+      <c r="I186" t="s">
+        <v>4</v>
+      </c>
+      <c r="J186" t="s">
+        <v>5</v>
+      </c>
+      <c r="K186" t="s">
+        <v>6</v>
+      </c>
+      <c r="L186" t="s">
+        <v>7</v>
+      </c>
+      <c r="M186">
+        <v>4.9899999999999996E-3</v>
+      </c>
+    </row>
+    <row r="187" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A187" s="1">
+        <v>45412</v>
+      </c>
+      <c r="B187" s="2">
+        <v>0.96961805555555558</v>
+      </c>
+      <c r="C187">
+        <v>910</v>
+      </c>
+      <c r="D187" t="s">
+        <v>0</v>
+      </c>
+      <c r="E187" t="s">
+        <v>1</v>
+      </c>
+      <c r="F187" t="s">
+        <v>0</v>
+      </c>
+      <c r="G187" t="s">
+        <v>2</v>
+      </c>
+      <c r="H187" t="s">
+        <v>3</v>
+      </c>
+      <c r="I187" t="s">
+        <v>4</v>
+      </c>
+      <c r="J187" t="s">
+        <v>5</v>
+      </c>
+      <c r="K187" t="s">
+        <v>8</v>
+      </c>
+      <c r="L187" t="s">
+        <v>7</v>
+      </c>
+      <c r="M187">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A188" s="1">
+        <v>45412</v>
+      </c>
+      <c r="B188" s="2">
+        <v>0.96961805555555558</v>
+      </c>
+      <c r="C188">
+        <v>913</v>
+      </c>
+      <c r="D188" t="s">
+        <v>0</v>
+      </c>
+      <c r="E188" t="s">
+        <v>1</v>
+      </c>
+      <c r="F188" t="s">
+        <v>0</v>
+      </c>
+      <c r="G188" t="s">
+        <v>2</v>
+      </c>
+      <c r="H188" t="s">
+        <v>3</v>
+      </c>
+      <c r="I188" t="s">
+        <v>4</v>
+      </c>
+      <c r="J188" t="s">
+        <v>5</v>
+      </c>
+      <c r="K188" t="s">
+        <v>6</v>
+      </c>
+      <c r="L188" t="s">
+        <v>7</v>
+      </c>
+      <c r="M188">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A189" s="1">
+        <v>45412</v>
+      </c>
+      <c r="B189" s="2">
+        <v>0.96961805555555558</v>
+      </c>
+      <c r="C189">
+        <v>916</v>
+      </c>
+      <c r="D189" t="s">
+        <v>0</v>
+      </c>
+      <c r="E189" t="s">
+        <v>1</v>
+      </c>
+      <c r="F189" t="s">
+        <v>0</v>
+      </c>
+      <c r="G189" t="s">
+        <v>2</v>
+      </c>
+      <c r="H189" t="s">
+        <v>3</v>
+      </c>
+      <c r="I189" t="s">
+        <v>4</v>
+      </c>
+      <c r="J189" t="s">
+        <v>5</v>
+      </c>
+      <c r="K189" t="s">
+        <v>8</v>
+      </c>
+      <c r="L189" t="s">
+        <v>7</v>
+      </c>
+      <c r="M189">
+        <v>5.8199999999999997E-3</v>
+      </c>
+    </row>
+    <row r="190" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A190" s="1">
+        <v>45412</v>
+      </c>
+      <c r="B190" s="2">
+        <v>0.96962962962962962</v>
+      </c>
+      <c r="C190">
+        <v>927</v>
+      </c>
+      <c r="D190" t="s">
+        <v>0</v>
+      </c>
+      <c r="E190" t="s">
+        <v>1</v>
+      </c>
+      <c r="F190" t="s">
+        <v>0</v>
+      </c>
+      <c r="G190" t="s">
+        <v>2</v>
+      </c>
+      <c r="H190" t="s">
+        <v>3</v>
+      </c>
+      <c r="I190" t="s">
+        <v>4</v>
+      </c>
+      <c r="J190" t="s">
+        <v>5</v>
+      </c>
+      <c r="K190" t="s">
+        <v>6</v>
+      </c>
+      <c r="L190" t="s">
+        <v>7</v>
+      </c>
+      <c r="M190">
+        <v>5.8199999999999997E-3</v>
+      </c>
+    </row>
+    <row r="191" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A191" s="1">
+        <v>45412</v>
+      </c>
+      <c r="B191" s="2">
+        <v>0.96962962962962962</v>
+      </c>
+      <c r="C191">
+        <v>929</v>
+      </c>
+      <c r="D191" t="s">
+        <v>0</v>
+      </c>
+      <c r="E191" t="s">
+        <v>1</v>
+      </c>
+      <c r="F191" t="s">
+        <v>0</v>
+      </c>
+      <c r="G191" t="s">
+        <v>2</v>
+      </c>
+      <c r="H191" t="s">
+        <v>3</v>
+      </c>
+      <c r="I191" t="s">
+        <v>4</v>
+      </c>
+      <c r="J191" t="s">
+        <v>5</v>
+      </c>
+      <c r="K191" t="s">
+        <v>8</v>
+      </c>
+      <c r="L191" t="s">
+        <v>7</v>
+      </c>
+      <c r="M191">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A192" s="1">
+        <v>45412</v>
+      </c>
+      <c r="B192" s="2">
+        <v>0.96962962962962962</v>
+      </c>
+      <c r="C192">
+        <v>933</v>
+      </c>
+      <c r="D192" t="s">
+        <v>0</v>
+      </c>
+      <c r="E192" t="s">
+        <v>1</v>
+      </c>
+      <c r="F192" t="s">
+        <v>0</v>
+      </c>
+      <c r="G192" t="s">
+        <v>2</v>
+      </c>
+      <c r="H192" t="s">
+        <v>3</v>
+      </c>
+      <c r="I192" t="s">
+        <v>4</v>
+      </c>
+      <c r="J192" t="s">
+        <v>5</v>
+      </c>
+      <c r="K192" t="s">
+        <v>6</v>
+      </c>
+      <c r="L192" t="s">
+        <v>7</v>
+      </c>
+      <c r="M192">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A193" s="1">
+        <v>45412</v>
+      </c>
+      <c r="B193" s="2">
+        <v>0.96962962962962962</v>
+      </c>
+      <c r="C193">
+        <v>935</v>
+      </c>
+      <c r="D193" t="s">
+        <v>0</v>
+      </c>
+      <c r="E193" t="s">
+        <v>1</v>
+      </c>
+      <c r="F193" t="s">
+        <v>0</v>
+      </c>
+      <c r="G193" t="s">
+        <v>2</v>
+      </c>
+      <c r="H193" t="s">
+        <v>3</v>
+      </c>
+      <c r="I193" t="s">
+        <v>4</v>
+      </c>
+      <c r="J193" t="s">
+        <v>5</v>
+      </c>
+      <c r="K193" t="s">
+        <v>8</v>
+      </c>
+      <c r="L193" t="s">
+        <v>7</v>
+      </c>
+      <c r="M193">
+        <v>6.6400000000000001E-3</v>
+      </c>
+    </row>
+    <row r="194" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A194" s="1">
+        <v>45412</v>
+      </c>
+      <c r="B194" s="2">
+        <v>0.96965277777777781</v>
+      </c>
+      <c r="C194">
+        <v>941</v>
+      </c>
+      <c r="D194" t="s">
+        <v>0</v>
+      </c>
+      <c r="E194" t="s">
+        <v>1</v>
+      </c>
+      <c r="F194" t="s">
+        <v>0</v>
+      </c>
+      <c r="G194" t="s">
+        <v>2</v>
+      </c>
+      <c r="H194" t="s">
+        <v>3</v>
+      </c>
+      <c r="I194" t="s">
+        <v>4</v>
+      </c>
+      <c r="J194" t="s">
+        <v>5</v>
+      </c>
+      <c r="K194" t="s">
+        <v>6</v>
+      </c>
+      <c r="L194" t="s">
+        <v>7</v>
+      </c>
+      <c r="M194">
+        <v>6.6400000000000001E-3</v>
+      </c>
+    </row>
+    <row r="195" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A195" s="1">
+        <v>45412</v>
+      </c>
+      <c r="B195" s="2">
+        <v>0.96965277777777781</v>
+      </c>
+      <c r="C195">
+        <v>944</v>
+      </c>
+      <c r="D195" t="s">
+        <v>0</v>
+      </c>
+      <c r="E195" t="s">
+        <v>1</v>
+      </c>
+      <c r="F195" t="s">
+        <v>0</v>
+      </c>
+      <c r="G195" t="s">
+        <v>2</v>
+      </c>
+      <c r="H195" t="s">
+        <v>3</v>
+      </c>
+      <c r="I195" t="s">
+        <v>4</v>
+      </c>
+      <c r="J195" t="s">
+        <v>5</v>
+      </c>
+      <c r="K195" t="s">
+        <v>8</v>
+      </c>
+      <c r="L195" t="s">
+        <v>7</v>
+      </c>
+      <c r="M195">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A196" s="1">
+        <v>45412</v>
+      </c>
+      <c r="B196" s="2">
+        <v>0.96965277777777781</v>
+      </c>
+      <c r="C196">
+        <v>948</v>
+      </c>
+      <c r="D196" t="s">
+        <v>0</v>
+      </c>
+      <c r="E196" t="s">
+        <v>1</v>
+      </c>
+      <c r="F196" t="s">
+        <v>0</v>
+      </c>
+      <c r="G196" t="s">
+        <v>2</v>
+      </c>
+      <c r="H196" t="s">
+        <v>3</v>
+      </c>
+      <c r="I196" t="s">
+        <v>4</v>
+      </c>
+      <c r="J196" t="s">
+        <v>5</v>
+      </c>
+      <c r="K196" t="s">
+        <v>6</v>
+      </c>
+      <c r="L196" t="s">
+        <v>7</v>
+      </c>
+      <c r="M196">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A197" s="1">
+        <v>45412</v>
+      </c>
+      <c r="B197" s="2">
+        <v>0.96965277777777781</v>
+      </c>
+      <c r="C197">
+        <v>950</v>
+      </c>
+      <c r="D197" t="s">
+        <v>0</v>
+      </c>
+      <c r="E197" t="s">
+        <v>1</v>
+      </c>
+      <c r="F197" t="s">
+        <v>0</v>
+      </c>
+      <c r="G197" t="s">
+        <v>2</v>
+      </c>
+      <c r="H197" t="s">
+        <v>3</v>
+      </c>
+      <c r="I197" t="s">
+        <v>4</v>
+      </c>
+      <c r="J197" t="s">
+        <v>5</v>
+      </c>
+      <c r="K197" t="s">
+        <v>8</v>
+      </c>
+      <c r="L197" t="s">
+        <v>7</v>
+      </c>
+      <c r="M197">
+        <v>7.4700000000000001E-3</v>
+      </c>
+    </row>
+    <row r="198" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A198" s="1">
+        <v>45412</v>
+      </c>
+      <c r="B198" s="2">
+        <v>0.96966435185185185</v>
+      </c>
+      <c r="C198">
+        <v>957</v>
+      </c>
+      <c r="D198" t="s">
+        <v>0</v>
+      </c>
+      <c r="E198" t="s">
+        <v>1</v>
+      </c>
+      <c r="F198" t="s">
+        <v>0</v>
+      </c>
+      <c r="G198" t="s">
+        <v>2</v>
+      </c>
+      <c r="H198" t="s">
+        <v>3</v>
+      </c>
+      <c r="I198" t="s">
+        <v>4</v>
+      </c>
+      <c r="J198" t="s">
+        <v>5</v>
+      </c>
+      <c r="K198" t="s">
+        <v>6</v>
+      </c>
+      <c r="L198" t="s">
+        <v>7</v>
+      </c>
+      <c r="M198">
+        <v>7.4700000000000001E-3</v>
+      </c>
+    </row>
+    <row r="199" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A199" s="1">
+        <v>45412</v>
+      </c>
+      <c r="B199" s="2">
+        <v>0.96966435185185185</v>
+      </c>
+      <c r="C199">
+        <v>959</v>
+      </c>
+      <c r="D199" t="s">
+        <v>0</v>
+      </c>
+      <c r="E199" t="s">
+        <v>1</v>
+      </c>
+      <c r="F199" t="s">
+        <v>0</v>
+      </c>
+      <c r="G199" t="s">
+        <v>2</v>
+      </c>
+      <c r="H199" t="s">
+        <v>3</v>
+      </c>
+      <c r="I199" t="s">
+        <v>4</v>
+      </c>
+      <c r="J199" t="s">
+        <v>5</v>
+      </c>
+      <c r="K199" t="s">
+        <v>8</v>
+      </c>
+      <c r="L199" t="s">
+        <v>7</v>
+      </c>
+      <c r="M199">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/bambooskoo.xlsx
+++ b/bambooskoo.xlsx
@@ -3,13 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="202300"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69C83EC1-1E70-554A-B4F1-FC00E1202BA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4486A30-2FBE-B743-9258-26E4FB668E08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2040" yWindow="1220" windowWidth="27640" windowHeight="16940" xr2:uid="{969CB53A-229A-6047-8583-E01588982B78}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="raw data" sheetId="3" r:id="rId2"/>
+    <sheet name="Test 1&amp;2" sheetId="1" r:id="rId1"/>
+    <sheet name="test 3" sheetId="4" r:id="rId2"/>
+    <sheet name="raw data" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -267,7 +268,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1819" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1826" uniqueCount="35">
   <si>
     <t>-</t>
   </si>
@@ -364,12 +365,21 @@
   <si>
     <t>Vary Y</t>
   </si>
+  <si>
+    <t>not sure what happened there</t>
+  </si>
+  <si>
+    <t>% err</t>
+  </si>
+  <si>
+    <t>Test 3 results - X constant, Y incremented from 119.1 to 120.9; skew is reset</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -403,6 +413,14 @@
       <color rgb="FFFF0000"/>
       <name val="Helvetica"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -440,10 +458,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -506,8 +525,16 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -748,7 +775,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$8:$A$27</c:f>
+              <c:f>'Test 1&amp;2'!$A$8:$A$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
@@ -817,7 +844,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$E$8:$E$27</c:f>
+              <c:f>'Test 1&amp;2'!$E$8:$E$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
@@ -1216,7 +1243,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$H$5</c:f>
+              <c:f>'Test 1&amp;2'!$H$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
               </c:strCache>
@@ -1297,7 +1324,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$8:$A$27</c:f>
+              <c:f>'Test 1&amp;2'!$A$8:$A$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
@@ -1366,7 +1393,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$D$8:$D$27</c:f>
+              <c:f>'Test 1&amp;2'!$D$8:$D$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
@@ -2770,16 +2797,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>181428</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>153810</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>452362</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>86077</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>124178</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>80634</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>225778</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>12901</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2806,16 +2833,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>822475</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>500742</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>30642</xdr:rowOff>
+      <xdr:rowOff>98376</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>784375</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>293308</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>30642</xdr:rowOff>
+      <xdr:rowOff>98376</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2844,7 +2871,7 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>269119</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>282221</xdr:rowOff>
@@ -3389,10 +3416,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17FE44B1-614B-1E44-837D-CB0691D13785}">
-  <dimension ref="A1:H43"/>
+  <dimension ref="A1:G43"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="75" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3408,7 +3435,7 @@
     <col min="9" max="16384" width="10.83203125" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="3"/>
       <c r="B1" s="4" t="s">
         <v>13</v>
@@ -3427,7 +3454,7 @@
       </c>
       <c r="G1" s="15"/>
     </row>
-    <row r="2" spans="1:8" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>11</v>
       </c>
@@ -3450,7 +3477,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
         <v>12</v>
       </c>
@@ -3463,15 +3490,15 @@
       <c r="F3" s="20"/>
       <c r="G3" s="25"/>
     </row>
-    <row r="4" spans="1:8" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C4" s="16"/>
       <c r="D4" s="23"/>
       <c r="E4" s="24"/>
       <c r="F4" s="24"/>
       <c r="G4" s="16"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="6" t="s">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="28" t="s">
         <v>28</v>
       </c>
       <c r="B5" s="6" t="s">
@@ -3493,12 +3520,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="E6" s="22"/>
       <c r="F6" s="22"/>
       <c r="G6" s="9"/>
     </row>
-    <row r="7" spans="1:8" ht="59" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" ht="59" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="21" t="s">
         <v>22</v>
       </c>
@@ -3520,11 +3547,8 @@
       <c r="G7" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="H7" s="14" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="13">
         <v>119.1</v>
       </c>
@@ -3549,11 +3573,8 @@
         <f>(F8-E8)/F8</f>
         <v>-7.741660708538942E-3</v>
       </c>
-      <c r="H8" s="13">
-        <v>-7.5300000000000002E-3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="13">
         <f>A8+0.1</f>
         <v>119.19999999999999</v>
@@ -3580,11 +3601,8 @@
         <f t="shared" ref="G9:G27" si="2">(F9-E9)/F9</f>
         <v>-6.8265515858876641E-3</v>
       </c>
-      <c r="H9" s="13">
-        <v>-6.6899999999999998E-3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="13">
         <f>A9+0.1</f>
         <v>119.29999999999998</v>
@@ -3611,11 +3629,8 @@
         <f t="shared" si="2"/>
         <v>-5.7680145471605358E-3</v>
       </c>
-      <c r="H10" s="13">
-        <v>-5.8500000000000002E-3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="13">
         <f>A10+0.1</f>
         <v>119.39999999999998</v>
@@ -3642,11 +3657,8 @@
         <f t="shared" si="2"/>
         <v>-4.4946194757566338E-3</v>
       </c>
-      <c r="H11" s="13">
-        <v>-5.0099999999999997E-3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="13">
         <f>A11+0.1</f>
         <v>119.49999999999997</v>
@@ -3672,11 +3684,8 @@
         <f t="shared" si="2"/>
         <v>-5.2827761084511971E-3</v>
       </c>
-      <c r="H12" s="13">
-        <v>-4.1799999999999997E-3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="13">
         <f>A12+0.1</f>
         <v>119.59999999999997</v>
@@ -3703,11 +3712,8 @@
         <f t="shared" si="2"/>
         <v>-3.6653780350259196E-3</v>
       </c>
-      <c r="H13" s="13">
-        <v>-3.3400000000000001E-3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="13">
         <f>A13+0.1</f>
         <v>119.69999999999996</v>
@@ -3734,11 +3740,8 @@
         <f t="shared" si="2"/>
         <v>-1.2474029677650498E-3</v>
       </c>
-      <c r="H14" s="13">
-        <v>-2.5000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="13">
         <f>A14+0.1</f>
         <v>119.79999999999995</v>
@@ -3765,11 +3768,8 @@
         <f t="shared" si="2"/>
         <v>-2.8338423984691106E-3</v>
       </c>
-      <c r="H15" s="13">
-        <v>-1.67E-3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="13">
         <f>A15+0.1</f>
         <v>119.89999999999995</v>
@@ -3795,11 +3795,8 @@
         <f t="shared" si="2"/>
         <v>3.585287931030719E-3</v>
       </c>
-      <c r="H16" s="13">
-        <v>-8.3000000000000001E-4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="13">
         <f>A16+0.1</f>
         <v>119.99999999999994</v>
@@ -3825,11 +3822,8 @@
       <c r="G17" s="18">
         <v>0</v>
       </c>
-      <c r="H17" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="13">
         <f>A17+0.1</f>
         <v>120.09999999999994</v>
@@ -3856,11 +3850,8 @@
         <f t="shared" si="2"/>
         <v>4.415288458499941E-3</v>
       </c>
-      <c r="H18" s="13">
-        <v>8.3000000000000001E-4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="13">
         <f>A18+0.1</f>
         <v>120.19999999999993</v>
@@ -3886,11 +3877,8 @@
         <f t="shared" si="2"/>
         <v>-1.1638381466021657E-3</v>
       </c>
-      <c r="H19" s="13">
-        <v>1.67E-3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="13">
         <f>A19+0.1</f>
         <v>120.29999999999993</v>
@@ -3917,11 +3905,8 @@
         <f t="shared" si="2"/>
         <v>1.2526113551016599E-3</v>
       </c>
-      <c r="H20" s="13">
-        <v>2.5000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="13">
         <f>A20+0.1</f>
         <v>120.39999999999992</v>
@@ -3948,11 +3933,8 @@
         <f t="shared" si="2"/>
         <v>2.6696420441296234E-3</v>
       </c>
-      <c r="H21" s="13">
-        <v>3.3300000000000001E-3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="13">
         <f>A21+0.1</f>
         <v>120.49999999999991</v>
@@ -3979,11 +3961,8 @@
         <f t="shared" si="2"/>
         <v>3.6872555339538689E-3</v>
       </c>
-      <c r="H22" s="13">
-        <v>4.1599999999999996E-3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="13">
         <f>A22+0.1</f>
         <v>120.59999999999991</v>
@@ -4009,11 +3988,8 @@
         <f t="shared" si="2"/>
         <v>4.5054534462347362E-3</v>
       </c>
-      <c r="H23" s="13">
-        <v>4.9899999999999996E-3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="13">
         <f>A23+0.1</f>
         <v>120.6999999999999</v>
@@ -4040,11 +4016,8 @@
         <f t="shared" si="2"/>
         <v>5.2099516965985262E-3</v>
       </c>
-      <c r="H24" s="13">
-        <v>5.8199999999999997E-3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="13">
         <f>A24+0.1</f>
         <v>120.7999999999999</v>
@@ -4071,11 +4044,8 @@
         <f t="shared" si="2"/>
         <v>7.3385810825798391E-3</v>
       </c>
-      <c r="H25" s="13">
-        <v>6.6400000000000001E-3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="13">
         <f>A25+0.1</f>
         <v>120.89999999999989</v>
@@ -4102,11 +4072,8 @@
         <f t="shared" si="2"/>
         <v>7.758538547838441E-3</v>
       </c>
-      <c r="H26" s="13">
-        <v>7.4700000000000001E-3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="13">
         <v>119.1</v>
       </c>
@@ -4131,11 +4098,8 @@
         <f t="shared" si="2"/>
         <v>-7.741660708538942E-3</v>
       </c>
-      <c r="H27" s="13" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="11"/>
       <c r="B32" s="12"/>
     </row>
@@ -4194,6 +4158,9 @@
     <mergeCell ref="E5:E6"/>
     <mergeCell ref="F5:F6"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A5" location="'test 3'!A1" display="Test #3" xr:uid="{F171359B-B25A-3246-BAB8-05AC08BCE037}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
@@ -4201,6 +4168,556 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8496629-304B-9A44-836D-4A93A099C3E2}">
+  <dimension ref="A1:G23"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="D4" activeCellId="1" sqref="B4:B23 D4:D23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="6" max="6" width="12.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="A3" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="G3" s="13"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="13">
+        <v>120</v>
+      </c>
+      <c r="B4" s="13">
+        <v>119.1</v>
+      </c>
+      <c r="C4" s="13">
+        <f>COS(RADIANS(45)) *A4</f>
+        <v>84.852813742385706</v>
+      </c>
+      <c r="D4" s="13">
+        <v>-7.5300000000000002E-3</v>
+      </c>
+      <c r="E4" s="13">
+        <f>RADIANS(45-DEGREES(ASIN(C4/MAX(A4:B4))))</f>
+        <v>-1.2401310215141802E-16</v>
+      </c>
+      <c r="F4" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="G4" s="13"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="13">
+        <f>A4</f>
+        <v>120</v>
+      </c>
+      <c r="B5" s="13">
+        <f>B4+0.1</f>
+        <v>119.19999999999999</v>
+      </c>
+      <c r="C5" s="13">
+        <f t="shared" ref="C5:C23" si="0">COS(RADIANS(45)) *A5</f>
+        <v>84.852813742385706</v>
+      </c>
+      <c r="D5" s="13">
+        <v>-6.6899999999999998E-3</v>
+      </c>
+      <c r="E5" s="13">
+        <f>RADIANS(45-DEGREES(ASIN(C5/B5)))</f>
+        <v>-6.73413449106792E-3</v>
+      </c>
+      <c r="F5" s="26">
+        <f>(E5-D5)/D5</f>
+        <v>6.5970838666547377E-3</v>
+      </c>
+      <c r="G5" s="13"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="13">
+        <f>A5</f>
+        <v>120</v>
+      </c>
+      <c r="B6" s="13">
+        <f>B5+0.1</f>
+        <v>119.29999999999998</v>
+      </c>
+      <c r="C6" s="13">
+        <f t="shared" si="0"/>
+        <v>84.852813742385706</v>
+      </c>
+      <c r="D6" s="13">
+        <v>-5.8500000000000002E-3</v>
+      </c>
+      <c r="E6" s="13">
+        <f>RADIANS(45-DEGREES(ASIN(C6/B6)))</f>
+        <v>-5.884910776431977E-3</v>
+      </c>
+      <c r="F6" s="26">
+        <f t="shared" ref="F6:F22" si="1">(E6-D6)/D6</f>
+        <v>5.9676540909362127E-3</v>
+      </c>
+      <c r="G6" s="13"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="13">
+        <f>A6</f>
+        <v>120</v>
+      </c>
+      <c r="B7" s="13">
+        <f>B6+0.1</f>
+        <v>119.39999999999998</v>
+      </c>
+      <c r="C7" s="13">
+        <f t="shared" si="0"/>
+        <v>84.852813742385706</v>
+      </c>
+      <c r="D7" s="13">
+        <v>-5.0099999999999997E-3</v>
+      </c>
+      <c r="E7" s="13">
+        <f>RADIANS(45-DEGREES(ASIN(C7/B7)))</f>
+        <v>-5.0378368110238873E-3</v>
+      </c>
+      <c r="F7" s="26">
+        <f t="shared" si="1"/>
+        <v>5.5562497053667946E-3</v>
+      </c>
+      <c r="G7" s="13"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="13">
+        <v>120</v>
+      </c>
+      <c r="B8" s="13">
+        <f>B7+0.1</f>
+        <v>119.49999999999997</v>
+      </c>
+      <c r="C8" s="13">
+        <f t="shared" si="0"/>
+        <v>84.852813742385706</v>
+      </c>
+      <c r="D8" s="13">
+        <v>-4.1799999999999997E-3</v>
+      </c>
+      <c r="E8" s="13">
+        <f>RADIANS(45-DEGREES(ASIN(C8/B8)))</f>
+        <v>-4.1929029084307456E-3</v>
+      </c>
+      <c r="F8" s="26">
+        <f t="shared" si="1"/>
+        <v>3.0868201987430521E-3</v>
+      </c>
+      <c r="G8" s="13"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="13">
+        <f>A8</f>
+        <v>120</v>
+      </c>
+      <c r="B9" s="13">
+        <f>B8+0.1</f>
+        <v>119.59999999999997</v>
+      </c>
+      <c r="C9" s="13">
+        <f t="shared" si="0"/>
+        <v>84.852813742385706</v>
+      </c>
+      <c r="D9" s="13">
+        <v>-3.3400000000000001E-3</v>
+      </c>
+      <c r="E9" s="13">
+        <f>RADIANS(45-DEGREES(ASIN(C9/B9)))</f>
+        <v>-3.350099449714932E-3</v>
+      </c>
+      <c r="F9" s="26">
+        <f t="shared" si="1"/>
+        <v>3.0237873397999759E-3</v>
+      </c>
+      <c r="G9" s="13"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="13">
+        <f>A9</f>
+        <v>120</v>
+      </c>
+      <c r="B10" s="13">
+        <f>B9+0.1</f>
+        <v>119.69999999999996</v>
+      </c>
+      <c r="C10" s="13">
+        <f t="shared" si="0"/>
+        <v>84.852813742385706</v>
+      </c>
+      <c r="D10" s="13">
+        <v>-2.5000000000000001E-3</v>
+      </c>
+      <c r="E10" s="13">
+        <f>RADIANS(45-DEGREES(ASIN(C10/B10)))</f>
+        <v>-2.50941688275882E-3</v>
+      </c>
+      <c r="F10" s="26">
+        <f t="shared" si="1"/>
+        <v>3.7667531035279894E-3</v>
+      </c>
+      <c r="G10" s="13"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="13">
+        <f>A10</f>
+        <v>120</v>
+      </c>
+      <c r="B11" s="13">
+        <f>B10+0.1</f>
+        <v>119.79999999999995</v>
+      </c>
+      <c r="C11" s="13">
+        <f t="shared" si="0"/>
+        <v>84.852813742385706</v>
+      </c>
+      <c r="D11" s="13">
+        <v>-1.67E-3</v>
+      </c>
+      <c r="E11" s="13">
+        <f>RADIANS(45-DEGREES(ASIN(C11/B11)))</f>
+        <v>-1.6708457216150743E-3</v>
+      </c>
+      <c r="F11" s="26">
+        <f t="shared" si="1"/>
+        <v>5.0642012878700877E-4</v>
+      </c>
+      <c r="G11" s="13"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="13">
+        <v>120</v>
+      </c>
+      <c r="B12" s="13">
+        <f>B11+0.1</f>
+        <v>119.89999999999995</v>
+      </c>
+      <c r="C12" s="13">
+        <f t="shared" si="0"/>
+        <v>84.852813742385706</v>
+      </c>
+      <c r="D12" s="13">
+        <v>-8.3000000000000001E-4</v>
+      </c>
+      <c r="E12" s="13">
+        <f>RADIANS(45-DEGREES(ASIN(C12/B12)))</f>
+        <v>-8.3437654586785933E-4</v>
+      </c>
+      <c r="F12" s="26">
+        <f t="shared" si="1"/>
+        <v>5.272946828746173E-3</v>
+      </c>
+      <c r="G12" s="13"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="13">
+        <f>A12</f>
+        <v>120</v>
+      </c>
+      <c r="B13" s="13">
+        <f>B12+0.1</f>
+        <v>119.99999999999994</v>
+      </c>
+      <c r="C13" s="13">
+        <f t="shared" si="0"/>
+        <v>84.852813742385706</v>
+      </c>
+      <c r="D13" s="13">
+        <v>0</v>
+      </c>
+      <c r="E13" s="13">
+        <f t="shared" ref="E13:E23" si="2">RADIANS(45-DEGREES(ASIN(C13/B13)))</f>
+        <v>-4.9605240860567208E-16</v>
+      </c>
+      <c r="F13" s="26">
+        <v>0</v>
+      </c>
+      <c r="G13" s="13"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="13">
+        <f t="shared" ref="A14" si="3">A13</f>
+        <v>120</v>
+      </c>
+      <c r="B14" s="13">
+        <f>B13+0.1</f>
+        <v>120.09999999999994</v>
+      </c>
+      <c r="C14" s="13">
+        <f t="shared" si="0"/>
+        <v>84.852813742385706</v>
+      </c>
+      <c r="D14" s="13">
+        <v>8.3000000000000001E-4</v>
+      </c>
+      <c r="E14" s="13">
+        <f t="shared" si="2"/>
+        <v>8.3229320722881962E-4</v>
+      </c>
+      <c r="F14" s="26">
+        <f t="shared" si="1"/>
+        <v>2.7629002756862741E-3</v>
+      </c>
+      <c r="G14" s="13"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="13">
+        <v>120</v>
+      </c>
+      <c r="B15" s="13">
+        <f>B14+0.1</f>
+        <v>120.19999999999993</v>
+      </c>
+      <c r="C15" s="13">
+        <f t="shared" si="0"/>
+        <v>84.852813742385706</v>
+      </c>
+      <c r="D15" s="13">
+        <v>1.67E-3</v>
+      </c>
+      <c r="E15" s="13">
+        <f t="shared" si="2"/>
+        <v>1.6625123034027423E-3</v>
+      </c>
+      <c r="F15" s="26">
+        <f t="shared" si="1"/>
+        <v>-4.4836506570405821E-3</v>
+      </c>
+      <c r="G15" s="13"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" s="13">
+        <f>A15</f>
+        <v>120</v>
+      </c>
+      <c r="B16" s="13">
+        <f>B15+0.1</f>
+        <v>120.29999999999993</v>
+      </c>
+      <c r="C16" s="13">
+        <f t="shared" si="0"/>
+        <v>84.852813742385706</v>
+      </c>
+      <c r="D16" s="13">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="E16" s="13">
+        <f t="shared" si="2"/>
+        <v>2.4906664530547976E-3</v>
+      </c>
+      <c r="F16" s="26">
+        <f t="shared" si="1"/>
+        <v>-3.7334187780809977E-3</v>
+      </c>
+      <c r="G16" s="13"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" s="13">
+        <f>A16</f>
+        <v>120</v>
+      </c>
+      <c r="B17" s="13">
+        <f>B16+0.1</f>
+        <v>120.39999999999992</v>
+      </c>
+      <c r="C17" s="13">
+        <f t="shared" si="0"/>
+        <v>84.852813742385706</v>
+      </c>
+      <c r="D17" s="13">
+        <v>3.3300000000000001E-3</v>
+      </c>
+      <c r="E17" s="13">
+        <f t="shared" si="2"/>
+        <v>3.3167647582689843E-3</v>
+      </c>
+      <c r="F17" s="26">
+        <f t="shared" si="1"/>
+        <v>-3.9745470663710937E-3</v>
+      </c>
+      <c r="G17" s="13"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" s="13">
+        <f>A17</f>
+        <v>120</v>
+      </c>
+      <c r="B18" s="13">
+        <f>B17+0.1</f>
+        <v>120.49999999999991</v>
+      </c>
+      <c r="C18" s="13">
+        <f t="shared" si="0"/>
+        <v>84.852813742385706</v>
+      </c>
+      <c r="D18" s="13">
+        <v>4.1599999999999996E-3</v>
+      </c>
+      <c r="E18" s="13">
+        <f t="shared" si="2"/>
+        <v>4.140816259274047E-3</v>
+      </c>
+      <c r="F18" s="26">
+        <f t="shared" si="1"/>
+        <v>-4.6114761360463155E-3</v>
+      </c>
+      <c r="G18" s="13"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" s="13">
+        <v>120</v>
+      </c>
+      <c r="B19" s="13">
+        <f>B18+0.1</f>
+        <v>120.59999999999991</v>
+      </c>
+      <c r="C19" s="13">
+        <f t="shared" si="0"/>
+        <v>84.852813742385706</v>
+      </c>
+      <c r="D19" s="13">
+        <v>4.9899999999999996E-3</v>
+      </c>
+      <c r="E19" s="13">
+        <f t="shared" si="2"/>
+        <v>4.9628299350304292E-3</v>
+      </c>
+      <c r="F19" s="26">
+        <f t="shared" si="1"/>
+        <v>-5.4449027995131256E-3</v>
+      </c>
+      <c r="G19" s="13"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" s="13">
+        <f>A19</f>
+        <v>120</v>
+      </c>
+      <c r="B20" s="13">
+        <f>B19+0.1</f>
+        <v>120.6999999999999</v>
+      </c>
+      <c r="C20" s="13">
+        <f t="shared" si="0"/>
+        <v>84.852813742385706</v>
+      </c>
+      <c r="D20" s="13">
+        <v>5.8199999999999997E-3</v>
+      </c>
+      <c r="E20" s="13">
+        <f t="shared" si="2"/>
+        <v>5.782814703808546E-3</v>
+      </c>
+      <c r="F20" s="26">
+        <f t="shared" si="1"/>
+        <v>-6.3892261497343044E-3</v>
+      </c>
+      <c r="G20" s="13"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" s="13">
+        <f>A20</f>
+        <v>120</v>
+      </c>
+      <c r="B21" s="13">
+        <f>B20+0.1</f>
+        <v>120.7999999999999</v>
+      </c>
+      <c r="C21" s="13">
+        <f t="shared" si="0"/>
+        <v>84.852813742385706</v>
+      </c>
+      <c r="D21" s="13">
+        <v>6.6400000000000001E-3</v>
+      </c>
+      <c r="E21" s="13">
+        <f t="shared" si="2"/>
+        <v>6.6007794237619736E-3</v>
+      </c>
+      <c r="F21" s="26">
+        <f t="shared" si="1"/>
+        <v>-5.9067132888594043E-3</v>
+      </c>
+      <c r="G21" s="13"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" s="13">
+        <f t="shared" ref="A22" si="4">A21</f>
+        <v>120</v>
+      </c>
+      <c r="B22" s="13">
+        <f>B21+0.1</f>
+        <v>120.89999999999989</v>
+      </c>
+      <c r="C22" s="13">
+        <f t="shared" si="0"/>
+        <v>84.852813742385706</v>
+      </c>
+      <c r="D22" s="13">
+        <v>7.4700000000000001E-3</v>
+      </c>
+      <c r="E22" s="13">
+        <f t="shared" si="2"/>
+        <v>7.4167328934912121E-3</v>
+      </c>
+      <c r="F22" s="26">
+        <f t="shared" si="1"/>
+        <v>-7.1308040841750967E-3</v>
+      </c>
+      <c r="G22" s="13"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" s="13">
+        <v>120</v>
+      </c>
+      <c r="B23" s="13">
+        <v>119.1</v>
+      </c>
+      <c r="C23" s="13">
+        <f t="shared" si="0"/>
+        <v>84.852813742385706</v>
+      </c>
+      <c r="D23" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="E23" s="13">
+        <f t="shared" si="2"/>
+        <v>-7.5855177094859717E-3</v>
+      </c>
+      <c r="F23" s="26"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{238BEE41-46C7-C24B-986C-74C2080EEE3C}">
   <dimension ref="A1:M199"/>
   <sheetViews>

--- a/bambooskoo.xlsx
+++ b/bambooskoo.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="202300"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4486A30-2FBE-B743-9258-26E4FB668E08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFF9AF02-D3C0-B14A-9D44-B1BB78F145E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2040" yWindow="1220" windowWidth="27640" windowHeight="16940" xr2:uid="{969CB53A-229A-6047-8583-E01588982B78}"/>
+    <workbookView xWindow="2040" yWindow="1220" windowWidth="27640" windowHeight="16940" activeTab="1" xr2:uid="{969CB53A-229A-6047-8583-E01588982B78}"/>
   </bookViews>
   <sheets>
     <sheet name="Test 1&amp;2" sheetId="1" r:id="rId1"/>
@@ -268,7 +268,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1826" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1825" uniqueCount="34">
   <si>
     <t>-</t>
   </si>
@@ -366,9 +366,6 @@
     <t>Vary Y</t>
   </si>
   <si>
-    <t>not sure what happened there</t>
-  </si>
-  <si>
     <t>% err</t>
   </si>
   <si>
@@ -462,7 +459,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -527,9 +524,6 @@
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
@@ -3418,7 +3412,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17FE44B1-614B-1E44-837D-CB0691D13785}">
   <dimension ref="A1:G43"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="75" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="75" workbookViewId="0">
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
@@ -3498,7 +3492,7 @@
       <c r="G4" s="16"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="28" t="s">
+      <c r="A5" s="27" t="s">
         <v>28</v>
       </c>
       <c r="B5" s="6" t="s">
@@ -4171,8 +4165,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8496629-304B-9A44-836D-4A93A099C3E2}">
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D4" activeCellId="1" sqref="B4:B23 D4:D23"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4182,7 +4176,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="51" x14ac:dyDescent="0.2">
@@ -4202,7 +4196,7 @@
         <v>18</v>
       </c>
       <c r="F3" s="14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G3" s="13"/>
     </row>
@@ -4221,11 +4215,12 @@
         <v>-7.5300000000000002E-3</v>
       </c>
       <c r="E4" s="13">
-        <f>RADIANS(45-DEGREES(ASIN(C4/MAX(A4:B4))))</f>
-        <v>-1.2401310215141802E-16</v>
-      </c>
-      <c r="F4" s="27" t="s">
-        <v>32</v>
+        <f>RADIANS(45-DEGREES(ASIN(C4/B4)))</f>
+        <v>-7.5855177094859717E-3</v>
+      </c>
+      <c r="F4" s="26">
+        <f>(E4-D4)/D4</f>
+        <v>7.3728697856535758E-3</v>
       </c>
       <c r="G4" s="13"/>
     </row>
